--- a/data/freight/US Rail Traffic.xlsx
+++ b/data/freight/US Rail Traffic.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\freight\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CORE16\PycharmProjects\AlternativeData\data\freight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01277332-C16B-42A0-BC48-32034ADF58E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A815A5A-9009-47E9-A5A9-37867E70CFF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" xr2:uid="{55EF15CE-83DB-4E42-B75D-C3DAE3AA4C48}"/>
   </bookViews>
@@ -77,10 +77,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -186,7 +186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -197,61 +197,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -579,10 +579,10 @@
   <dimension ref="A1:E877"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="G853" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="G865" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I870" sqref="I870"/>
+      <selection pane="bottomRight" activeCell="E877" sqref="E877"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -16588,7 +16588,12 @@
       </c>
     </row>
     <row r="877" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A877" s="12"/>
+      <c r="A877" s="12">
+        <v>46032</v>
+      </c>
+      <c r="B877" s="4">
+        <v>46036</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:E876">

--- a/data/freight/US Rail Traffic.xlsx
+++ b/data/freight/US Rail Traffic.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CORE16\PycharmProjects\AlternativeData\data\freight\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\freight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A815A5A-9009-47E9-A5A9-37867E70CFF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFE188C-48B9-453E-9BB7-5D6C98CA698C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" xr2:uid="{55EF15CE-83DB-4E42-B75D-C3DAE3AA4C48}"/>
   </bookViews>
@@ -77,10 +77,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -186,7 +186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -197,61 +197,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -582,7 +582,7 @@
       <pane xSplit="6" ySplit="3" topLeftCell="G865" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E877" sqref="E877"/>
+      <selection pane="bottomRight" activeCell="E878" sqref="E878"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -15794,7 +15794,7 @@
         <v>0.5</v>
       </c>
       <c r="D834" s="11" t="str">
-        <f t="shared" ref="D834:D875" si="13">IF(
+        <f t="shared" ref="D834:D877" si="13">IF(
  AND(
   A834 &gt;= IF(
          YEAR(A834)&gt;=2007,
@@ -16565,22 +16565,7 @@
         <v>0.50416666666666665</v>
       </c>
       <c r="D876" s="11" t="str">
-        <f t="shared" ref="D876" si="14">IF(
- AND(
-  A876 &gt;= IF(
-         YEAR(A876)&gt;=2007,
-         DATE(YEAR(A876),3,14)-WEEKDAY(DATE(YEAR(A876),3,14),1)+1 + TIME(2,0,0),
-         DATE(YEAR(A876),4,7)-WEEKDAY(DATE(YEAR(A876),4,7),1)+1 + TIME(2,0,0)
-       ),
-  A876 &lt;  IF(
-         YEAR(A876)&gt;=2007,
-         DATE(YEAR(A876),11,7)-WEEKDAY(DATE(YEAR(A876),11,7),1)+1 + TIME(2,0,0),
-         DATE(YEAR(A876),10,31)-WEEKDAY(DATE(YEAR(A876),10,31),1) + TIME(2,0,0)
-       )
- ),
- "UTC-4",
- "UTC-5"
-)</f>
+        <f t="shared" si="13"/>
         <v>UTC-5</v>
       </c>
       <c r="E876" s="7">
@@ -16593,6 +16578,16 @@
       </c>
       <c r="B877" s="4">
         <v>46036</v>
+      </c>
+      <c r="C877" s="19">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="D877" s="11" t="str">
+        <f t="shared" si="13"/>
+        <v>UTC-5</v>
+      </c>
+      <c r="E877" s="7">
+        <v>510457</v>
       </c>
     </row>
   </sheetData>

--- a/data/freight/US Rail Traffic.xlsx
+++ b/data/freight/US Rail Traffic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\freight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E367CE-6CE4-4F49-862F-2915FEE4A621}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06250C3-8854-4B87-83BC-373CDFD939E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" xr2:uid="{55EF15CE-83DB-4E42-B75D-C3DAE3AA4C48}"/>
   </bookViews>
@@ -570,13 +570,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FCC8DB-37A0-4531-B65E-34C65BAF4830}">
-  <dimension ref="A1:E877"/>
+  <dimension ref="A1:E878"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="3" topLeftCell="G865" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="E878" sqref="E878"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -16582,6 +16582,14 @@
       </c>
       <c r="E877" s="20">
         <v>510457</v>
+      </c>
+    </row>
+    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A878" s="8">
+        <v>46039</v>
+      </c>
+      <c r="B878" s="8">
+        <v>46043</v>
       </c>
     </row>
   </sheetData>

--- a/data/freight/US Rail Traffic.xlsx
+++ b/data/freight/US Rail Traffic.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\freight\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CORE16\PycharmProjects\AlternativeData\data\freight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06250C3-8854-4B87-83BC-373CDFD939E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AF70E8-0845-46F0-AF57-CA21BF87B726}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" xr2:uid="{55EF15CE-83DB-4E42-B75D-C3DAE3AA4C48}"/>
   </bookViews>
@@ -77,10 +77,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -180,7 +180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -197,61 +197,61 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -576,14 +576,14 @@
       <pane xSplit="6" ySplit="3" topLeftCell="G865" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E878" sqref="E878"/>
+      <selection pane="bottomRight" activeCell="K880" sqref="K880"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" style="8" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="6"/>
@@ -15788,7 +15788,7 @@
         <v>0.5</v>
       </c>
       <c r="D834" s="7" t="str">
-        <f t="shared" ref="D834:D877" si="13">IF(
+        <f t="shared" ref="D834:D878" si="13">IF(
  AND(
   A834 &gt;= IF(
          YEAR(A834)&gt;=2007,
@@ -16590,6 +16590,31 @@
       </c>
       <c r="B878" s="8">
         <v>46043</v>
+      </c>
+      <c r="C878" s="21">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="D878" s="7" t="str">
+        <f>IF(
+ AND(
+  A878 &gt;= IF(
+         YEAR(A878)&gt;=2007,
+         DATE(YEAR(A878),3,14)-WEEKDAY(DATE(YEAR(A878),3,14),1)+1 + TIME(2,0,0),
+         DATE(YEAR(A878),4,7)-WEEKDAY(DATE(YEAR(A878),4,7),1)+1 + TIME(2,0,0)
+       ),
+  A878 &lt;  IF(
+         YEAR(A878)&gt;=2007,
+         DATE(YEAR(A878),11,7)-WEEKDAY(DATE(YEAR(A878),11,7),1)+1 + TIME(2,0,0),
+         DATE(YEAR(A878),10,31)-WEEKDAY(DATE(YEAR(A878),10,31),1) + TIME(2,0,0)
+       )
+ ),
+ "UTC-4",
+ "UTC-5"
+)</f>
+        <v>UTC-5</v>
+      </c>
+      <c r="E878" s="20">
+        <v>505385</v>
       </c>
     </row>
   </sheetData>

--- a/data/freight/US Rail Traffic.xlsx
+++ b/data/freight/US Rail Traffic.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CORE16\PycharmProjects\AlternativeData\data\freight\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\freight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AF70E8-0845-46F0-AF57-CA21BF87B726}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC395749-20D7-4C49-82C4-3F8FAB4B7846}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" xr2:uid="{55EF15CE-83DB-4E42-B75D-C3DAE3AA4C48}"/>
   </bookViews>
@@ -77,10 +77,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -180,7 +180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -197,61 +197,61 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -570,13 +570,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FCC8DB-37A0-4531-B65E-34C65BAF4830}">
-  <dimension ref="A1:E878"/>
+  <dimension ref="A1:E879"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="G865" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="G850" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K880" sqref="K880"/>
+      <selection pane="bottomRight" activeCell="F858" sqref="F858"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -15788,7 +15788,7 @@
         <v>0.5</v>
       </c>
       <c r="D834" s="7" t="str">
-        <f t="shared" ref="D834:D878" si="13">IF(
+        <f t="shared" ref="D834:D877" si="13">IF(
  AND(
   A834 &gt;= IF(
          YEAR(A834)&gt;=2007,
@@ -16584,7 +16584,7 @@
         <v>510457</v>
       </c>
     </row>
-    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A878" s="8">
         <v>46039</v>
       </c>
@@ -16615,6 +16615,33 @@
       </c>
       <c r="E878" s="20">
         <v>505385</v>
+      </c>
+    </row>
+    <row r="879" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A879" s="15">
+        <v>46046</v>
+      </c>
+      <c r="B879" s="8">
+        <v>46050</v>
+      </c>
+      <c r="D879" s="7" t="str">
+        <f>IF(
+ AND(
+  A879 &gt;= IF(
+         YEAR(A879)&gt;=2007,
+         DATE(YEAR(A879),3,14)-WEEKDAY(DATE(YEAR(A879),3,14),1)+1 + TIME(2,0,0),
+         DATE(YEAR(A879),4,7)-WEEKDAY(DATE(YEAR(A879),4,7),1)+1 + TIME(2,0,0)
+       ),
+  A879 &lt;  IF(
+         YEAR(A879)&gt;=2007,
+         DATE(YEAR(A879),11,7)-WEEKDAY(DATE(YEAR(A879),11,7),1)+1 + TIME(2,0,0),
+         DATE(YEAR(A879),10,31)-WEEKDAY(DATE(YEAR(A879),10,31),1) + TIME(2,0,0)
+       )
+ ),
+ "UTC-4",
+ "UTC-5"
+)</f>
+        <v>UTC-5</v>
       </c>
     </row>
   </sheetData>

--- a/data/freight/US Rail Traffic.xlsx
+++ b/data/freight/US Rail Traffic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\freight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC395749-20D7-4C49-82C4-3F8FAB4B7846}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160EFE28-4439-45FD-999F-928A00C4019D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" xr2:uid="{55EF15CE-83DB-4E42-B75D-C3DAE3AA4C48}"/>
   </bookViews>
@@ -77,10 +77,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -180,7 +180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -197,61 +197,61 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -573,10 +573,10 @@
   <dimension ref="A1:E879"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="G850" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="G847" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F858" sqref="F858"/>
+      <selection pane="bottomRight" activeCell="F876" sqref="F876"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -584,7 +584,7 @@
     <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
@@ -16624,6 +16624,9 @@
       <c r="B879" s="8">
         <v>46050</v>
       </c>
+      <c r="C879" s="21">
+        <v>0.50208333333333333</v>
+      </c>
       <c r="D879" s="7" t="str">
         <f>IF(
  AND(
@@ -16643,6 +16646,9 @@
 )</f>
         <v>UTC-5</v>
       </c>
+      <c r="E879" s="20">
+        <v>481708</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:E876">
@@ -16659,7 +16665,7 @@
   <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C2" sqref="C2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>

--- a/data/freight/US Rail Traffic.xlsx
+++ b/data/freight/US Rail Traffic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\freight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160EFE28-4439-45FD-999F-928A00C4019D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC33F0A-A957-4685-9729-2F92FEA990FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" xr2:uid="{55EF15CE-83DB-4E42-B75D-C3DAE3AA4C48}"/>
   </bookViews>
@@ -570,13 +570,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FCC8DB-37A0-4531-B65E-34C65BAF4830}">
-  <dimension ref="A1:E879"/>
+  <dimension ref="A1:E880"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="3" topLeftCell="G847" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F876" sqref="F876"/>
+      <selection pane="bottomRight" activeCell="G879" sqref="G879"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -16650,13 +16650,43 @@
         <v>481708</v>
       </c>
     </row>
+    <row r="880" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A880" s="15">
+        <v>46053</v>
+      </c>
+      <c r="B880" s="8">
+        <v>46057</v>
+      </c>
+      <c r="C880" s="21">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="D880" s="7" t="str">
+        <f t="shared" ref="D880" si="14">IF(
+ AND(
+  A880 &gt;= IF(
+         YEAR(A880)&gt;=2007,
+         DATE(YEAR(A880),3,14)-WEEKDAY(DATE(YEAR(A880),3,14),1)+1 + TIME(2,0,0),
+         DATE(YEAR(A880),4,7)-WEEKDAY(DATE(YEAR(A880),4,7),1)+1 + TIME(2,0,0)
+       ),
+  A880 &lt;  IF(
+         YEAR(A880)&gt;=2007,
+         DATE(YEAR(A880),11,7)-WEEKDAY(DATE(YEAR(A880),11,7),1)+1 + TIME(2,0,0),
+         DATE(YEAR(A880),10,31)-WEEKDAY(DATE(YEAR(A880),10,31),1) + TIME(2,0,0)
+       )
+ ),
+ "UTC-4",
+ "UTC-5"
+)</f>
+        <v>UTC-5</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:E876">
     <sortCondition ref="B2:B876"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/freight/US Rail Traffic.xlsx
+++ b/data/freight/US Rail Traffic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\freight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC33F0A-A957-4685-9729-2F92FEA990FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7953A5F6-2AC6-44E8-BE89-FC5EF3A03D01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" xr2:uid="{55EF15CE-83DB-4E42-B75D-C3DAE3AA4C48}"/>
   </bookViews>
@@ -570,13 +570,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FCC8DB-37A0-4531-B65E-34C65BAF4830}">
-  <dimension ref="A1:E880"/>
+  <dimension ref="A1:E881"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="G847" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="G862" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G879" sqref="G879"/>
+      <selection pane="bottomRight" activeCell="F882" sqref="F882"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -16658,10 +16658,10 @@
         <v>46057</v>
       </c>
       <c r="C880" s="21">
-        <v>0.50138888888888888</v>
+        <v>0.50277777777777777</v>
       </c>
       <c r="D880" s="7" t="str">
-        <f t="shared" ref="D880" si="14">IF(
+        <f t="shared" ref="D880:D881" si="14">IF(
  AND(
   A880 &gt;= IF(
          YEAR(A880)&gt;=2007,
@@ -16679,6 +16679,24 @@
 )</f>
         <v>UTC-5</v>
       </c>
+      <c r="E880" s="20">
+        <v>434361</v>
+      </c>
+    </row>
+    <row r="881" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A881" s="15">
+        <v>46060</v>
+      </c>
+      <c r="B881" s="8">
+        <v>46064</v>
+      </c>
+      <c r="C881" s="21">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="D881" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v>UTC-5</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:E876">
@@ -16695,7 +16713,7 @@
   <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -16733,6 +16751,6 @@
     <hyperlink ref="C2" r:id="rId1" xr:uid="{D983F789-6180-40A0-80AD-D23346B2ED15}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/freight/US Rail Traffic.xlsx
+++ b/data/freight/US Rail Traffic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\freight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7953A5F6-2AC6-44E8-BE89-FC5EF3A03D01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FF3B95-8911-4AD6-9446-10CC1290F3E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" xr2:uid="{55EF15CE-83DB-4E42-B75D-C3DAE3AA4C48}"/>
   </bookViews>
@@ -576,7 +576,7 @@
       <pane xSplit="6" ySplit="3" topLeftCell="G862" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F882" sqref="F882"/>
+      <selection pane="bottomRight" activeCell="H885" sqref="H885"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -16683,7 +16683,7 @@
         <v>434361</v>
       </c>
     </row>
-    <row r="881" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A881" s="15">
         <v>46060</v>
       </c>
@@ -16696,6 +16696,9 @@
       <c r="D881" s="7" t="str">
         <f t="shared" si="14"/>
         <v>UTC-5</v>
+      </c>
+      <c r="E881" s="20">
+        <v>486854</v>
       </c>
     </row>
   </sheetData>

--- a/data/freight/US Rail Traffic.xlsx
+++ b/data/freight/US Rail Traffic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\freight\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junghunlee/Desktop/Pycharm/AlternativeData/data/freight/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FF3B95-8911-4AD6-9446-10CC1290F3E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1DE197-5F6C-BF4A-9411-057AD41C88E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" xr2:uid="{55EF15CE-83DB-4E42-B75D-C3DAE3AA4C48}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="12120" xr2:uid="{55EF15CE-83DB-4E42-B75D-C3DAE3AA4C48}"/>
   </bookViews>
   <sheets>
     <sheet name="USRT" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -77,12 +88,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -180,7 +191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -197,68 +208,68 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="쉼표" xfId="1" builtinId="3"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -274,9 +285,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -314,7 +325,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -420,7 +431,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -562,7 +573,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -570,26 +581,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FCC8DB-37A0-4531-B65E-34C65BAF4830}">
-  <dimension ref="A1:E881"/>
+  <dimension ref="A1:E882"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="G862" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="G869" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H885" sqref="H885"/>
+      <selection pane="bottomRight" activeCell="G878" sqref="G878"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="6"/>
+    <col min="5" max="5" width="12.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -606,7 +617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2" s="7">
         <v>39823</v>
       </c>
@@ -639,7 +650,7 @@
         <v>474565</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14">
       <c r="A3" s="7">
         <v>39830</v>
       </c>
@@ -657,7 +668,7 @@
         <v>465386</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14">
       <c r="A4" s="7">
         <v>39837</v>
       </c>
@@ -675,7 +686,7 @@
         <v>462128</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="14">
       <c r="A5" s="7">
         <v>39844</v>
       </c>
@@ -693,7 +704,7 @@
         <v>449966</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14">
       <c r="A6" s="7">
         <v>39851</v>
       </c>
@@ -711,7 +722,7 @@
         <v>455757</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="14">
       <c r="A7" s="7">
         <v>39858</v>
       </c>
@@ -729,7 +740,7 @@
         <v>471961</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="14">
       <c r="A8" s="7">
         <v>39865</v>
       </c>
@@ -747,7 +758,7 @@
         <v>446575</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14">
       <c r="A9" s="7">
         <v>39872</v>
       </c>
@@ -765,7 +776,7 @@
         <v>458242</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14">
       <c r="A10" s="7">
         <v>39879</v>
       </c>
@@ -783,7 +794,7 @@
         <v>455041</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14">
       <c r="A11" s="7">
         <v>39886</v>
       </c>
@@ -801,7 +812,7 @@
         <v>455686</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14">
       <c r="A12" s="7">
         <v>39893</v>
       </c>
@@ -819,7 +830,7 @@
         <v>459547</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="14">
       <c r="A13" s="7">
         <v>39900</v>
       </c>
@@ -837,7 +848,7 @@
         <v>439844</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="14">
       <c r="A14" s="7">
         <v>39907</v>
       </c>
@@ -855,7 +866,7 @@
         <v>447103</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="14">
       <c r="A15" s="7">
         <v>39914</v>
       </c>
@@ -873,7 +884,7 @@
         <v>426107</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="14">
       <c r="A16" s="7">
         <v>39921</v>
       </c>
@@ -891,7 +902,7 @@
         <v>438602</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="14">
       <c r="A17" s="7">
         <v>39928</v>
       </c>
@@ -909,7 +920,7 @@
         <v>444794</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="14">
       <c r="A18" s="7">
         <v>39935</v>
       </c>
@@ -927,7 +938,7 @@
         <v>442378</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="14">
       <c r="A19" s="7">
         <v>39942</v>
       </c>
@@ -945,7 +956,7 @@
         <v>435052</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="14">
       <c r="A20" s="7">
         <v>39949</v>
       </c>
@@ -963,7 +974,7 @@
         <v>438329</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="14">
       <c r="A21" s="7">
         <v>39956</v>
       </c>
@@ -981,7 +992,7 @@
         <v>451355</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="14">
       <c r="A22" s="7">
         <v>39963</v>
       </c>
@@ -999,7 +1010,7 @@
         <v>401248</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="14">
       <c r="A23" s="7">
         <v>39970</v>
       </c>
@@ -1017,7 +1028,7 @@
         <v>448743</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="14">
       <c r="A24" s="7">
         <v>39977</v>
       </c>
@@ -1035,7 +1046,7 @@
         <v>451065</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="14">
       <c r="A25" s="7">
         <v>39984</v>
       </c>
@@ -1053,7 +1064,7 @@
         <v>449103</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="14">
       <c r="A26" s="7">
         <v>39991</v>
       </c>
@@ -1071,7 +1082,7 @@
         <v>444212</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="14">
       <c r="A27" s="7">
         <v>39998</v>
       </c>
@@ -1089,7 +1100,7 @@
         <v>410661</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="14">
       <c r="A28" s="7">
         <v>40005</v>
       </c>
@@ -1107,7 +1118,7 @@
         <v>439041</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="14">
       <c r="A29" s="7">
         <v>40012</v>
       </c>
@@ -1125,7 +1136,7 @@
         <v>456926</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="14">
       <c r="A30" s="7">
         <v>40019</v>
       </c>
@@ -1143,7 +1154,7 @@
         <v>467395</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="14">
       <c r="A31" s="7">
         <v>40026</v>
       </c>
@@ -1161,7 +1172,7 @@
         <v>468150</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="14">
       <c r="A32" s="7">
         <v>40033</v>
       </c>
@@ -1179,7 +1190,7 @@
         <v>469814</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="14">
       <c r="A33" s="7">
         <v>40040</v>
       </c>
@@ -1197,7 +1208,7 @@
         <v>469727</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="14">
       <c r="A34" s="7">
         <v>40047</v>
       </c>
@@ -1215,7 +1226,7 @@
         <v>472644</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="14">
       <c r="A35" s="7">
         <v>40054</v>
       </c>
@@ -1233,7 +1244,7 @@
         <v>488273</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="14">
       <c r="A36" s="7">
         <v>40061</v>
       </c>
@@ -1251,7 +1262,7 @@
         <v>486009</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="14">
       <c r="A37" s="7">
         <v>40068</v>
       </c>
@@ -1269,7 +1280,7 @@
         <v>439238</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="14">
       <c r="A38" s="7">
         <v>40075</v>
       </c>
@@ -1287,7 +1298,7 @@
         <v>487236</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="14">
       <c r="A39" s="7">
         <v>40082</v>
       </c>
@@ -1305,7 +1316,7 @@
         <v>477434</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="14">
       <c r="A40" s="7">
         <v>40089</v>
       </c>
@@ -1323,7 +1334,7 @@
         <v>484157</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="14">
       <c r="A41" s="7">
         <v>40096</v>
       </c>
@@ -1341,7 +1352,7 @@
         <v>481944</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="14">
       <c r="A42" s="7">
         <v>40103</v>
       </c>
@@ -1359,7 +1370,7 @@
         <v>481827</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="14">
       <c r="A43" s="7">
         <v>40110</v>
       </c>
@@ -1377,7 +1388,7 @@
         <v>483850</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="14">
       <c r="A44" s="7">
         <v>40117</v>
       </c>
@@ -1395,7 +1406,7 @@
         <v>479450</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="14">
       <c r="A45" s="7">
         <v>40124</v>
       </c>
@@ -1413,7 +1424,7 @@
         <v>481493</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="14">
       <c r="A46" s="7">
         <v>40131</v>
       </c>
@@ -1431,7 +1442,7 @@
         <v>489073</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="14">
       <c r="A47" s="7">
         <v>40138</v>
       </c>
@@ -1449,7 +1460,7 @@
         <v>500284</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="14">
       <c r="A48" s="7">
         <v>40145</v>
       </c>
@@ -1467,7 +1478,7 @@
         <v>412036</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="14">
       <c r="A49" s="7">
         <v>40152</v>
       </c>
@@ -1485,7 +1496,7 @@
         <v>491440</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="14">
       <c r="A50" s="7">
         <v>40159</v>
       </c>
@@ -1503,7 +1514,7 @@
         <v>464948</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="14">
       <c r="A51" s="7">
         <v>40166</v>
       </c>
@@ -1521,7 +1532,7 @@
         <v>481426</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="14">
       <c r="A52" s="7">
         <v>40173</v>
       </c>
@@ -1539,7 +1550,7 @@
         <v>339702</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="14">
       <c r="A53" s="7">
         <v>40180</v>
       </c>
@@ -1557,7 +1568,7 @@
         <v>376455</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="14">
       <c r="A54" s="7">
         <v>40187</v>
       </c>
@@ -1575,7 +1586,7 @@
         <v>433584</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="14">
       <c r="A55" s="7">
         <v>40194</v>
       </c>
@@ -1593,7 +1604,7 @@
         <v>465758</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="14">
       <c r="A56" s="7">
         <v>40201</v>
       </c>
@@ -1611,7 +1622,7 @@
         <v>478227</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="14">
       <c r="A57" s="7">
         <v>40208</v>
       </c>
@@ -1629,7 +1640,7 @@
         <v>482390</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="14">
       <c r="A58" s="7">
         <v>40215</v>
       </c>
@@ -1647,7 +1658,7 @@
         <v>469221</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="14">
       <c r="A59" s="7">
         <v>40222</v>
       </c>
@@ -1665,7 +1676,7 @@
         <v>450177</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="14">
       <c r="A60" s="7">
         <v>40229</v>
       </c>
@@ -1683,7 +1694,7 @@
         <v>474203</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="14">
       <c r="A61" s="7">
         <v>40236</v>
       </c>
@@ -1701,7 +1712,7 @@
         <v>496078</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="14">
       <c r="A62" s="7">
         <v>40243</v>
       </c>
@@ -1719,7 +1730,7 @@
         <v>497456</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="14">
       <c r="A63" s="7">
         <v>40250</v>
       </c>
@@ -1737,7 +1748,7 @@
         <v>491463</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="14">
       <c r="A64" s="7">
         <v>40257</v>
       </c>
@@ -1755,7 +1766,7 @@
         <v>488939</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="14">
       <c r="A65" s="7">
         <v>40264</v>
       </c>
@@ -1773,7 +1784,7 @@
         <v>504028</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="14">
       <c r="A66" s="7">
         <v>40271</v>
       </c>
@@ -1806,7 +1817,7 @@
         <v>486474</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="14">
       <c r="A67" s="7">
         <v>40278</v>
       </c>
@@ -1824,7 +1835,7 @@
         <v>492044</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="14">
       <c r="A68" s="7">
         <v>40285</v>
       </c>
@@ -1842,7 +1853,7 @@
         <v>506502</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="14">
       <c r="A69" s="7">
         <v>40292</v>
       </c>
@@ -1860,7 +1871,7 @@
         <v>510565</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="14">
       <c r="A70" s="7">
         <v>40299</v>
       </c>
@@ -1878,7 +1889,7 @@
         <v>508731</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="14">
       <c r="A71" s="7">
         <v>40306</v>
       </c>
@@ -1896,7 +1907,7 @@
         <v>497714</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="14">
       <c r="A72" s="7">
         <v>40313</v>
       </c>
@@ -1914,7 +1925,7 @@
         <v>508469</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="14">
       <c r="A73" s="7">
         <v>40320</v>
       </c>
@@ -1932,7 +1943,7 @@
         <v>503232</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="14">
       <c r="A74" s="7">
         <v>40327</v>
       </c>
@@ -1950,7 +1961,7 @@
         <v>511776</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="14">
       <c r="A75" s="7">
         <v>40334</v>
       </c>
@@ -1968,7 +1979,7 @@
         <v>462009</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="14">
       <c r="A76" s="7">
         <v>40341</v>
       </c>
@@ -1986,7 +1997,7 @@
         <v>512048</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="14">
       <c r="A77" s="7">
         <v>40348</v>
       </c>
@@ -2004,7 +2015,7 @@
         <v>512898</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="14">
       <c r="A78" s="7">
         <v>40355</v>
       </c>
@@ -2022,7 +2033,7 @@
         <v>511945</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="14">
       <c r="A79" s="7">
         <v>40362</v>
       </c>
@@ -2040,7 +2051,7 @@
         <v>518063</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="14">
       <c r="A80" s="7">
         <v>40369</v>
       </c>
@@ -2058,7 +2069,7 @@
         <v>445917</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="14">
       <c r="A81" s="7">
         <v>40376</v>
       </c>
@@ -2076,7 +2087,7 @@
         <v>509860</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="14">
       <c r="A82" s="7">
         <v>40383</v>
       </c>
@@ -2094,7 +2105,7 @@
         <v>517297</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="14">
       <c r="A83" s="7">
         <v>40390</v>
       </c>
@@ -2112,7 +2123,7 @@
         <v>533187</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="14">
       <c r="A84" s="7">
         <v>40397</v>
       </c>
@@ -2130,7 +2141,7 @@
         <v>515715</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="14">
       <c r="A85" s="7">
         <v>40404</v>
       </c>
@@ -2148,7 +2159,7 @@
         <v>529715</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="14">
       <c r="A86" s="7">
         <v>40411</v>
       </c>
@@ -2166,7 +2177,7 @@
         <v>533038</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="14">
       <c r="A87" s="7">
         <v>40418</v>
       </c>
@@ -2184,7 +2195,7 @@
         <v>539552</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="14">
       <c r="A88" s="7">
         <v>40425</v>
       </c>
@@ -2202,7 +2213,7 @@
         <v>542006</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="14">
       <c r="A89" s="7">
         <v>40432</v>
       </c>
@@ -2220,7 +2231,7 @@
         <v>484380</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="14">
       <c r="A90" s="7">
         <v>40439</v>
       </c>
@@ -2238,7 +2249,7 @@
         <v>544692</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="14">
       <c r="A91" s="7">
         <v>40446</v>
       </c>
@@ -2256,7 +2267,7 @@
         <v>542075</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="14">
       <c r="A92" s="7">
         <v>40453</v>
       </c>
@@ -2274,7 +2285,7 @@
         <v>539646</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="14">
       <c r="A93" s="7">
         <v>40460</v>
       </c>
@@ -2292,7 +2303,7 @@
         <v>533301</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="14">
       <c r="A94" s="7">
         <v>40467</v>
       </c>
@@ -2310,7 +2321,7 @@
         <v>540844</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="14">
       <c r="A95" s="7">
         <v>40474</v>
       </c>
@@ -2328,7 +2339,7 @@
         <v>538461</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="14">
       <c r="A96" s="7">
         <v>40481</v>
       </c>
@@ -2346,7 +2357,7 @@
         <v>525601</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="14">
       <c r="A97" s="7">
         <v>40488</v>
       </c>
@@ -2364,7 +2375,7 @@
         <v>519134</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="14">
       <c r="A98" s="7">
         <v>40495</v>
       </c>
@@ -2382,7 +2393,7 @@
         <v>530157</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="14">
       <c r="A99" s="7">
         <v>40502</v>
       </c>
@@ -2400,7 +2411,7 @@
         <v>533989</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="14">
       <c r="A100" s="7">
         <v>40509</v>
       </c>
@@ -2418,7 +2429,7 @@
         <v>437911</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="15" thickBot="1">
       <c r="A101" s="7">
         <v>40516</v>
       </c>
@@ -2436,7 +2447,7 @@
         <v>539405</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="15" thickBot="1">
       <c r="A102" s="11">
         <v>40523</v>
       </c>
@@ -2454,7 +2465,7 @@
         <v>520326</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="15" thickBot="1">
       <c r="A103" s="11">
         <v>40530</v>
       </c>
@@ -2472,7 +2483,7 @@
         <v>491896</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" ht="15" thickBot="1">
       <c r="A104" s="11">
         <v>40537</v>
       </c>
@@ -2490,7 +2501,7 @@
         <v>433347</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" ht="15" thickBot="1">
       <c r="A105" s="11">
         <v>40544</v>
       </c>
@@ -2508,7 +2519,7 @@
         <v>406967</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" ht="15" thickBot="1">
       <c r="A106" s="11">
         <v>40551</v>
       </c>
@@ -2526,7 +2537,7 @@
         <v>498773</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" ht="15" thickBot="1">
       <c r="A107" s="11">
         <v>40558</v>
       </c>
@@ -2544,7 +2555,7 @@
         <v>496473</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" ht="15" thickBot="1">
       <c r="A108" s="11">
         <v>40565</v>
       </c>
@@ -2562,7 +2573,7 @@
         <v>496043</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" ht="15" thickBot="1">
       <c r="A109" s="11">
         <v>40572</v>
       </c>
@@ -2580,7 +2591,7 @@
         <v>513889</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" ht="15" thickBot="1">
       <c r="A110" s="11">
         <v>40579</v>
       </c>
@@ -2598,7 +2609,7 @@
         <v>465931</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" ht="15" thickBot="1">
       <c r="A111" s="11">
         <v>40586</v>
       </c>
@@ -2616,7 +2627,7 @@
         <v>502078</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" ht="15" thickBot="1">
       <c r="A112" s="11">
         <v>40593</v>
       </c>
@@ -2634,7 +2645,7 @@
         <v>530973</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" ht="15" thickBot="1">
       <c r="A113" s="11">
         <v>40600</v>
       </c>
@@ -2652,7 +2663,7 @@
         <v>516841</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" ht="15" thickBot="1">
       <c r="A114" s="11">
         <v>40607</v>
       </c>
@@ -2670,7 +2681,7 @@
         <v>515296</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" ht="15" thickBot="1">
       <c r="A115" s="11">
         <v>40614</v>
       </c>
@@ -2688,7 +2699,7 @@
         <v>508992</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" ht="15" thickBot="1">
       <c r="A116" s="11">
         <v>40621</v>
       </c>
@@ -2706,7 +2717,7 @@
         <v>516560</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" ht="15" thickBot="1">
       <c r="A117" s="11">
         <v>40628</v>
       </c>
@@ -2724,7 +2735,7 @@
         <v>522937</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" ht="15" thickBot="1">
       <c r="A118" s="11">
         <v>40635</v>
       </c>
@@ -2742,7 +2753,7 @@
         <v>540213</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" ht="15" thickBot="1">
       <c r="A119" s="11">
         <v>40642</v>
       </c>
@@ -2760,7 +2771,7 @@
         <v>522511</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" ht="15" thickBot="1">
       <c r="A120" s="11">
         <v>40649</v>
       </c>
@@ -2778,7 +2789,7 @@
         <v>525886</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" ht="15" thickBot="1">
       <c r="A121" s="11">
         <v>40656</v>
       </c>
@@ -2796,7 +2807,7 @@
         <v>518374</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" ht="15" thickBot="1">
       <c r="A122" s="11">
         <v>40663</v>
       </c>
@@ -2814,7 +2825,7 @@
         <v>525024</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" ht="15" thickBot="1">
       <c r="A123" s="11">
         <v>40670</v>
       </c>
@@ -2832,7 +2843,7 @@
         <v>514038</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" ht="15" thickBot="1">
       <c r="A124" s="11">
         <v>40677</v>
       </c>
@@ -2850,7 +2861,7 @@
         <v>526146</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" ht="15" thickBot="1">
       <c r="A125" s="11">
         <v>40684</v>
       </c>
@@ -2868,7 +2879,7 @@
         <v>529383</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" ht="15" thickBot="1">
       <c r="A126" s="13">
         <v>40691</v>
       </c>
@@ -2886,7 +2897,7 @@
         <v>522717</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" ht="15" thickBot="1">
       <c r="A127" s="11">
         <v>40698</v>
       </c>
@@ -2904,7 +2915,7 @@
         <v>479149</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" ht="15" thickBot="1">
       <c r="A128" s="11">
         <v>40705</v>
       </c>
@@ -2922,7 +2933,7 @@
         <v>527603</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" ht="15" thickBot="1">
       <c r="A129" s="11">
         <v>40712</v>
       </c>
@@ -2940,7 +2951,7 @@
         <v>531992</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" ht="15" thickBot="1">
       <c r="A130" s="11">
         <v>40719</v>
       </c>
@@ -2973,7 +2984,7 @@
         <v>519337</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" ht="15" thickBot="1">
       <c r="A131" s="11">
         <v>40726</v>
       </c>
@@ -2991,7 +3002,7 @@
         <v>522931</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" ht="15" thickBot="1">
       <c r="A132" s="11">
         <v>40733</v>
       </c>
@@ -3009,7 +3020,7 @@
         <v>438193</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" ht="15" thickBot="1">
       <c r="A133" s="11">
         <v>40740</v>
       </c>
@@ -3027,7 +3038,7 @@
         <v>511711</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" ht="15" thickBot="1">
       <c r="A134" s="11">
         <v>40747</v>
       </c>
@@ -3045,7 +3056,7 @@
         <v>524090</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" ht="15" thickBot="1">
       <c r="A135" s="11">
         <v>40754</v>
       </c>
@@ -3063,7 +3074,7 @@
         <v>533337</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" ht="15" thickBot="1">
       <c r="A136" s="11">
         <v>40761</v>
       </c>
@@ -3081,7 +3092,7 @@
         <v>522889</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" ht="15" thickBot="1">
       <c r="A137" s="11">
         <v>40768</v>
       </c>
@@ -3099,7 +3110,7 @@
         <v>527864</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" ht="15" thickBot="1">
       <c r="A138" s="11">
         <v>40775</v>
       </c>
@@ -3117,7 +3128,7 @@
         <v>539201</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" ht="15" thickBot="1">
       <c r="A139" s="11">
         <v>40782</v>
       </c>
@@ -3135,7 +3146,7 @@
         <v>535994</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" ht="15" thickBot="1">
       <c r="A140" s="11">
         <v>40789</v>
       </c>
@@ -3153,7 +3164,7 @@
         <v>537201</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" ht="15" thickBot="1">
       <c r="A141" s="11">
         <v>40796</v>
       </c>
@@ -3171,7 +3182,7 @@
         <v>486472</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" ht="15" thickBot="1">
       <c r="A142" s="11">
         <v>40803</v>
       </c>
@@ -3189,7 +3200,7 @@
         <v>542164</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" ht="15" thickBot="1">
       <c r="A143" s="11">
         <v>40810</v>
       </c>
@@ -3207,7 +3218,7 @@
         <v>553535</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" ht="15" thickBot="1">
       <c r="A144" s="11">
         <v>40817</v>
       </c>
@@ -3225,7 +3236,7 @@
         <v>563034</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" ht="15" thickBot="1">
       <c r="A145" s="11">
         <v>40824</v>
       </c>
@@ -3243,7 +3254,7 @@
         <v>544499</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" ht="15" thickBot="1">
       <c r="A146" s="11">
         <v>40831</v>
       </c>
@@ -3261,7 +3272,7 @@
         <v>547752</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" ht="15" thickBot="1">
       <c r="A147" s="11">
         <v>40838</v>
       </c>
@@ -3279,7 +3290,7 @@
         <v>547268</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" ht="15" thickBot="1">
       <c r="A148" s="11">
         <v>40845</v>
       </c>
@@ -3297,7 +3308,7 @@
         <v>551674</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" ht="15" thickBot="1">
       <c r="A149" s="11">
         <v>40852</v>
       </c>
@@ -3315,7 +3326,7 @@
         <v>537645</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" ht="15" thickBot="1">
       <c r="A150" s="11">
         <v>40859</v>
       </c>
@@ -3333,7 +3344,7 @@
         <v>544563</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" ht="15" thickBot="1">
       <c r="A151" s="13">
         <v>40866</v>
       </c>
@@ -3351,7 +3362,7 @@
         <v>545153</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" ht="15" thickBot="1">
       <c r="A152" s="11">
         <v>40873</v>
       </c>
@@ -3369,7 +3380,7 @@
         <v>456170</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" ht="15" thickBot="1">
       <c r="A153" s="11">
         <v>40880</v>
       </c>
@@ -3387,7 +3398,7 @@
         <v>555353</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" ht="15" thickBot="1">
       <c r="A154" s="11">
         <v>40887</v>
       </c>
@@ -3405,7 +3416,7 @@
         <v>538299</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" ht="15" thickBot="1">
       <c r="A155" s="11">
         <v>40894</v>
       </c>
@@ -3423,7 +3434,7 @@
         <v>537699</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" ht="15" thickBot="1">
       <c r="A156" s="11">
         <v>40901</v>
       </c>
@@ -3441,7 +3452,7 @@
         <v>505089</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" ht="15" thickBot="1">
       <c r="A157" s="11">
         <v>40908</v>
       </c>
@@ -3459,7 +3470,7 @@
         <v>426883</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" ht="15" thickBot="1">
       <c r="A158" s="11">
         <v>40915</v>
       </c>
@@ -3477,7 +3488,7 @@
         <v>468674</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" ht="15" thickBot="1">
       <c r="A159" s="11">
         <v>40922</v>
       </c>
@@ -3495,7 +3506,7 @@
         <v>527651</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" ht="15" thickBot="1">
       <c r="A160" s="11">
         <v>40929</v>
       </c>
@@ -3513,7 +3524,7 @@
         <v>507440</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" ht="15" thickBot="1">
       <c r="A161" s="11">
         <v>40936</v>
       </c>
@@ -3531,7 +3542,7 @@
         <v>518682</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" ht="15" thickBot="1">
       <c r="A162" s="11">
         <v>40943</v>
       </c>
@@ -3549,7 +3560,7 @@
         <v>517136</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" ht="15" thickBot="1">
       <c r="A163" s="11">
         <v>40950</v>
       </c>
@@ -3567,7 +3578,7 @@
         <v>506708</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" ht="15" thickBot="1">
       <c r="A164" s="11">
         <v>40957</v>
       </c>
@@ -3585,7 +3596,7 @@
         <v>502992</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" ht="15" thickBot="1">
       <c r="A165" s="11">
         <v>40964</v>
       </c>
@@ -3603,7 +3614,7 @@
         <v>496046</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" ht="15" thickBot="1">
       <c r="A166" s="11">
         <v>40971</v>
       </c>
@@ -3621,7 +3632,7 @@
         <v>510568</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" ht="15" thickBot="1">
       <c r="A167" s="11">
         <v>40978</v>
       </c>
@@ -3639,7 +3650,7 @@
         <v>504767</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" ht="15" thickBot="1">
       <c r="A168" s="11">
         <v>40985</v>
       </c>
@@ -3657,7 +3668,7 @@
         <v>505558</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" ht="15" thickBot="1">
       <c r="A169" s="11">
         <v>40992</v>
       </c>
@@ -3675,7 +3686,7 @@
         <v>510794</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" ht="15" thickBot="1">
       <c r="A170" s="11">
         <v>40999</v>
       </c>
@@ -3693,7 +3704,7 @@
         <v>529734</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" ht="15" thickBot="1">
       <c r="A171" s="11">
         <v>41006</v>
       </c>
@@ -3711,7 +3722,7 @@
         <v>502127</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" ht="15" thickBot="1">
       <c r="A172" s="11">
         <v>41013</v>
       </c>
@@ -3729,7 +3740,7 @@
         <v>510946</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" ht="15" thickBot="1">
       <c r="A173" s="11">
         <v>41020</v>
       </c>
@@ -3747,7 +3758,7 @@
         <v>521538</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" ht="15" thickBot="1">
       <c r="A174" s="11">
         <v>41027</v>
       </c>
@@ -3765,7 +3776,7 @@
         <v>525445</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" ht="15" thickBot="1">
       <c r="A175" s="11">
         <v>41034</v>
       </c>
@@ -3783,7 +3794,7 @@
         <v>515167</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" ht="15" thickBot="1">
       <c r="A176" s="13">
         <v>41041</v>
       </c>
@@ -3801,7 +3812,7 @@
         <v>518043</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" ht="15" thickBot="1">
       <c r="A177" s="11">
         <v>41048</v>
       </c>
@@ -3819,7 +3830,7 @@
         <v>522229</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" ht="15" thickBot="1">
       <c r="A178" s="11">
         <v>41055</v>
       </c>
@@ -3837,7 +3848,7 @@
         <v>536107</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" ht="15" thickBot="1">
       <c r="A179" s="11">
         <v>41062</v>
       </c>
@@ -3855,7 +3866,7 @@
         <v>479118</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" ht="15" thickBot="1">
       <c r="A180" s="11">
         <v>41069</v>
       </c>
@@ -3873,7 +3884,7 @@
         <v>531835</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" ht="15" thickBot="1">
       <c r="A181" s="11">
         <v>41076</v>
       </c>
@@ -3891,7 +3902,7 @@
         <v>537011</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" ht="15" thickBot="1">
       <c r="A182" s="11">
         <v>41083</v>
       </c>
@@ -3909,7 +3920,7 @@
         <v>534858</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" ht="15" thickBot="1">
       <c r="A183" s="11">
         <v>41090</v>
       </c>
@@ -3927,7 +3938,7 @@
         <v>532131</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" ht="15" thickBot="1">
       <c r="A184" s="11">
         <v>41097</v>
       </c>
@@ -3945,7 +3956,7 @@
         <v>446518</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" ht="15" thickBot="1">
       <c r="A185" s="11">
         <v>41104</v>
       </c>
@@ -3963,7 +3974,7 @@
         <v>532071</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" ht="15" thickBot="1">
       <c r="A186" s="11">
         <v>41111</v>
       </c>
@@ -3981,7 +3992,7 @@
         <v>532729</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" ht="15" thickBot="1">
       <c r="A187" s="11">
         <v>41118</v>
       </c>
@@ -3999,7 +4010,7 @@
         <v>538486</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" ht="15" thickBot="1">
       <c r="A188" s="11">
         <v>41125</v>
       </c>
@@ -4017,7 +4028,7 @@
         <v>531490</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" ht="15" thickBot="1">
       <c r="A189" s="11">
         <v>41132</v>
       </c>
@@ -4035,7 +4046,7 @@
         <v>532202</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" ht="15" thickBot="1">
       <c r="A190" s="11">
         <v>41139</v>
       </c>
@@ -4053,7 +4064,7 @@
         <v>541140</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" ht="15" thickBot="1">
       <c r="A191" s="11">
         <v>41146</v>
       </c>
@@ -4071,7 +4082,7 @@
         <v>545406</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" ht="15" thickBot="1">
       <c r="A192" s="11">
         <v>41153</v>
       </c>
@@ -4089,7 +4100,7 @@
         <v>541845</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" ht="15" thickBot="1">
       <c r="A193" s="11">
         <v>41160</v>
       </c>
@@ -4107,7 +4118,7 @@
         <v>486818</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" ht="15" thickBot="1">
       <c r="A194" s="11">
         <v>41167</v>
       </c>
@@ -4140,7 +4151,7 @@
         <v>543250</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" ht="15" thickBot="1">
       <c r="A195" s="11">
         <v>41174</v>
       </c>
@@ -4158,7 +4169,7 @@
         <v>542897</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" ht="15" thickBot="1">
       <c r="A196" s="11">
         <v>41181</v>
       </c>
@@ -4176,7 +4187,7 @@
         <v>552468</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" ht="15" thickBot="1">
       <c r="A197" s="11">
         <v>41188</v>
       </c>
@@ -4194,7 +4205,7 @@
         <v>534553</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" ht="15" thickBot="1">
       <c r="A198" s="11">
         <v>41195</v>
       </c>
@@ -4212,7 +4223,7 @@
         <v>535915</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" ht="15" thickBot="1">
       <c r="A199" s="11">
         <v>41202</v>
       </c>
@@ -4230,7 +4241,7 @@
         <v>542674</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" ht="15" thickBot="1">
       <c r="A200" s="11">
         <v>41209</v>
       </c>
@@ -4248,7 +4259,7 @@
         <v>540290</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" ht="15" thickBot="1">
       <c r="A201" s="13">
         <v>41216</v>
       </c>
@@ -4266,7 +4277,7 @@
         <v>502697</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" ht="15" thickBot="1">
       <c r="A202" s="11">
         <v>41223</v>
       </c>
@@ -4284,7 +4295,7 @@
         <v>532945</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" ht="15" thickBot="1">
       <c r="A203" s="11">
         <v>41230</v>
       </c>
@@ -4302,7 +4313,7 @@
         <v>537832</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" ht="15" thickBot="1">
       <c r="A204" s="11">
         <v>41237</v>
       </c>
@@ -4320,7 +4331,7 @@
         <v>447469</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" ht="15" thickBot="1">
       <c r="A205" s="11">
         <v>41244</v>
       </c>
@@ -4338,7 +4349,7 @@
         <v>547119</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" ht="15" thickBot="1">
       <c r="A206" s="11">
         <v>41251</v>
       </c>
@@ -4356,7 +4367,7 @@
         <v>532304</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" ht="15" thickBot="1">
       <c r="A207" s="11">
         <v>41258</v>
       </c>
@@ -4374,7 +4385,7 @@
         <v>544625</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" ht="15" thickBot="1">
       <c r="A208" s="11">
         <v>41265</v>
       </c>
@@ -4392,7 +4403,7 @@
         <v>530342</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" ht="15" thickBot="1">
       <c r="A209" s="11">
         <v>41272</v>
       </c>
@@ -4410,7 +4421,7 @@
         <v>367721</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" ht="15" thickBot="1">
       <c r="A210" s="11">
         <v>41279</v>
       </c>
@@ -4428,7 +4439,7 @@
         <v>419999</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" ht="15" thickBot="1">
       <c r="A211" s="11">
         <v>41286</v>
       </c>
@@ -4446,7 +4457,7 @@
         <v>532789</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" ht="15" thickBot="1">
       <c r="A212" s="11">
         <v>41293</v>
       </c>
@@ -4464,7 +4475,7 @@
         <v>526887</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" ht="15" thickBot="1">
       <c r="A213" s="11">
         <v>41300</v>
       </c>
@@ -4482,7 +4493,7 @@
         <v>504628</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" ht="15" thickBot="1">
       <c r="A214" s="11">
         <v>41307</v>
       </c>
@@ -4500,7 +4511,7 @@
         <v>523931</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" ht="15" thickBot="1">
       <c r="A215" s="11">
         <v>41314</v>
       </c>
@@ -4518,7 +4529,7 @@
         <v>518048</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" ht="15" thickBot="1">
       <c r="A216" s="11">
         <v>41321</v>
       </c>
@@ -4536,7 +4547,7 @@
         <v>529674</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" ht="15" thickBot="1">
       <c r="A217" s="11">
         <v>41328</v>
       </c>
@@ -4554,7 +4565,7 @@
         <v>516142</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" ht="15" thickBot="1">
       <c r="A218" s="11">
         <v>41335</v>
       </c>
@@ -4572,7 +4583,7 @@
         <v>533057</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" ht="15" thickBot="1">
       <c r="A219" s="11">
         <v>41342</v>
       </c>
@@ -4590,7 +4601,7 @@
         <v>511872</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" ht="15" thickBot="1">
       <c r="A220" s="11">
         <v>41349</v>
       </c>
@@ -4608,7 +4619,7 @@
         <v>509430</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" ht="15" thickBot="1">
       <c r="A221" s="11">
         <v>41356</v>
       </c>
@@ -4626,7 +4637,7 @@
         <v>514379</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" ht="15" thickBot="1">
       <c r="A222" s="11">
         <v>41363</v>
       </c>
@@ -4644,7 +4655,7 @@
         <v>514954</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" ht="15" thickBot="1">
       <c r="A223" s="11">
         <v>41370</v>
       </c>
@@ -4662,7 +4673,7 @@
         <v>512396</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" ht="15" thickBot="1">
       <c r="A224" s="11">
         <v>41377</v>
       </c>
@@ -4680,7 +4691,7 @@
         <v>517662</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" ht="15" thickBot="1">
       <c r="A225" s="11">
         <v>41384</v>
       </c>
@@ -4698,7 +4709,7 @@
         <v>517360</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" ht="15" thickBot="1">
       <c r="A226" s="13">
         <v>41391</v>
       </c>
@@ -4716,7 +4727,7 @@
         <v>523207</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" ht="15" thickBot="1">
       <c r="A227" s="11">
         <v>41398</v>
       </c>
@@ -4734,7 +4745,7 @@
         <v>529594</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" ht="15" thickBot="1">
       <c r="A228" s="11">
         <v>41405</v>
       </c>
@@ -4752,7 +4763,7 @@
         <v>529252</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" ht="15" thickBot="1">
       <c r="A229" s="11">
         <v>41412</v>
       </c>
@@ -4770,7 +4781,7 @@
         <v>535835</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" ht="15" thickBot="1">
       <c r="A230" s="11">
         <v>41419</v>
       </c>
@@ -4788,7 +4799,7 @@
         <v>529937</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" ht="15" thickBot="1">
       <c r="A231" s="11">
         <v>41426</v>
       </c>
@@ -4806,7 +4817,7 @@
         <v>491082</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" ht="15" thickBot="1">
       <c r="A232" s="11">
         <v>41433</v>
       </c>
@@ -4824,7 +4835,7 @@
         <v>530890</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" ht="15" thickBot="1">
       <c r="A233" s="11">
         <v>41440</v>
       </c>
@@ -4842,7 +4853,7 @@
         <v>543145</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" ht="15" thickBot="1">
       <c r="A234" s="11">
         <v>41447</v>
       </c>
@@ -4860,7 +4871,7 @@
         <v>541031</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" ht="15" thickBot="1">
       <c r="A235" s="11">
         <v>41454</v>
       </c>
@@ -4878,7 +4889,7 @@
         <v>531040</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" ht="15" thickBot="1">
       <c r="A236" s="11">
         <v>41461</v>
       </c>
@@ -4896,7 +4907,7 @@
         <v>453493</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" ht="15" thickBot="1">
       <c r="A237" s="11">
         <v>41468</v>
       </c>
@@ -4914,7 +4925,7 @@
         <v>525333</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" ht="15" thickBot="1">
       <c r="A238" s="11">
         <v>41475</v>
       </c>
@@ -4932,7 +4943,7 @@
         <v>531357</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" ht="15" thickBot="1">
       <c r="A239" s="11">
         <v>41482</v>
       </c>
@@ -4950,7 +4961,7 @@
         <v>551911</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" ht="15" thickBot="1">
       <c r="A240" s="11">
         <v>41489</v>
       </c>
@@ -4968,7 +4979,7 @@
         <v>542396</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" ht="15" thickBot="1">
       <c r="A241" s="11">
         <v>41496</v>
       </c>
@@ -4986,7 +4997,7 @@
         <v>546772</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" ht="15" thickBot="1">
       <c r="A242" s="11">
         <v>41503</v>
       </c>
@@ -5004,7 +5015,7 @@
         <v>552359</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" ht="15" thickBot="1">
       <c r="A243" s="11">
         <v>41510</v>
       </c>
@@ -5022,7 +5033,7 @@
         <v>548969</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" ht="15" thickBot="1">
       <c r="A244" s="11">
         <v>41517</v>
       </c>
@@ -5040,7 +5051,7 @@
         <v>561698</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" ht="15" thickBot="1">
       <c r="A245" s="11">
         <v>41524</v>
       </c>
@@ -5058,7 +5069,7 @@
         <v>507493</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" ht="15" thickBot="1">
       <c r="A246" s="11">
         <v>41531</v>
       </c>
@@ -5076,7 +5087,7 @@
         <v>562094</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" ht="15" thickBot="1">
       <c r="A247" s="11">
         <v>41538</v>
       </c>
@@ -5094,7 +5105,7 @@
         <v>551057</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" ht="15" thickBot="1">
       <c r="A248" s="11">
         <v>41545</v>
       </c>
@@ -5112,7 +5123,7 @@
         <v>566662</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" ht="15" thickBot="1">
       <c r="A249" s="11">
         <v>41552</v>
       </c>
@@ -5130,7 +5141,7 @@
         <v>545708</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" ht="15" thickBot="1">
       <c r="A250" s="11">
         <v>41559</v>
       </c>
@@ -5148,7 +5159,7 @@
         <v>546211</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" ht="15" thickBot="1">
       <c r="A251" s="13">
         <v>41566</v>
       </c>
@@ -5166,7 +5177,7 @@
         <v>553943</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" ht="15" thickBot="1">
       <c r="A252" s="11">
         <v>41573</v>
       </c>
@@ -5184,7 +5195,7 @@
         <v>558686</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" ht="15" thickBot="1">
       <c r="A253" s="11">
         <v>41580</v>
       </c>
@@ -5202,7 +5213,7 @@
         <v>556662</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" ht="15" thickBot="1">
       <c r="A254" s="11">
         <v>41587</v>
       </c>
@@ -5220,7 +5231,7 @@
         <v>562840</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" ht="15" thickBot="1">
       <c r="A255" s="11">
         <v>41594</v>
       </c>
@@ -5238,7 +5249,7 @@
         <v>562206</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" ht="15" thickBot="1">
       <c r="A256" s="11">
         <v>41601</v>
       </c>
@@ -5256,7 +5267,7 @@
         <v>564340</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" ht="15" thickBot="1">
       <c r="A257" s="11">
         <v>41608</v>
       </c>
@@ -5274,7 +5285,7 @@
         <v>463516</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" ht="15" thickBot="1">
       <c r="A258" s="11">
         <v>41615</v>
       </c>
@@ -5307,7 +5318,7 @@
         <v>541978</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" ht="15" thickBot="1">
       <c r="A259" s="11">
         <v>41622</v>
       </c>
@@ -5325,7 +5336,7 @@
         <v>546825</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" ht="15" thickBot="1">
       <c r="A260" s="11">
         <v>41629</v>
       </c>
@@ -5343,7 +5354,7 @@
         <v>544984</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" ht="15" thickBot="1">
       <c r="A261" s="11">
         <v>41636</v>
       </c>
@@ -5361,7 +5372,7 @@
         <v>403329</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" ht="15" thickBot="1">
       <c r="A262" s="11">
         <v>41643</v>
       </c>
@@ -5379,7 +5390,7 @@
         <v>433724</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" ht="15" thickBot="1">
       <c r="A263" s="11">
         <v>41650</v>
       </c>
@@ -5397,7 +5408,7 @@
         <v>492836</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" ht="15" thickBot="1">
       <c r="A264" s="11">
         <v>41657</v>
       </c>
@@ -5415,7 +5426,7 @@
         <v>557253</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" ht="15" thickBot="1">
       <c r="A265" s="11">
         <v>41664</v>
       </c>
@@ -5433,7 +5444,7 @@
         <v>526644</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" ht="15" thickBot="1">
       <c r="A266" s="11">
         <v>41671</v>
       </c>
@@ -5451,7 +5462,7 @@
         <v>518012</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" ht="15" thickBot="1">
       <c r="A267" s="11">
         <v>41678</v>
       </c>
@@ -5469,7 +5480,7 @@
         <v>507368</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" ht="15" thickBot="1">
       <c r="A268" s="11">
         <v>41685</v>
       </c>
@@ -5487,7 +5498,7 @@
         <v>507257</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" ht="15" thickBot="1">
       <c r="A269" s="11">
         <v>41692</v>
       </c>
@@ -5505,7 +5516,7 @@
         <v>535036</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" ht="15" thickBot="1">
       <c r="A270" s="11">
         <v>41699</v>
       </c>
@@ -5523,7 +5534,7 @@
         <v>545004</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" ht="15" thickBot="1">
       <c r="A271" s="11">
         <v>41706</v>
       </c>
@@ -5541,7 +5552,7 @@
         <v>518495</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" ht="15" thickBot="1">
       <c r="A272" s="11">
         <v>41713</v>
       </c>
@@ -5559,7 +5570,7 @@
         <v>545366</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" ht="15" thickBot="1">
       <c r="A273" s="11">
         <v>41720</v>
       </c>
@@ -5577,7 +5588,7 @@
         <v>552238</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" ht="15" thickBot="1">
       <c r="A274" s="11">
         <v>41727</v>
       </c>
@@ -5595,7 +5606,7 @@
         <v>566505</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" ht="15" thickBot="1">
       <c r="A275" s="11">
         <v>41734</v>
       </c>
@@ -5613,7 +5624,7 @@
         <v>557123</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" ht="15" thickBot="1">
       <c r="A276" s="13">
         <v>41741</v>
       </c>
@@ -5631,7 +5642,7 @@
         <v>559676</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" ht="15" thickBot="1">
       <c r="A277" s="11">
         <v>41748</v>
       </c>
@@ -5649,7 +5660,7 @@
         <v>549826</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" ht="15" thickBot="1">
       <c r="A278" s="11">
         <v>41755</v>
       </c>
@@ -5667,7 +5678,7 @@
         <v>566336</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" ht="15" thickBot="1">
       <c r="A279" s="11">
         <v>41762</v>
       </c>
@@ -5685,7 +5696,7 @@
         <v>564801</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" ht="15" thickBot="1">
       <c r="A280" s="11">
         <v>41769</v>
       </c>
@@ -5703,7 +5714,7 @@
         <v>564096</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" ht="15" thickBot="1">
       <c r="A281" s="11">
         <v>41783</v>
       </c>
@@ -5721,7 +5732,7 @@
         <v>570380</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" ht="15" thickBot="1">
       <c r="A282" s="11">
         <v>41790</v>
       </c>
@@ -5739,7 +5750,7 @@
         <v>531725</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" ht="15" thickBot="1">
       <c r="A283" s="11">
         <v>41797</v>
       </c>
@@ -5757,7 +5768,7 @@
         <v>562747</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" ht="15" thickBot="1">
       <c r="A284" s="11">
         <v>41804</v>
       </c>
@@ -5775,7 +5786,7 @@
         <v>565375</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" ht="15" thickBot="1">
       <c r="A285" s="11">
         <v>41811</v>
       </c>
@@ -5793,7 +5804,7 @@
         <v>563695</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" ht="15" thickBot="1">
       <c r="A286" s="11">
         <v>41818</v>
       </c>
@@ -5811,7 +5822,7 @@
         <v>563223</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" ht="15" thickBot="1">
       <c r="A287" s="11">
         <v>41825</v>
       </c>
@@ -5829,7 +5840,7 @@
         <v>497828</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" ht="15" thickBot="1">
       <c r="A288" s="11">
         <v>41832</v>
       </c>
@@ -5847,7 +5858,7 @@
         <v>546863</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" ht="15" thickBot="1">
       <c r="A289" s="11">
         <v>41839</v>
       </c>
@@ -5865,7 +5876,7 @@
         <v>566931</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" ht="15" thickBot="1">
       <c r="A290" s="11">
         <v>41846</v>
       </c>
@@ -5883,7 +5894,7 @@
         <v>571797</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" ht="15" thickBot="1">
       <c r="A291" s="11">
         <v>41853</v>
       </c>
@@ -5901,7 +5912,7 @@
         <v>574552</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" ht="15" thickBot="1">
       <c r="A292" s="11">
         <v>41860</v>
       </c>
@@ -5919,7 +5930,7 @@
         <v>567908</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" ht="15" thickBot="1">
       <c r="A293" s="11">
         <v>41867</v>
       </c>
@@ -5937,7 +5948,7 @@
         <v>574592</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" ht="15" thickBot="1">
       <c r="A294" s="11">
         <v>41874</v>
       </c>
@@ -5955,7 +5966,7 @@
         <v>566266</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" ht="15" thickBot="1">
       <c r="A295" s="11">
         <v>41881</v>
       </c>
@@ -5973,7 +5984,7 @@
         <v>579209</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" ht="15" thickBot="1">
       <c r="A296" s="11">
         <v>41888</v>
       </c>
@@ -5991,7 +6002,7 @@
         <v>525144</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" ht="15" thickBot="1">
       <c r="A297" s="11">
         <v>41895</v>
       </c>
@@ -6009,7 +6020,7 @@
         <v>579440</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" ht="15" thickBot="1">
       <c r="A298" s="11">
         <v>41902</v>
       </c>
@@ -6027,7 +6038,7 @@
         <v>581955</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" ht="15" thickBot="1">
       <c r="A299" s="11">
         <v>41909</v>
       </c>
@@ -6045,7 +6056,7 @@
         <v>576934</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" ht="15" thickBot="1">
       <c r="A300" s="11">
         <v>41916</v>
       </c>
@@ -6063,7 +6074,7 @@
         <v>576356</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" ht="15" thickBot="1">
       <c r="A301" s="13">
         <v>41923</v>
       </c>
@@ -6081,7 +6092,7 @@
         <v>571812</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" ht="15" thickBot="1">
       <c r="A302" s="11">
         <v>41930</v>
       </c>
@@ -6099,7 +6110,7 @@
         <v>569684</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" ht="15" thickBot="1">
       <c r="A303" s="11">
         <v>41937</v>
       </c>
@@ -6117,7 +6128,7 @@
         <v>586115</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" ht="15" thickBot="1">
       <c r="A304" s="11">
         <v>41944</v>
       </c>
@@ -6135,7 +6146,7 @@
         <v>585208</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" ht="15" thickBot="1">
       <c r="A305" s="11">
         <v>41951</v>
       </c>
@@ -6153,7 +6164,7 @@
         <v>568807</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" ht="15" thickBot="1">
       <c r="A306" s="11">
         <v>41958</v>
       </c>
@@ -6171,7 +6182,7 @@
         <v>570350</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" ht="15" thickBot="1">
       <c r="A307" s="11">
         <v>41965</v>
       </c>
@@ -6189,7 +6200,7 @@
         <v>565185</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" ht="15" thickBot="1">
       <c r="A308" s="11">
         <v>41972</v>
       </c>
@@ -6207,7 +6218,7 @@
         <v>492532</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" ht="15" thickBot="1">
       <c r="A309" s="11">
         <v>41979</v>
       </c>
@@ -6225,7 +6236,7 @@
         <v>580108</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" ht="15" thickBot="1">
       <c r="A310" s="11">
         <v>41986</v>
       </c>
@@ -6243,7 +6254,7 @@
         <v>592608</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" ht="15" thickBot="1">
       <c r="A311" s="11">
         <v>41993</v>
       </c>
@@ -6261,7 +6272,7 @@
         <v>580559</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" ht="15" thickBot="1">
       <c r="A312" s="11">
         <v>42000</v>
       </c>
@@ -6279,7 +6290,7 @@
         <v>433338</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" ht="15" thickBot="1">
       <c r="A313" s="11">
         <v>42007</v>
       </c>
@@ -6297,7 +6308,7 @@
         <v>446201</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" ht="15" thickBot="1">
       <c r="A314" s="11">
         <v>42014</v>
       </c>
@@ -6315,7 +6326,7 @@
         <v>517520</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" ht="15" thickBot="1">
       <c r="A315" s="11">
         <v>42021</v>
       </c>
@@ -6333,7 +6344,7 @@
         <v>551856</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" ht="15" thickBot="1">
       <c r="A316" s="11">
         <v>42028</v>
       </c>
@@ -6351,7 +6362,7 @@
         <v>548055</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" ht="15" thickBot="1">
       <c r="A317" s="11">
         <v>42035</v>
       </c>
@@ -6369,7 +6380,7 @@
         <v>548478</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" ht="15" thickBot="1">
       <c r="A318" s="11">
         <v>42042</v>
       </c>
@@ -6387,7 +6398,7 @@
         <v>511563</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" ht="15" thickBot="1">
       <c r="A319" s="11">
         <v>42049</v>
       </c>
@@ -6405,7 +6416,7 @@
         <v>525224</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" ht="15" thickBot="1">
       <c r="A320" s="11">
         <v>42056</v>
       </c>
@@ -6423,7 +6434,7 @@
         <v>473161</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" ht="15" thickBot="1">
       <c r="A321" s="11">
         <v>42063</v>
       </c>
@@ -6441,7 +6452,7 @@
         <v>508658</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" ht="15" thickBot="1">
       <c r="A322" s="11">
         <v>42070</v>
       </c>
@@ -6474,7 +6485,7 @@
         <v>522382</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" ht="15" thickBot="1">
       <c r="A323" s="11">
         <v>42077</v>
       </c>
@@ -6492,7 +6503,7 @@
         <v>553031</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" ht="15" thickBot="1">
       <c r="A324" s="11">
         <v>42084</v>
       </c>
@@ -6510,7 +6521,7 @@
         <v>562472</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" ht="15" thickBot="1">
       <c r="A325" s="11">
         <v>42091</v>
       </c>
@@ -6528,7 +6539,7 @@
         <v>563280</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" ht="15" thickBot="1">
       <c r="A326" s="13">
         <v>42098</v>
       </c>
@@ -6546,7 +6557,7 @@
         <v>549021</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" ht="15" thickBot="1">
       <c r="A327" s="11">
         <v>42105</v>
       </c>
@@ -6564,7 +6575,7 @@
         <v>557812</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" ht="15" thickBot="1">
       <c r="A328" s="11">
         <v>42112</v>
       </c>
@@ -6582,7 +6593,7 @@
         <v>556432</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" ht="15" thickBot="1">
       <c r="A329" s="11">
         <v>42119</v>
       </c>
@@ -6600,7 +6611,7 @@
         <v>557306</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" ht="15" thickBot="1">
       <c r="A330" s="11">
         <v>42126</v>
       </c>
@@ -6618,7 +6629,7 @@
         <v>565787</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" ht="15" thickBot="1">
       <c r="A331" s="11">
         <v>42133</v>
       </c>
@@ -6636,7 +6647,7 @@
         <v>551034</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" ht="15" thickBot="1">
       <c r="A332" s="11">
         <v>42140</v>
       </c>
@@ -6654,7 +6665,7 @@
         <v>549199</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" ht="15" thickBot="1">
       <c r="A333" s="11">
         <v>42147</v>
       </c>
@@ -6672,7 +6683,7 @@
         <v>554477</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" ht="15" thickBot="1">
       <c r="A334" s="11">
         <v>42154</v>
       </c>
@@ -6690,7 +6701,7 @@
         <v>505543</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" ht="15" thickBot="1">
       <c r="A335" s="11">
         <v>42161</v>
       </c>
@@ -6708,7 +6719,7 @@
         <v>550037</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" ht="15" thickBot="1">
       <c r="A336" s="11">
         <v>42168</v>
       </c>
@@ -6726,7 +6737,7 @@
         <v>554461</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" ht="15" thickBot="1">
       <c r="A337" s="11">
         <v>42175</v>
       </c>
@@ -6744,7 +6755,7 @@
         <v>550839</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" ht="15" thickBot="1">
       <c r="A338" s="11">
         <v>42182</v>
       </c>
@@ -6762,7 +6773,7 @@
         <v>547969</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" ht="15" thickBot="1">
       <c r="A339" s="11">
         <v>42189</v>
       </c>
@@ -6780,7 +6791,7 @@
         <v>506284</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" ht="15" thickBot="1">
       <c r="A340" s="11">
         <v>42196</v>
       </c>
@@ -6798,7 +6809,7 @@
         <v>534097</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" ht="15" thickBot="1">
       <c r="A341" s="11">
         <v>42203</v>
       </c>
@@ -6816,7 +6827,7 @@
         <v>551181</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" ht="15" thickBot="1">
       <c r="A342" s="11">
         <v>42210</v>
       </c>
@@ -6834,7 +6845,7 @@
         <v>557612</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" ht="15" thickBot="1">
       <c r="A343" s="11">
         <v>42217</v>
       </c>
@@ -6852,7 +6863,7 @@
         <v>559125</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" ht="15" thickBot="1">
       <c r="A344" s="11">
         <v>42224</v>
       </c>
@@ -6870,7 +6881,7 @@
         <v>562884</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" ht="15" thickBot="1">
       <c r="A345" s="11">
         <v>42238</v>
       </c>
@@ -6888,7 +6899,7 @@
         <v>567943</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" ht="15" thickBot="1">
       <c r="A346" s="11">
         <v>42245</v>
       </c>
@@ -6906,7 +6917,7 @@
         <v>575323</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" ht="15" thickBot="1">
       <c r="A347" s="11">
         <v>42252</v>
       </c>
@@ -6924,7 +6935,7 @@
         <v>567206</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" ht="15" thickBot="1">
       <c r="A348" s="11">
         <v>42259</v>
       </c>
@@ -6942,7 +6953,7 @@
         <v>510797</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" ht="15" thickBot="1">
       <c r="A349" s="11">
         <v>42266</v>
       </c>
@@ -6960,7 +6971,7 @@
         <v>566734</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" ht="15" thickBot="1">
       <c r="A350" s="11">
         <v>42273</v>
       </c>
@@ -6978,7 +6989,7 @@
         <v>566700</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" ht="15" thickBot="1">
       <c r="A351" s="13">
         <v>42280</v>
       </c>
@@ -6996,7 +7007,7 @@
         <v>572293</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" ht="15" thickBot="1">
       <c r="A352" s="11">
         <v>42287</v>
       </c>
@@ -7014,7 +7025,7 @@
         <v>556233</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" ht="15" thickBot="1">
       <c r="A353" s="11">
         <v>42294</v>
       </c>
@@ -7032,7 +7043,7 @@
         <v>554696</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" ht="15" thickBot="1">
       <c r="A354" s="11">
         <v>42301</v>
       </c>
@@ -7050,7 +7061,7 @@
         <v>553144</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" ht="15" thickBot="1">
       <c r="A355" s="11">
         <v>42308</v>
       </c>
@@ -7068,7 +7079,7 @@
         <v>549707</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" ht="15" thickBot="1">
       <c r="A356" s="11">
         <v>42315</v>
       </c>
@@ -7086,7 +7097,7 @@
         <v>539165</v>
       </c>
     </row>
-    <row r="357" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" ht="15" thickBot="1">
       <c r="A357" s="11">
         <v>42322</v>
       </c>
@@ -7104,7 +7115,7 @@
         <v>543681</v>
       </c>
     </row>
-    <row r="358" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" ht="15" thickBot="1">
       <c r="A358" s="11">
         <v>42336</v>
       </c>
@@ -7122,7 +7133,7 @@
         <v>450389</v>
       </c>
     </row>
-    <row r="359" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" ht="15" thickBot="1">
       <c r="A359" s="11">
         <v>42343</v>
       </c>
@@ -7140,7 +7151,7 @@
         <v>542050</v>
       </c>
     </row>
-    <row r="360" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" ht="15" thickBot="1">
       <c r="A360" s="11">
         <v>42350</v>
       </c>
@@ -7158,7 +7169,7 @@
         <v>544975</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" ht="15" thickBot="1">
       <c r="A361" s="11">
         <v>42357</v>
       </c>
@@ -7176,7 +7187,7 @@
         <v>525555</v>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" ht="15" thickBot="1">
       <c r="A362" s="11">
         <v>42364</v>
       </c>
@@ -7194,7 +7205,7 @@
         <v>391107</v>
       </c>
     </row>
-    <row r="363" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" ht="15" thickBot="1">
       <c r="A363" s="11">
         <v>42371</v>
       </c>
@@ -7212,7 +7223,7 @@
         <v>395663</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" ht="15" thickBot="1">
       <c r="A364" s="11">
         <v>42378</v>
       </c>
@@ -7230,7 +7241,7 @@
         <v>498160</v>
       </c>
     </row>
-    <row r="365" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" ht="15" thickBot="1">
       <c r="A365" s="11">
         <v>42385</v>
       </c>
@@ -7248,7 +7259,7 @@
         <v>506433</v>
       </c>
     </row>
-    <row r="366" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" ht="15" thickBot="1">
       <c r="A366" s="11">
         <v>42392</v>
       </c>
@@ -7266,7 +7277,7 @@
         <v>490324</v>
       </c>
     </row>
-    <row r="367" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" ht="15" thickBot="1">
       <c r="A367" s="11">
         <v>42399</v>
       </c>
@@ -7284,7 +7295,7 @@
         <v>512746</v>
       </c>
     </row>
-    <row r="368" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" ht="15" thickBot="1">
       <c r="A368" s="11">
         <v>42406</v>
       </c>
@@ -7302,7 +7313,7 @@
         <v>504510</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" ht="15" thickBot="1">
       <c r="A369" s="11">
         <v>42413</v>
       </c>
@@ -7320,7 +7331,7 @@
         <v>505148</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" ht="15" thickBot="1">
       <c r="A370" s="11">
         <v>42420</v>
       </c>
@@ -7338,7 +7349,7 @@
         <v>497210</v>
       </c>
     </row>
-    <row r="371" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" ht="15" thickBot="1">
       <c r="A371" s="11">
         <v>42427</v>
       </c>
@@ -7356,7 +7367,7 @@
         <v>521300</v>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" ht="15" thickBot="1">
       <c r="A372" s="11">
         <v>42434</v>
       </c>
@@ -7374,7 +7385,7 @@
         <v>512202</v>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" ht="15" thickBot="1">
       <c r="A373" s="11">
         <v>42441</v>
       </c>
@@ -7392,7 +7403,7 @@
         <v>489177</v>
       </c>
     </row>
-    <row r="374" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" ht="15" thickBot="1">
       <c r="A374" s="11">
         <v>42448</v>
       </c>
@@ -7410,7 +7421,7 @@
         <v>483463</v>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" ht="15" thickBot="1">
       <c r="A375" s="11">
         <v>42455</v>
       </c>
@@ -7428,7 +7439,7 @@
         <v>470271</v>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" ht="15" thickBot="1">
       <c r="A376" s="13">
         <v>42462</v>
       </c>
@@ -7446,7 +7457,7 @@
         <v>491979</v>
       </c>
     </row>
-    <row r="377" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" ht="15" thickBot="1">
       <c r="A377" s="11">
         <v>42469</v>
       </c>
@@ -7464,7 +7475,7 @@
         <v>479059</v>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" ht="15" thickBot="1">
       <c r="A378" s="11">
         <v>42476</v>
       </c>
@@ -7482,7 +7493,7 @@
         <v>499779</v>
       </c>
     </row>
-    <row r="379" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" ht="15" thickBot="1">
       <c r="A379" s="11">
         <v>42483</v>
       </c>
@@ -7500,7 +7511,7 @@
         <v>491946</v>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" ht="15" thickBot="1">
       <c r="A380" s="11">
         <v>42490</v>
       </c>
@@ -7518,7 +7529,7 @@
         <v>502045</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" ht="15" thickBot="1">
       <c r="A381" s="11">
         <v>42497</v>
       </c>
@@ -7536,7 +7547,7 @@
         <v>492923</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" ht="15" thickBot="1">
       <c r="A382" s="11">
         <v>42504</v>
       </c>
@@ -7554,7 +7565,7 @@
         <v>498379</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" ht="15" thickBot="1">
       <c r="A383" s="11">
         <v>42511</v>
       </c>
@@ -7572,7 +7583,7 @@
         <v>506983</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" ht="15" thickBot="1">
       <c r="A384" s="11">
         <v>42518</v>
       </c>
@@ -7590,7 +7601,7 @@
         <v>513917</v>
       </c>
     </row>
-    <row r="385" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" ht="15" thickBot="1">
       <c r="A385" s="11">
         <v>42525</v>
       </c>
@@ -7608,7 +7619,7 @@
         <v>455346</v>
       </c>
     </row>
-    <row r="386" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" ht="15" thickBot="1">
       <c r="A386" s="11">
         <v>42532</v>
       </c>
@@ -7641,7 +7652,7 @@
         <v>513471</v>
       </c>
     </row>
-    <row r="387" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" ht="15" thickBot="1">
       <c r="A387" s="11">
         <v>42539</v>
       </c>
@@ -7659,7 +7670,7 @@
         <v>516096</v>
       </c>
     </row>
-    <row r="388" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" ht="15" thickBot="1">
       <c r="A388" s="11">
         <v>42546</v>
       </c>
@@ -7677,7 +7688,7 @@
         <v>526161</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" ht="15" thickBot="1">
       <c r="A389" s="11">
         <v>42553</v>
       </c>
@@ -7695,7 +7706,7 @@
         <v>529191</v>
       </c>
     </row>
-    <row r="390" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" ht="15" thickBot="1">
       <c r="A390" s="11">
         <v>42560</v>
       </c>
@@ -7713,7 +7724,7 @@
         <v>442113</v>
       </c>
     </row>
-    <row r="391" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" ht="15" thickBot="1">
       <c r="A391" s="11">
         <v>42567</v>
       </c>
@@ -7731,7 +7742,7 @@
         <v>520222</v>
       </c>
     </row>
-    <row r="392" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" ht="15" thickBot="1">
       <c r="A392" s="11">
         <v>42574</v>
       </c>
@@ -7749,7 +7760,7 @@
         <v>528070</v>
       </c>
     </row>
-    <row r="393" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" ht="15" thickBot="1">
       <c r="A393" s="11">
         <v>42581</v>
       </c>
@@ -7767,7 +7778,7 @@
         <v>536916</v>
       </c>
     </row>
-    <row r="394" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" ht="15" thickBot="1">
       <c r="A394" s="11">
         <v>42588</v>
       </c>
@@ -7785,7 +7796,7 @@
         <v>531595</v>
       </c>
     </row>
-    <row r="395" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" ht="15" thickBot="1">
       <c r="A395" s="11">
         <v>42595</v>
       </c>
@@ -7803,7 +7814,7 @@
         <v>534533</v>
       </c>
     </row>
-    <row r="396" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" ht="15" thickBot="1">
       <c r="A396" s="11">
         <v>42602</v>
       </c>
@@ -7821,7 +7832,7 @@
         <v>531484</v>
       </c>
     </row>
-    <row r="397" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" ht="15" thickBot="1">
       <c r="A397" s="11">
         <v>42609</v>
       </c>
@@ -7839,7 +7850,7 @@
         <v>539657</v>
       </c>
     </row>
-    <row r="398" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" ht="15" thickBot="1">
       <c r="A398" s="11">
         <v>42616</v>
       </c>
@@ -7857,7 +7868,7 @@
         <v>538826</v>
       </c>
     </row>
-    <row r="399" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" ht="15" thickBot="1">
       <c r="A399" s="11">
         <v>42623</v>
       </c>
@@ -7875,7 +7886,7 @@
         <v>482894</v>
       </c>
     </row>
-    <row r="400" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" ht="15" thickBot="1">
       <c r="A400" s="11">
         <v>42630</v>
       </c>
@@ -7893,7 +7904,7 @@
         <v>537904</v>
       </c>
     </row>
-    <row r="401" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" ht="15" thickBot="1">
       <c r="A401" s="13">
         <v>42637</v>
       </c>
@@ -7911,7 +7922,7 @@
         <v>539609</v>
       </c>
     </row>
-    <row r="402" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" ht="15" thickBot="1">
       <c r="A402" s="11">
         <v>42644</v>
       </c>
@@ -7929,7 +7940,7 @@
         <v>549171</v>
       </c>
     </row>
-    <row r="403" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" ht="15" thickBot="1">
       <c r="A403" s="11">
         <v>42651</v>
       </c>
@@ -7947,7 +7958,7 @@
         <v>521789</v>
       </c>
     </row>
-    <row r="404" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" ht="15" thickBot="1">
       <c r="A404" s="11">
         <v>42658</v>
       </c>
@@ -7965,7 +7976,7 @@
         <v>531936</v>
       </c>
     </row>
-    <row r="405" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" ht="15" thickBot="1">
       <c r="A405" s="11">
         <v>42665</v>
       </c>
@@ -7983,7 +7994,7 @@
         <v>544092</v>
       </c>
     </row>
-    <row r="406" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" ht="15" thickBot="1">
       <c r="A406" s="11">
         <v>42672</v>
       </c>
@@ -8001,7 +8012,7 @@
         <v>544997</v>
       </c>
     </row>
-    <row r="407" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" ht="15" thickBot="1">
       <c r="A407" s="11">
         <v>42679</v>
       </c>
@@ -8019,7 +8030,7 @@
         <v>543377</v>
       </c>
     </row>
-    <row r="408" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" ht="15" thickBot="1">
       <c r="A408" s="11">
         <v>42686</v>
       </c>
@@ -8037,7 +8048,7 @@
         <v>541127</v>
       </c>
     </row>
-    <row r="409" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" ht="15" thickBot="1">
       <c r="A409" s="11">
         <v>42693</v>
       </c>
@@ -8055,7 +8066,7 @@
         <v>547804</v>
       </c>
     </row>
-    <row r="410" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" ht="15" thickBot="1">
       <c r="A410" s="11">
         <v>42700</v>
       </c>
@@ -8073,7 +8084,7 @@
         <v>452759</v>
       </c>
     </row>
-    <row r="411" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" ht="15" thickBot="1">
       <c r="A411" s="11">
         <v>42707</v>
       </c>
@@ -8091,7 +8102,7 @@
         <v>553130</v>
       </c>
     </row>
-    <row r="412" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" ht="15" thickBot="1">
       <c r="A412" s="11">
         <v>42714</v>
       </c>
@@ -8109,7 +8120,7 @@
         <v>538932</v>
       </c>
     </row>
-    <row r="413" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" ht="15" thickBot="1">
       <c r="A413" s="11">
         <v>42721</v>
       </c>
@@ -8127,7 +8138,7 @@
         <v>523949</v>
       </c>
     </row>
-    <row r="414" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" ht="15" thickBot="1">
       <c r="A414" s="11">
         <v>42728</v>
       </c>
@@ -8145,7 +8156,7 @@
         <v>496633</v>
       </c>
     </row>
-    <row r="415" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" ht="15" thickBot="1">
       <c r="A415" s="11">
         <v>42735</v>
       </c>
@@ -8163,7 +8174,7 @@
         <v>425998</v>
       </c>
     </row>
-    <row r="416" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" ht="15" thickBot="1">
       <c r="A416" s="11">
         <v>42742</v>
       </c>
@@ -8181,7 +8192,7 @@
         <v>441417</v>
       </c>
     </row>
-    <row r="417" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" ht="15" thickBot="1">
       <c r="A417" s="11">
         <v>42749</v>
       </c>
@@ -8199,7 +8210,7 @@
         <v>516229</v>
       </c>
     </row>
-    <row r="418" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" ht="15" thickBot="1">
       <c r="A418" s="11">
         <v>42756</v>
       </c>
@@ -8217,7 +8228,7 @@
         <v>530299</v>
       </c>
     </row>
-    <row r="419" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" ht="15" thickBot="1">
       <c r="A419" s="11">
         <v>42763</v>
       </c>
@@ -8235,7 +8246,7 @@
         <v>529696</v>
       </c>
     </row>
-    <row r="420" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" ht="15" thickBot="1">
       <c r="A420" s="11">
         <v>42770</v>
       </c>
@@ -8253,7 +8264,7 @@
         <v>541474</v>
       </c>
     </row>
-    <row r="421" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" ht="15" thickBot="1">
       <c r="A421" s="11">
         <v>42777</v>
       </c>
@@ -8271,7 +8282,7 @@
         <v>518431</v>
       </c>
     </row>
-    <row r="422" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" ht="15" thickBot="1">
       <c r="A422" s="11">
         <v>42784</v>
       </c>
@@ -8289,7 +8300,7 @@
         <v>531123</v>
       </c>
     </row>
-    <row r="423" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" ht="15" thickBot="1">
       <c r="A423" s="11">
         <v>42791</v>
       </c>
@@ -8307,7 +8318,7 @@
         <v>521451</v>
       </c>
     </row>
-    <row r="424" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" ht="15" thickBot="1">
       <c r="A424" s="11">
         <v>42798</v>
       </c>
@@ -8325,7 +8336,7 @@
         <v>521607</v>
       </c>
     </row>
-    <row r="425" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" ht="15" thickBot="1">
       <c r="A425" s="11">
         <v>42805</v>
       </c>
@@ -8343,7 +8354,7 @@
         <v>510638</v>
       </c>
     </row>
-    <row r="426" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" ht="15" thickBot="1">
       <c r="A426" s="13">
         <v>42812</v>
       </c>
@@ -8361,7 +8372,7 @@
         <v>495281</v>
       </c>
     </row>
-    <row r="427" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" ht="15" thickBot="1">
       <c r="A427" s="11">
         <v>42819</v>
       </c>
@@ -8379,7 +8390,7 @@
         <v>526471</v>
       </c>
     </row>
-    <row r="428" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" ht="15" thickBot="1">
       <c r="A428" s="11">
         <v>42826</v>
       </c>
@@ -8397,7 +8408,7 @@
         <v>527665</v>
       </c>
     </row>
-    <row r="429" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" ht="15" thickBot="1">
       <c r="A429" s="11">
         <v>42833</v>
       </c>
@@ -8415,7 +8426,7 @@
         <v>513022</v>
       </c>
     </row>
-    <row r="430" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" ht="15" thickBot="1">
       <c r="A430" s="11">
         <v>42840</v>
       </c>
@@ -8433,7 +8444,7 @@
         <v>519318</v>
       </c>
     </row>
-    <row r="431" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" ht="15" thickBot="1">
       <c r="A431" s="11">
         <v>42847</v>
       </c>
@@ -8451,7 +8462,7 @@
         <v>515131</v>
       </c>
     </row>
-    <row r="432" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" ht="15" thickBot="1">
       <c r="A432" s="11">
         <v>42854</v>
       </c>
@@ -8469,7 +8480,7 @@
         <v>527830</v>
       </c>
     </row>
-    <row r="433" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" ht="15" thickBot="1">
       <c r="A433" s="11">
         <v>42861</v>
       </c>
@@ -8487,7 +8498,7 @@
         <v>515305</v>
       </c>
     </row>
-    <row r="434" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" ht="15" thickBot="1">
       <c r="A434" s="11">
         <v>42868</v>
       </c>
@@ -8505,7 +8516,7 @@
         <v>526970</v>
       </c>
     </row>
-    <row r="435" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" ht="15" thickBot="1">
       <c r="A435" s="11">
         <v>42875</v>
       </c>
@@ -8523,7 +8534,7 @@
         <v>534922</v>
       </c>
     </row>
-    <row r="436" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" ht="15" thickBot="1">
       <c r="A436" s="11">
         <v>42882</v>
       </c>
@@ -8541,7 +8552,7 @@
         <v>548103</v>
       </c>
     </row>
-    <row r="437" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" ht="15" thickBot="1">
       <c r="A437" s="11">
         <v>42889</v>
       </c>
@@ -8559,7 +8570,7 @@
         <v>500192</v>
       </c>
     </row>
-    <row r="438" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" ht="15" thickBot="1">
       <c r="A438" s="11">
         <v>42896</v>
       </c>
@@ -8577,7 +8588,7 @@
         <v>545317</v>
       </c>
     </row>
-    <row r="439" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" ht="15" thickBot="1">
       <c r="A439" s="11">
         <v>42903</v>
       </c>
@@ -8595,7 +8606,7 @@
         <v>543179</v>
       </c>
     </row>
-    <row r="440" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" ht="15" thickBot="1">
       <c r="A440" s="11">
         <v>42910</v>
       </c>
@@ -8613,7 +8624,7 @@
         <v>544694</v>
       </c>
     </row>
-    <row r="441" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" ht="15" thickBot="1">
       <c r="A441" s="11">
         <v>42917</v>
       </c>
@@ -8631,7 +8642,7 @@
         <v>546361</v>
       </c>
     </row>
-    <row r="442" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" ht="15" thickBot="1">
       <c r="A442" s="11">
         <v>42924</v>
       </c>
@@ -8649,7 +8660,7 @@
         <v>453080</v>
       </c>
     </row>
-    <row r="443" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" ht="15" thickBot="1">
       <c r="A443" s="11">
         <v>42931</v>
       </c>
@@ -8667,7 +8678,7 @@
         <v>540005</v>
       </c>
     </row>
-    <row r="444" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" ht="15" thickBot="1">
       <c r="A444" s="11">
         <v>42938</v>
       </c>
@@ -8685,7 +8696,7 @@
         <v>534152</v>
       </c>
     </row>
-    <row r="445" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" ht="15" thickBot="1">
       <c r="A445" s="11">
         <v>42945</v>
       </c>
@@ -8703,7 +8714,7 @@
         <v>550356</v>
       </c>
     </row>
-    <row r="446" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" ht="15" thickBot="1">
       <c r="A446" s="11">
         <v>42952</v>
       </c>
@@ -8721,7 +8732,7 @@
         <v>554822</v>
       </c>
     </row>
-    <row r="447" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" ht="15" thickBot="1">
       <c r="A447" s="11">
         <v>42959</v>
       </c>
@@ -8739,7 +8750,7 @@
         <v>548790</v>
       </c>
     </row>
-    <row r="448" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" ht="15" thickBot="1">
       <c r="A448" s="11">
         <v>42966</v>
       </c>
@@ -8757,7 +8768,7 @@
         <v>554021</v>
       </c>
     </row>
-    <row r="449" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" ht="15" thickBot="1">
       <c r="A449" s="11">
         <v>42973</v>
       </c>
@@ -8775,7 +8786,7 @@
         <v>551776</v>
       </c>
     </row>
-    <row r="450" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" ht="15" thickBot="1">
       <c r="A450" s="11">
         <v>42980</v>
       </c>
@@ -8808,7 +8819,7 @@
         <v>534140</v>
       </c>
     </row>
-    <row r="451" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" ht="15" thickBot="1">
       <c r="A451" s="13">
         <v>42987</v>
       </c>
@@ -8826,7 +8837,7 @@
         <v>486474</v>
       </c>
     </row>
-    <row r="452" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" ht="15" thickBot="1">
       <c r="A452" s="11">
         <v>42994</v>
       </c>
@@ -8844,7 +8855,7 @@
         <v>530774</v>
       </c>
     </row>
-    <row r="453" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" ht="15" thickBot="1">
       <c r="A453" s="11">
         <v>43001</v>
       </c>
@@ -8862,7 +8873,7 @@
         <v>548204</v>
       </c>
     </row>
-    <row r="454" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" ht="15" thickBot="1">
       <c r="A454" s="11">
         <v>43008</v>
       </c>
@@ -8880,7 +8891,7 @@
         <v>559555</v>
       </c>
     </row>
-    <row r="455" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" ht="15" thickBot="1">
       <c r="A455" s="11">
         <v>43015</v>
       </c>
@@ -8898,7 +8909,7 @@
         <v>554826</v>
       </c>
     </row>
-    <row r="456" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" ht="15" thickBot="1">
       <c r="A456" s="11">
         <v>43022</v>
       </c>
@@ -8916,7 +8927,7 @@
         <v>548264</v>
       </c>
     </row>
-    <row r="457" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" ht="15" thickBot="1">
       <c r="A457" s="11">
         <v>43029</v>
       </c>
@@ -8934,7 +8945,7 @@
         <v>559989</v>
       </c>
     </row>
-    <row r="458" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" ht="15" thickBot="1">
       <c r="A458" s="11">
         <v>43036</v>
       </c>
@@ -8952,7 +8963,7 @@
         <v>546582</v>
       </c>
     </row>
-    <row r="459" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" ht="15" thickBot="1">
       <c r="A459" s="11">
         <v>43043</v>
       </c>
@@ -8970,7 +8981,7 @@
         <v>538739</v>
       </c>
     </row>
-    <row r="460" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" ht="15" thickBot="1">
       <c r="A460" s="11">
         <v>43050</v>
       </c>
@@ -8988,7 +8999,7 @@
         <v>547480</v>
       </c>
     </row>
-    <row r="461" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" ht="15" thickBot="1">
       <c r="A461" s="11">
         <v>43057</v>
       </c>
@@ -9006,7 +9017,7 @@
         <v>554066</v>
       </c>
     </row>
-    <row r="462" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" ht="15" thickBot="1">
       <c r="A462" s="11">
         <v>43064</v>
       </c>
@@ -9024,7 +9035,7 @@
         <v>463602</v>
       </c>
     </row>
-    <row r="463" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" ht="15" thickBot="1">
       <c r="A463" s="11">
         <v>43071</v>
       </c>
@@ -9042,7 +9053,7 @@
         <v>572794</v>
       </c>
     </row>
-    <row r="464" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" ht="15" thickBot="1">
       <c r="A464" s="11">
         <v>43078</v>
       </c>
@@ -9060,7 +9071,7 @@
         <v>560756</v>
       </c>
     </row>
-    <row r="465" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" ht="15" thickBot="1">
       <c r="A465" s="11">
         <v>43085</v>
       </c>
@@ -9078,7 +9089,7 @@
         <v>554779</v>
       </c>
     </row>
-    <row r="466" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" ht="15" thickBot="1">
       <c r="A466" s="11">
         <v>43092</v>
       </c>
@@ -9096,7 +9107,7 @@
         <v>551566</v>
       </c>
     </row>
-    <row r="467" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" ht="15" thickBot="1">
       <c r="A467" s="11">
         <v>43099</v>
       </c>
@@ -9114,7 +9125,7 @@
         <v>397032</v>
       </c>
     </row>
-    <row r="468" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" ht="15" thickBot="1">
       <c r="A468" s="11">
         <v>43113</v>
       </c>
@@ -9132,7 +9143,7 @@
         <v>511937</v>
       </c>
     </row>
-    <row r="469" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" ht="15" thickBot="1">
       <c r="A469" s="11">
         <v>43120</v>
       </c>
@@ -9150,7 +9161,7 @@
         <v>508239</v>
       </c>
     </row>
-    <row r="470" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" ht="15" thickBot="1">
       <c r="A470" s="11">
         <v>43127</v>
       </c>
@@ -9168,7 +9179,7 @@
         <v>543515</v>
       </c>
     </row>
-    <row r="471" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" ht="15" thickBot="1">
       <c r="A471" s="11">
         <v>43134</v>
       </c>
@@ -9186,7 +9197,7 @@
         <v>547993</v>
       </c>
     </row>
-    <row r="472" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" ht="15" thickBot="1">
       <c r="A472" s="11">
         <v>43141</v>
       </c>
@@ -9204,7 +9215,7 @@
         <v>519545</v>
       </c>
     </row>
-    <row r="473" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" ht="15" thickBot="1">
       <c r="A473" s="11">
         <v>43148</v>
       </c>
@@ -9222,7 +9233,7 @@
         <v>539963</v>
       </c>
     </row>
-    <row r="474" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" ht="15" thickBot="1">
       <c r="A474" s="11">
         <v>43155</v>
       </c>
@@ -9240,7 +9251,7 @@
         <v>528440</v>
       </c>
     </row>
-    <row r="475" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" ht="15" thickBot="1">
       <c r="A475" s="11">
         <v>43162</v>
       </c>
@@ -9258,7 +9269,7 @@
         <v>544194</v>
       </c>
     </row>
-    <row r="476" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" ht="15" thickBot="1">
       <c r="A476" s="13">
         <v>43169</v>
       </c>
@@ -9276,7 +9287,7 @@
         <v>534282</v>
       </c>
     </row>
-    <row r="477" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" ht="15" thickBot="1">
       <c r="A477" s="11">
         <v>43176</v>
       </c>
@@ -9294,7 +9305,7 @@
         <v>537338</v>
       </c>
     </row>
-    <row r="478" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" ht="15" thickBot="1">
       <c r="A478" s="11">
         <v>43183</v>
       </c>
@@ -9312,7 +9323,7 @@
         <v>526521</v>
       </c>
     </row>
-    <row r="479" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" ht="15" thickBot="1">
       <c r="A479" s="11">
         <v>43190</v>
       </c>
@@ -9330,7 +9341,7 @@
         <v>534751</v>
       </c>
     </row>
-    <row r="480" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" ht="15" thickBot="1">
       <c r="A480" s="11">
         <v>43197</v>
       </c>
@@ -9348,7 +9359,7 @@
         <v>524905</v>
       </c>
     </row>
-    <row r="481" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" ht="15" thickBot="1">
       <c r="A481" s="11">
         <v>43204</v>
       </c>
@@ -9366,7 +9377,7 @@
         <v>534198</v>
       </c>
     </row>
-    <row r="482" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" ht="15" thickBot="1">
       <c r="A482" s="11">
         <v>43211</v>
       </c>
@@ -9384,7 +9395,7 @@
         <v>539425</v>
       </c>
     </row>
-    <row r="483" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" ht="15" thickBot="1">
       <c r="A483" s="11">
         <v>43218</v>
       </c>
@@ -9402,7 +9413,7 @@
         <v>551498</v>
       </c>
     </row>
-    <row r="484" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" ht="15" thickBot="1">
       <c r="A484" s="11">
         <v>43225</v>
       </c>
@@ -9420,7 +9431,7 @@
         <v>545937</v>
       </c>
     </row>
-    <row r="485" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" ht="15" thickBot="1">
       <c r="A485" s="11">
         <v>43232</v>
       </c>
@@ -9438,7 +9449,7 @@
         <v>550029</v>
       </c>
     </row>
-    <row r="486" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" ht="15" thickBot="1">
       <c r="A486" s="11">
         <v>43239</v>
       </c>
@@ -9456,7 +9467,7 @@
         <v>546415</v>
       </c>
     </row>
-    <row r="487" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" ht="15" thickBot="1">
       <c r="A487" s="11">
         <v>43246</v>
       </c>
@@ -9474,7 +9485,7 @@
         <v>565502</v>
       </c>
     </row>
-    <row r="488" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" ht="15" thickBot="1">
       <c r="A488" s="11">
         <v>43253</v>
       </c>
@@ -9492,7 +9503,7 @@
         <v>509740</v>
       </c>
     </row>
-    <row r="489" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" ht="15" thickBot="1">
       <c r="A489" s="11">
         <v>43260</v>
       </c>
@@ -9510,7 +9521,7 @@
         <v>561061</v>
       </c>
     </row>
-    <row r="490" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" ht="15" thickBot="1">
       <c r="A490" s="11">
         <v>43267</v>
       </c>
@@ -9528,7 +9539,7 @@
         <v>558098</v>
       </c>
     </row>
-    <row r="491" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" ht="15" thickBot="1">
       <c r="A491" s="11">
         <v>43274</v>
       </c>
@@ -9546,7 +9557,7 @@
         <v>557340</v>
       </c>
     </row>
-    <row r="492" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" ht="15" thickBot="1">
       <c r="A492" s="11">
         <v>43281</v>
       </c>
@@ -9564,7 +9575,7 @@
         <v>564243</v>
       </c>
     </row>
-    <row r="493" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" ht="15" thickBot="1">
       <c r="A493" s="11">
         <v>43288</v>
       </c>
@@ -9582,7 +9593,7 @@
         <v>485193</v>
       </c>
     </row>
-    <row r="494" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" ht="15" thickBot="1">
       <c r="A494" s="11">
         <v>43295</v>
       </c>
@@ -9600,7 +9611,7 @@
         <v>559064</v>
       </c>
     </row>
-    <row r="495" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" ht="15" thickBot="1">
       <c r="A495" s="11">
         <v>43302</v>
       </c>
@@ -9618,7 +9629,7 @@
         <v>553024</v>
       </c>
     </row>
-    <row r="496" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" ht="15" thickBot="1">
       <c r="A496" s="11">
         <v>43309</v>
       </c>
@@ -9636,7 +9647,7 @@
         <v>559154</v>
       </c>
     </row>
-    <row r="497" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" ht="15" thickBot="1">
       <c r="A497" s="11">
         <v>43316</v>
       </c>
@@ -9654,7 +9665,7 @@
         <v>570995</v>
       </c>
     </row>
-    <row r="498" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" ht="15" thickBot="1">
       <c r="A498" s="11">
         <v>43323</v>
       </c>
@@ -9672,7 +9683,7 @@
         <v>556887</v>
       </c>
     </row>
-    <row r="499" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" ht="15" thickBot="1">
       <c r="A499" s="11">
         <v>43330</v>
       </c>
@@ -9690,7 +9701,7 @@
         <v>567477</v>
       </c>
     </row>
-    <row r="500" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" ht="15" thickBot="1">
       <c r="A500" s="11">
         <v>43337</v>
       </c>
@@ -9708,7 +9719,7 @@
         <v>565706</v>
       </c>
     </row>
-    <row r="501" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" ht="15" thickBot="1">
       <c r="A501" s="13">
         <v>43344</v>
       </c>
@@ -9726,7 +9737,7 @@
         <v>567881</v>
       </c>
     </row>
-    <row r="502" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" ht="15" thickBot="1">
       <c r="A502" s="11">
         <v>43351</v>
       </c>
@@ -9744,7 +9755,7 @@
         <v>502208</v>
       </c>
     </row>
-    <row r="503" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5" ht="15" thickBot="1">
       <c r="A503" s="11">
         <v>43358</v>
       </c>
@@ -9762,7 +9773,7 @@
         <v>553003</v>
       </c>
     </row>
-    <row r="504" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5" ht="15" thickBot="1">
       <c r="A504" s="11">
         <v>43365</v>
       </c>
@@ -9780,7 +9791,7 @@
         <v>567078</v>
       </c>
     </row>
-    <row r="505" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:5" ht="15" thickBot="1">
       <c r="A505" s="11">
         <v>43372</v>
       </c>
@@ -9798,7 +9809,7 @@
         <v>571922</v>
       </c>
     </row>
-    <row r="506" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" ht="15" thickBot="1">
       <c r="A506" s="11">
         <v>43379</v>
       </c>
@@ -9816,7 +9827,7 @@
         <v>554238</v>
       </c>
     </row>
-    <row r="507" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5" ht="15" thickBot="1">
       <c r="A507" s="11">
         <v>43386</v>
       </c>
@@ -9834,7 +9845,7 @@
         <v>549757</v>
       </c>
     </row>
-    <row r="508" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:5" ht="15" thickBot="1">
       <c r="A508" s="11">
         <v>43393</v>
       </c>
@@ -9852,7 +9863,7 @@
         <v>555106</v>
       </c>
     </row>
-    <row r="509" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:5" ht="15" thickBot="1">
       <c r="A509" s="11">
         <v>43400</v>
       </c>
@@ -9870,7 +9881,7 @@
         <v>562804</v>
       </c>
     </row>
-    <row r="510" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5" ht="15" thickBot="1">
       <c r="A510" s="11">
         <v>43407</v>
       </c>
@@ -9888,7 +9899,7 @@
         <v>560046</v>
       </c>
     </row>
-    <row r="511" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" ht="15" thickBot="1">
       <c r="A511" s="11">
         <v>43414</v>
       </c>
@@ -9906,7 +9917,7 @@
         <v>547236</v>
       </c>
     </row>
-    <row r="512" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:5" ht="15" thickBot="1">
       <c r="A512" s="11">
         <v>43421</v>
       </c>
@@ -9924,7 +9935,7 @@
         <v>546541</v>
       </c>
     </row>
-    <row r="513" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" ht="15" thickBot="1">
       <c r="A513" s="11">
         <v>43428</v>
       </c>
@@ -9942,7 +9953,7 @@
         <v>470851</v>
       </c>
     </row>
-    <row r="514" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" ht="15" thickBot="1">
       <c r="A514" s="11">
         <v>43435</v>
       </c>
@@ -9975,7 +9986,7 @@
         <v>567282</v>
       </c>
     </row>
-    <row r="515" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" ht="15" thickBot="1">
       <c r="A515" s="11">
         <v>43442</v>
       </c>
@@ -9993,7 +10004,7 @@
         <v>570225</v>
       </c>
     </row>
-    <row r="516" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" ht="15" thickBot="1">
       <c r="A516" s="11">
         <v>43449</v>
       </c>
@@ -10011,7 +10022,7 @@
         <v>568941</v>
       </c>
     </row>
-    <row r="517" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" ht="15" thickBot="1">
       <c r="A517" s="11">
         <v>43456</v>
       </c>
@@ -10029,7 +10040,7 @@
         <v>567252</v>
       </c>
     </row>
-    <row r="518" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" ht="15" thickBot="1">
       <c r="A518" s="11">
         <v>43463</v>
       </c>
@@ -10047,7 +10058,7 @@
         <v>411676</v>
       </c>
     </row>
-    <row r="519" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" ht="15" thickBot="1">
       <c r="A519" s="11">
         <v>43470</v>
       </c>
@@ -10065,7 +10076,7 @@
         <v>436103</v>
       </c>
     </row>
-    <row r="520" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" ht="15" thickBot="1">
       <c r="A520" s="11">
         <v>43477</v>
       </c>
@@ -10083,7 +10094,7 @@
         <v>555127</v>
       </c>
     </row>
-    <row r="521" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" ht="15" thickBot="1">
       <c r="A521" s="11">
         <v>43484</v>
       </c>
@@ -10101,7 +10112,7 @@
         <v>543111</v>
       </c>
     </row>
-    <row r="522" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" ht="15" thickBot="1">
       <c r="A522" s="11">
         <v>43491</v>
       </c>
@@ -10119,7 +10130,7 @@
         <v>522026</v>
       </c>
     </row>
-    <row r="523" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" ht="15" thickBot="1">
       <c r="A523" s="11">
         <v>43498</v>
       </c>
@@ -10137,7 +10148,7 @@
         <v>498288</v>
       </c>
     </row>
-    <row r="524" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" ht="15" thickBot="1">
       <c r="A524" s="11">
         <v>43505</v>
       </c>
@@ -10155,7 +10166,7 @@
         <v>519779</v>
       </c>
     </row>
-    <row r="525" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" ht="15" thickBot="1">
       <c r="A525" s="11">
         <v>43512</v>
       </c>
@@ -10173,7 +10184,7 @@
         <v>523915</v>
       </c>
     </row>
-    <row r="526" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" ht="15" thickBot="1">
       <c r="A526" s="13">
         <v>43519</v>
       </c>
@@ -10191,7 +10202,7 @@
         <v>522630</v>
       </c>
     </row>
-    <row r="527" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" ht="15" thickBot="1">
       <c r="A527" s="11">
         <v>43526</v>
       </c>
@@ -10209,7 +10220,7 @@
         <v>528153</v>
       </c>
     </row>
-    <row r="528" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" ht="15" thickBot="1">
       <c r="A528" s="11">
         <v>43533</v>
       </c>
@@ -10227,7 +10238,7 @@
         <v>508958</v>
       </c>
     </row>
-    <row r="529" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" ht="15" thickBot="1">
       <c r="A529" s="11">
         <v>43540</v>
       </c>
@@ -10245,7 +10256,7 @@
         <v>501001</v>
       </c>
     </row>
-    <row r="530" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" ht="15" thickBot="1">
       <c r="A530" s="11">
         <v>43547</v>
       </c>
@@ -10263,7 +10274,7 @@
         <v>503017</v>
       </c>
     </row>
-    <row r="531" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" ht="15" thickBot="1">
       <c r="A531" s="11">
         <v>43554</v>
       </c>
@@ -10281,7 +10292,7 @@
         <v>509958</v>
       </c>
     </row>
-    <row r="532" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" ht="15" thickBot="1">
       <c r="A532" s="11">
         <v>43561</v>
       </c>
@@ -10299,7 +10310,7 @@
         <v>510192</v>
       </c>
     </row>
-    <row r="533" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" ht="15" thickBot="1">
       <c r="A533" s="11">
         <v>43568</v>
       </c>
@@ -10317,7 +10328,7 @@
         <v>528167</v>
       </c>
     </row>
-    <row r="534" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" ht="15" thickBot="1">
       <c r="A534" s="11">
         <v>43575</v>
       </c>
@@ -10335,7 +10346,7 @@
         <v>526141</v>
       </c>
     </row>
-    <row r="535" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" ht="15" thickBot="1">
       <c r="A535" s="11">
         <v>43582</v>
       </c>
@@ -10353,7 +10364,7 @@
         <v>533190</v>
       </c>
     </row>
-    <row r="536" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" ht="15" thickBot="1">
       <c r="A536" s="11">
         <v>43589</v>
       </c>
@@ -10371,7 +10382,7 @@
         <v>535089</v>
       </c>
     </row>
-    <row r="537" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" ht="15" thickBot="1">
       <c r="A537" s="11">
         <v>43596</v>
       </c>
@@ -10389,7 +10400,7 @@
         <v>529263</v>
       </c>
     </row>
-    <row r="538" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" ht="15" thickBot="1">
       <c r="A538" s="11">
         <v>43603</v>
       </c>
@@ -10407,7 +10418,7 @@
         <v>536358</v>
       </c>
     </row>
-    <row r="539" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" ht="15" thickBot="1">
       <c r="A539" s="11">
         <v>43610</v>
       </c>
@@ -10425,7 +10436,7 @@
         <v>527966</v>
       </c>
     </row>
-    <row r="540" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" ht="15" thickBot="1">
       <c r="A540" s="11">
         <v>43617</v>
       </c>
@@ -10443,7 +10454,7 @@
         <v>478679</v>
       </c>
     </row>
-    <row r="541" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" ht="15" thickBot="1">
       <c r="A541" s="11">
         <v>43624</v>
       </c>
@@ -10461,7 +10472,7 @@
         <v>513099</v>
       </c>
     </row>
-    <row r="542" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" ht="15" thickBot="1">
       <c r="A542" s="11">
         <v>43631</v>
       </c>
@@ -10479,7 +10490,7 @@
         <v>527989</v>
       </c>
     </row>
-    <row r="543" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" ht="15" thickBot="1">
       <c r="A543" s="11">
         <v>43638</v>
       </c>
@@ -10497,7 +10508,7 @@
         <v>525116</v>
       </c>
     </row>
-    <row r="544" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" ht="15" thickBot="1">
       <c r="A544" s="11">
         <v>43645</v>
       </c>
@@ -10515,7 +10526,7 @@
         <v>533164</v>
       </c>
     </row>
-    <row r="545" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" ht="15" thickBot="1">
       <c r="A545" s="11">
         <v>43652</v>
       </c>
@@ -10533,7 +10544,7 @@
         <v>448459</v>
       </c>
     </row>
-    <row r="546" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" ht="15" thickBot="1">
       <c r="A546" s="11">
         <v>43659</v>
       </c>
@@ -10551,7 +10562,7 @@
         <v>527908</v>
       </c>
     </row>
-    <row r="547" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:5" ht="15" thickBot="1">
       <c r="A547" s="11">
         <v>43666</v>
       </c>
@@ -10569,7 +10580,7 @@
         <v>526010</v>
       </c>
     </row>
-    <row r="548" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:5" ht="15" thickBot="1">
       <c r="A548" s="11">
         <v>43673</v>
       </c>
@@ -10587,7 +10598,7 @@
         <v>534498</v>
       </c>
     </row>
-    <row r="549" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" ht="15" thickBot="1">
       <c r="A549" s="11">
         <v>43680</v>
       </c>
@@ -10605,7 +10616,7 @@
         <v>541558</v>
       </c>
     </row>
-    <row r="550" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" ht="15" thickBot="1">
       <c r="A550" s="11">
         <v>43687</v>
       </c>
@@ -10623,7 +10634,7 @@
         <v>533190</v>
       </c>
     </row>
-    <row r="551" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" ht="15" thickBot="1">
       <c r="A551" s="13">
         <v>43694</v>
       </c>
@@ -10641,7 +10652,7 @@
         <v>537617</v>
       </c>
     </row>
-    <row r="552" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:5" ht="15" thickBot="1">
       <c r="A552" s="11">
         <v>43701</v>
       </c>
@@ -10659,7 +10670,7 @@
         <v>532483</v>
       </c>
     </row>
-    <row r="553" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" ht="15" thickBot="1">
       <c r="A553" s="11">
         <v>43708</v>
       </c>
@@ -10677,7 +10688,7 @@
         <v>541945</v>
       </c>
     </row>
-    <row r="554" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" ht="15" thickBot="1">
       <c r="A554" s="11">
         <v>43715</v>
       </c>
@@ -10695,7 +10706,7 @@
         <v>469285</v>
       </c>
     </row>
-    <row r="555" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" ht="15" thickBot="1">
       <c r="A555" s="11">
         <v>43722</v>
       </c>
@@ -10713,7 +10724,7 @@
         <v>526734</v>
       </c>
     </row>
-    <row r="556" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" ht="15" thickBot="1">
       <c r="A556" s="11">
         <v>43729</v>
       </c>
@@ -10731,7 +10742,7 @@
         <v>528670</v>
       </c>
     </row>
-    <row r="557" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" ht="15" thickBot="1">
       <c r="A557" s="11">
         <v>43736</v>
       </c>
@@ -10749,7 +10760,7 @@
         <v>529336</v>
       </c>
     </row>
-    <row r="558" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" ht="15" thickBot="1">
       <c r="A558" s="11">
         <v>43743</v>
       </c>
@@ -10767,7 +10778,7 @@
         <v>515061</v>
       </c>
     </row>
-    <row r="559" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" ht="15" thickBot="1">
       <c r="A559" s="11">
         <v>43750</v>
       </c>
@@ -10785,7 +10796,7 @@
         <v>510820</v>
       </c>
     </row>
-    <row r="560" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" ht="15" thickBot="1">
       <c r="A560" s="11">
         <v>43757</v>
       </c>
@@ -10803,7 +10814,7 @@
         <v>507381</v>
       </c>
     </row>
-    <row r="561" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" ht="15" thickBot="1">
       <c r="A561" s="11">
         <v>43764</v>
       </c>
@@ -10821,7 +10832,7 @@
         <v>513147</v>
       </c>
     </row>
-    <row r="562" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:5" ht="15" thickBot="1">
       <c r="A562" s="11">
         <v>43771</v>
       </c>
@@ -10839,7 +10850,7 @@
         <v>510012</v>
       </c>
     </row>
-    <row r="563" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:5" ht="15" thickBot="1">
       <c r="A563" s="11">
         <v>43778</v>
       </c>
@@ -10857,7 +10868,7 @@
         <v>515269</v>
       </c>
     </row>
-    <row r="564" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:5" ht="15" thickBot="1">
       <c r="A564" s="11">
         <v>43785</v>
       </c>
@@ -10875,7 +10886,7 @@
         <v>501249</v>
       </c>
     </row>
-    <row r="565" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:5" ht="15" thickBot="1">
       <c r="A565" s="11">
         <v>43792</v>
       </c>
@@ -10893,7 +10904,7 @@
         <v>521927</v>
       </c>
     </row>
-    <row r="566" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" ht="15" thickBot="1">
       <c r="A566" s="11">
         <v>43813</v>
       </c>
@@ -10911,7 +10922,7 @@
         <v>520589</v>
       </c>
     </row>
-    <row r="567" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" ht="15" thickBot="1">
       <c r="A567" s="11">
         <v>43820</v>
       </c>
@@ -10929,7 +10940,7 @@
         <v>507589</v>
       </c>
     </row>
-    <row r="568" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" ht="15" thickBot="1">
       <c r="A568" s="11">
         <v>43827</v>
       </c>
@@ -10947,7 +10958,7 @@
         <v>373728</v>
       </c>
     </row>
-    <row r="569" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:5" ht="15" thickBot="1">
       <c r="A569" s="11">
         <v>43834</v>
       </c>
@@ -10965,7 +10976,7 @@
         <v>414014</v>
       </c>
     </row>
-    <row r="570" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" ht="15" thickBot="1">
       <c r="A570" s="11">
         <v>43841</v>
       </c>
@@ -10983,7 +10994,7 @@
         <v>501624</v>
       </c>
     </row>
-    <row r="571" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:5" ht="15" thickBot="1">
       <c r="A571" s="11">
         <v>43848</v>
       </c>
@@ -11001,7 +11012,7 @@
         <v>499732</v>
       </c>
     </row>
-    <row r="572" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:5" ht="15" thickBot="1">
       <c r="A572" s="11">
         <v>43855</v>
       </c>
@@ -11019,7 +11030,7 @@
         <v>485282</v>
       </c>
     </row>
-    <row r="573" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" ht="15" thickBot="1">
       <c r="A573" s="11">
         <v>43862</v>
       </c>
@@ -11037,7 +11048,7 @@
         <v>510161</v>
       </c>
     </row>
-    <row r="574" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5" ht="15" thickBot="1">
       <c r="A574" s="11">
         <v>43869</v>
       </c>
@@ -11055,7 +11066,7 @@
         <v>485329</v>
       </c>
     </row>
-    <row r="575" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:5" ht="15" thickBot="1">
       <c r="A575" s="11">
         <v>43876</v>
       </c>
@@ -11073,7 +11084,7 @@
         <v>479137</v>
       </c>
     </row>
-    <row r="576" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:5" ht="15" thickBot="1">
       <c r="A576" s="13">
         <v>43883</v>
       </c>
@@ -11091,7 +11102,7 @@
         <v>482690</v>
       </c>
     </row>
-    <row r="577" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:5" ht="15" thickBot="1">
       <c r="A577" s="11">
         <v>43890</v>
       </c>
@@ -11109,7 +11120,7 @@
         <v>477611</v>
       </c>
     </row>
-    <row r="578" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:5" ht="15" thickBot="1">
       <c r="A578" s="11">
         <v>43897</v>
       </c>
@@ -11142,7 +11153,7 @@
         <v>462303</v>
       </c>
     </row>
-    <row r="579" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:5" ht="15" thickBot="1">
       <c r="A579" s="11">
         <v>43904</v>
       </c>
@@ -11160,7 +11171,7 @@
         <v>463017</v>
       </c>
     </row>
-    <row r="580" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:5" ht="15" thickBot="1">
       <c r="A580" s="11">
         <v>43911</v>
       </c>
@@ -11178,7 +11189,7 @@
         <v>459966</v>
       </c>
     </row>
-    <row r="581" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:5" ht="15" thickBot="1">
       <c r="A581" s="11">
         <v>43918</v>
       </c>
@@ -11196,7 +11207,7 @@
         <v>449767</v>
       </c>
     </row>
-    <row r="582" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:5" ht="15" thickBot="1">
       <c r="A582" s="11">
         <v>43925</v>
       </c>
@@ -11214,7 +11225,7 @@
         <v>429095</v>
       </c>
     </row>
-    <row r="583" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:5" ht="15" thickBot="1">
       <c r="A583" s="11">
         <v>43932</v>
       </c>
@@ -11232,7 +11243,7 @@
         <v>412503</v>
       </c>
     </row>
-    <row r="584" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:5" ht="15" thickBot="1">
       <c r="A584" s="11">
         <v>43939</v>
       </c>
@@ -11250,7 +11261,7 @@
         <v>403283</v>
       </c>
     </row>
-    <row r="585" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:5" ht="15" thickBot="1">
       <c r="A585" s="11">
         <v>43946</v>
       </c>
@@ -11268,7 +11279,7 @@
         <v>414123</v>
       </c>
     </row>
-    <row r="586" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:5" ht="15" thickBot="1">
       <c r="A586" s="11">
         <v>43953</v>
       </c>
@@ -11286,7 +11297,7 @@
         <v>416954</v>
       </c>
     </row>
-    <row r="587" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:5" ht="15" thickBot="1">
       <c r="A587" s="11">
         <v>43960</v>
       </c>
@@ -11304,7 +11315,7 @@
         <v>412549</v>
       </c>
     </row>
-    <row r="588" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:5" ht="15" thickBot="1">
       <c r="A588" s="11">
         <v>43967</v>
       </c>
@@ -11322,7 +11333,7 @@
         <v>416115</v>
       </c>
     </row>
-    <row r="589" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:5" ht="15" thickBot="1">
       <c r="A589" s="11">
         <v>43974</v>
       </c>
@@ -11340,7 +11351,7 @@
         <v>428715</v>
       </c>
     </row>
-    <row r="590" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:5" ht="15" thickBot="1">
       <c r="A590" s="11">
         <v>43981</v>
       </c>
@@ -11358,7 +11369,7 @@
         <v>395714</v>
       </c>
     </row>
-    <row r="591" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:5" ht="15" thickBot="1">
       <c r="A591" s="11">
         <v>43988</v>
       </c>
@@ -11376,7 +11387,7 @@
         <v>433171</v>
       </c>
     </row>
-    <row r="592" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:5" ht="15" thickBot="1">
       <c r="A592" s="11">
         <v>43995</v>
       </c>
@@ -11394,7 +11405,7 @@
         <v>449291</v>
       </c>
     </row>
-    <row r="593" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:5" ht="15" thickBot="1">
       <c r="A593" s="11">
         <v>44002</v>
       </c>
@@ -11412,7 +11423,7 @@
         <v>457278</v>
       </c>
     </row>
-    <row r="594" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:5" ht="15" thickBot="1">
       <c r="A594" s="11">
         <v>44009</v>
       </c>
@@ -11430,7 +11441,7 @@
         <v>459449</v>
       </c>
     </row>
-    <row r="595" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:5" ht="15" thickBot="1">
       <c r="A595" s="11">
         <v>44016</v>
       </c>
@@ -11448,7 +11459,7 @@
         <v>437989</v>
       </c>
     </row>
-    <row r="596" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:5" ht="15" thickBot="1">
       <c r="A596" s="11">
         <v>44023</v>
       </c>
@@ -11466,7 +11477,7 @@
         <v>449092</v>
       </c>
     </row>
-    <row r="597" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" ht="15" thickBot="1">
       <c r="A597" s="11">
         <v>44030</v>
       </c>
@@ -11484,7 +11495,7 @@
         <v>481597</v>
       </c>
     </row>
-    <row r="598" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5" ht="15" thickBot="1">
       <c r="A598" s="11">
         <v>44037</v>
       </c>
@@ -11502,7 +11513,7 @@
         <v>481331</v>
       </c>
     </row>
-    <row r="599" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5" ht="15" thickBot="1">
       <c r="A599" s="11">
         <v>44044</v>
       </c>
@@ -11520,7 +11531,7 @@
         <v>487968</v>
       </c>
     </row>
-    <row r="600" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5" ht="15" thickBot="1">
       <c r="A600" s="11">
         <v>44051</v>
       </c>
@@ -11538,7 +11549,7 @@
         <v>497397</v>
       </c>
     </row>
-    <row r="601" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5" ht="15" thickBot="1">
       <c r="A601" s="13">
         <v>44058</v>
       </c>
@@ -11556,7 +11567,7 @@
         <v>500563</v>
       </c>
     </row>
-    <row r="602" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:5" ht="15" thickBot="1">
       <c r="A602" s="11">
         <v>44072</v>
       </c>
@@ -11574,7 +11585,7 @@
         <v>508307</v>
       </c>
     </row>
-    <row r="603" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:5" ht="15" thickBot="1">
       <c r="A603" s="11">
         <v>44079</v>
       </c>
@@ -11592,7 +11603,7 @@
         <v>509637</v>
       </c>
     </row>
-    <row r="604" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:5" ht="15" thickBot="1">
       <c r="A604" s="11">
         <v>44086</v>
       </c>
@@ -11610,7 +11621,7 @@
         <v>474785</v>
       </c>
     </row>
-    <row r="605" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:5" ht="15" thickBot="1">
       <c r="A605" s="11">
         <v>44093</v>
       </c>
@@ -11628,7 +11639,7 @@
         <v>521956</v>
       </c>
     </row>
-    <row r="606" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:5" ht="15" thickBot="1">
       <c r="A606" s="11">
         <v>44100</v>
       </c>
@@ -11646,7 +11657,7 @@
         <v>518290</v>
       </c>
     </row>
-    <row r="607" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:5" ht="15" thickBot="1">
       <c r="A607" s="11">
         <v>44107</v>
       </c>
@@ -11664,7 +11675,7 @@
         <v>518761</v>
       </c>
     </row>
-    <row r="608" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:5" ht="15" thickBot="1">
       <c r="A608" s="11">
         <v>44114</v>
       </c>
@@ -11682,7 +11693,7 @@
         <v>520452</v>
       </c>
     </row>
-    <row r="609" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:5" ht="15" thickBot="1">
       <c r="A609" s="11">
         <v>44121</v>
       </c>
@@ -11700,7 +11711,7 @@
         <v>518763</v>
       </c>
     </row>
-    <row r="610" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:5" ht="15" thickBot="1">
       <c r="A610" s="11">
         <v>44128</v>
       </c>
@@ -11718,7 +11729,7 @@
         <v>522653</v>
       </c>
     </row>
-    <row r="611" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:5" ht="15" thickBot="1">
       <c r="A611" s="11">
         <v>44135</v>
       </c>
@@ -11736,7 +11747,7 @@
         <v>520778</v>
       </c>
     </row>
-    <row r="612" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:5" ht="15" thickBot="1">
       <c r="A612" s="11">
         <v>44142</v>
       </c>
@@ -11754,7 +11765,7 @@
         <v>522028</v>
       </c>
     </row>
-    <row r="613" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:5" ht="15" thickBot="1">
       <c r="A613" s="11">
         <v>44149</v>
       </c>
@@ -11772,7 +11783,7 @@
         <v>527462</v>
       </c>
     </row>
-    <row r="614" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:5" ht="15" thickBot="1">
       <c r="A614" s="11">
         <v>44156</v>
       </c>
@@ -11790,7 +11801,7 @@
         <v>534607</v>
       </c>
     </row>
-    <row r="615" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:5" ht="15" thickBot="1">
       <c r="A615" s="11">
         <v>44163</v>
       </c>
@@ -11808,7 +11819,7 @@
         <v>452792</v>
       </c>
     </row>
-    <row r="616" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:5" ht="15" thickBot="1">
       <c r="A616" s="11">
         <v>44170</v>
       </c>
@@ -11826,7 +11837,7 @@
         <v>542203</v>
       </c>
     </row>
-    <row r="617" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:5" ht="15" thickBot="1">
       <c r="A617" s="11">
         <v>44177</v>
       </c>
@@ -11844,7 +11855,7 @@
         <v>546209</v>
       </c>
     </row>
-    <row r="618" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:5" ht="15" thickBot="1">
       <c r="A618" s="11">
         <v>44191</v>
       </c>
@@ -11862,7 +11873,7 @@
         <v>405111</v>
       </c>
     </row>
-    <row r="619" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:5" ht="15" thickBot="1">
       <c r="A619" s="11">
         <v>44198</v>
       </c>
@@ -11880,7 +11891,7 @@
         <v>421991</v>
       </c>
     </row>
-    <row r="620" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:5" ht="15" thickBot="1">
       <c r="A620" s="11">
         <v>44205</v>
       </c>
@@ -11898,7 +11909,7 @@
         <v>525253</v>
       </c>
     </row>
-    <row r="621" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:5" ht="15" thickBot="1">
       <c r="A621" s="11">
         <v>44212</v>
       </c>
@@ -11916,7 +11927,7 @@
         <v>528547</v>
       </c>
     </row>
-    <row r="622" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:5" ht="15" thickBot="1">
       <c r="A622" s="11">
         <v>44219</v>
       </c>
@@ -11934,7 +11945,7 @@
         <v>529030</v>
       </c>
     </row>
-    <row r="623" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5" ht="15" thickBot="1">
       <c r="A623" s="11">
         <v>44226</v>
       </c>
@@ -11952,7 +11963,7 @@
         <v>520693</v>
       </c>
     </row>
-    <row r="624" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:5" ht="15" thickBot="1">
       <c r="A624" s="11">
         <v>44233</v>
       </c>
@@ -11970,7 +11981,7 @@
         <v>495815</v>
       </c>
     </row>
-    <row r="625" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:5" ht="15" thickBot="1">
       <c r="A625" s="11">
         <v>44240</v>
       </c>
@@ -11988,7 +11999,7 @@
         <v>480483</v>
       </c>
     </row>
-    <row r="626" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:5" ht="15" thickBot="1">
       <c r="A626" s="13">
         <v>44247</v>
       </c>
@@ -12006,7 +12017,7 @@
         <v>377904</v>
       </c>
     </row>
-    <row r="627" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:5" ht="15" thickBot="1">
       <c r="A627" s="11">
         <v>44254</v>
       </c>
@@ -12024,7 +12035,7 @@
         <v>486429</v>
       </c>
     </row>
-    <row r="628" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:5" ht="15" thickBot="1">
       <c r="A628" s="11">
         <v>44261</v>
       </c>
@@ -12042,7 +12053,7 @@
         <v>515135</v>
       </c>
     </row>
-    <row r="629" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:5" ht="15" thickBot="1">
       <c r="A629" s="11">
         <v>44268</v>
       </c>
@@ -12060,7 +12071,7 @@
         <v>520736</v>
       </c>
     </row>
-    <row r="630" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:5" ht="15" thickBot="1">
       <c r="A630" s="11">
         <v>44275</v>
       </c>
@@ -12078,7 +12089,7 @@
         <v>513325</v>
       </c>
     </row>
-    <row r="631" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:5" ht="15" thickBot="1">
       <c r="A631" s="11">
         <v>44282</v>
       </c>
@@ -12096,7 +12107,7 @@
         <v>521731</v>
       </c>
     </row>
-    <row r="632" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:5" ht="15" thickBot="1">
       <c r="A632" s="11">
         <v>44289</v>
       </c>
@@ -12114,7 +12125,7 @@
         <v>515562</v>
       </c>
     </row>
-    <row r="633" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:5" ht="15" thickBot="1">
       <c r="A633" s="11">
         <v>44296</v>
       </c>
@@ -12132,7 +12143,7 @@
         <v>513724</v>
       </c>
     </row>
-    <row r="634" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:5" ht="15" thickBot="1">
       <c r="A634" s="11">
         <v>44303</v>
       </c>
@@ -12150,7 +12161,7 @@
         <v>533217</v>
       </c>
     </row>
-    <row r="635" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:5" ht="15" thickBot="1">
       <c r="A635" s="11">
         <v>44310</v>
       </c>
@@ -12168,7 +12179,7 @@
         <v>538184</v>
       </c>
     </row>
-    <row r="636" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:5" ht="15" thickBot="1">
       <c r="A636" s="11">
         <v>44317</v>
       </c>
@@ -12186,7 +12197,7 @@
         <v>540667</v>
       </c>
     </row>
-    <row r="637" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:5" ht="15" thickBot="1">
       <c r="A637" s="11">
         <v>44324</v>
       </c>
@@ -12204,7 +12215,7 @@
         <v>523309</v>
       </c>
     </row>
-    <row r="638" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:5" ht="15" thickBot="1">
       <c r="A638" s="11">
         <v>44331</v>
       </c>
@@ -12222,7 +12233,7 @@
         <v>533872</v>
       </c>
     </row>
-    <row r="639" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:5" ht="15" thickBot="1">
       <c r="A639" s="11">
         <v>44338</v>
       </c>
@@ -12240,7 +12251,7 @@
         <v>528774</v>
       </c>
     </row>
-    <row r="640" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:5" ht="15" thickBot="1">
       <c r="A640" s="11">
         <v>44345</v>
       </c>
@@ -12258,7 +12269,7 @@
         <v>530225</v>
       </c>
     </row>
-    <row r="641" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:5" ht="15" thickBot="1">
       <c r="A641" s="11">
         <v>44352</v>
       </c>
@@ -12276,7 +12287,7 @@
         <v>489144</v>
       </c>
     </row>
-    <row r="642" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:5" ht="15" thickBot="1">
       <c r="A642" s="11">
         <v>44359</v>
       </c>
@@ -12309,7 +12320,7 @@
         <v>529635</v>
       </c>
     </row>
-    <row r="643" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:5" ht="15" thickBot="1">
       <c r="A643" s="11">
         <v>44366</v>
       </c>
@@ -12327,7 +12338,7 @@
         <v>514112</v>
       </c>
     </row>
-    <row r="644" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:5" ht="15" thickBot="1">
       <c r="A644" s="11">
         <v>44373</v>
       </c>
@@ -12345,7 +12356,7 @@
         <v>516167</v>
       </c>
     </row>
-    <row r="645" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:5" ht="15" thickBot="1">
       <c r="A645" s="11">
         <v>44380</v>
       </c>
@@ -12363,7 +12374,7 @@
         <v>512919</v>
       </c>
     </row>
-    <row r="646" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:5" ht="15" thickBot="1">
       <c r="A646" s="11">
         <v>44387</v>
       </c>
@@ -12381,7 +12392,7 @@
         <v>451825</v>
       </c>
     </row>
-    <row r="647" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:5" ht="15" thickBot="1">
       <c r="A647" s="11">
         <v>44394</v>
       </c>
@@ -12399,7 +12410,7 @@
         <v>513255</v>
       </c>
     </row>
-    <row r="648" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:5" ht="15" thickBot="1">
       <c r="A648" s="11">
         <v>44401</v>
       </c>
@@ -12417,7 +12428,7 @@
         <v>503219</v>
       </c>
     </row>
-    <row r="649" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:5" ht="15" thickBot="1">
       <c r="A649" s="11">
         <v>44408</v>
       </c>
@@ -12435,7 +12446,7 @@
         <v>502540</v>
       </c>
     </row>
-    <row r="650" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:5" ht="15" thickBot="1">
       <c r="A650" s="11">
         <v>44415</v>
       </c>
@@ -12453,7 +12464,7 @@
         <v>509607</v>
       </c>
     </row>
-    <row r="651" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:5" ht="15" thickBot="1">
       <c r="A651" s="13">
         <v>44422</v>
       </c>
@@ -12471,7 +12482,7 @@
         <v>504810</v>
       </c>
     </row>
-    <row r="652" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:5" ht="15" thickBot="1">
       <c r="A652" s="11">
         <v>44429</v>
       </c>
@@ -12489,7 +12500,7 @@
         <v>501273</v>
       </c>
     </row>
-    <row r="653" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:5" ht="15" thickBot="1">
       <c r="A653" s="11">
         <v>44436</v>
       </c>
@@ -12507,7 +12518,7 @@
         <v>504417</v>
       </c>
     </row>
-    <row r="654" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:5" ht="15" thickBot="1">
       <c r="A654" s="11">
         <v>44443</v>
       </c>
@@ -12525,7 +12536,7 @@
         <v>494415</v>
       </c>
     </row>
-    <row r="655" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:5" ht="15" thickBot="1">
       <c r="A655" s="11">
         <v>44450</v>
       </c>
@@ -12543,7 +12554,7 @@
         <v>468610</v>
       </c>
     </row>
-    <row r="656" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:5" ht="15" thickBot="1">
       <c r="A656" s="11">
         <v>44457</v>
       </c>
@@ -12561,7 +12572,7 @@
         <v>505622</v>
       </c>
     </row>
-    <row r="657" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:5" ht="15" thickBot="1">
       <c r="A657" s="11">
         <v>44464</v>
       </c>
@@ -12579,7 +12590,7 @@
         <v>511713</v>
       </c>
     </row>
-    <row r="658" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:5" ht="15" thickBot="1">
       <c r="A658" s="11">
         <v>44471</v>
       </c>
@@ -12597,7 +12608,7 @@
         <v>515849</v>
       </c>
     </row>
-    <row r="659" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:5" ht="15" thickBot="1">
       <c r="A659" s="11">
         <v>44478</v>
       </c>
@@ -12615,7 +12626,7 @@
         <v>506642</v>
       </c>
     </row>
-    <row r="660" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:5" ht="15" thickBot="1">
       <c r="A660" s="11">
         <v>44485</v>
       </c>
@@ -12633,7 +12644,7 @@
         <v>496983</v>
       </c>
     </row>
-    <row r="661" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:5" ht="15" thickBot="1">
       <c r="A661" s="11">
         <v>44492</v>
       </c>
@@ -12651,7 +12662,7 @@
         <v>510762</v>
       </c>
     </row>
-    <row r="662" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:5" ht="15" thickBot="1">
       <c r="A662" s="11">
         <v>44499</v>
       </c>
@@ -12669,7 +12680,7 @@
         <v>510141</v>
       </c>
     </row>
-    <row r="663" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:5" ht="15" thickBot="1">
       <c r="A663" s="11">
         <v>44506</v>
       </c>
@@ -12687,7 +12698,7 @@
         <v>504111</v>
       </c>
     </row>
-    <row r="664" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:5" ht="15" thickBot="1">
       <c r="A664" s="11">
         <v>44513</v>
       </c>
@@ -12705,7 +12716,7 @@
         <v>502613</v>
       </c>
     </row>
-    <row r="665" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:5" ht="15" thickBot="1">
       <c r="A665" s="11">
         <v>44520</v>
       </c>
@@ -12723,7 +12734,7 @@
         <v>508309</v>
       </c>
     </row>
-    <row r="666" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:5" ht="15" thickBot="1">
       <c r="A666" s="11">
         <v>44527</v>
       </c>
@@ -12741,7 +12752,7 @@
         <v>430793</v>
       </c>
     </row>
-    <row r="667" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:5" ht="15" thickBot="1">
       <c r="A667" s="11">
         <v>44534</v>
       </c>
@@ -12759,7 +12770,7 @@
         <v>527406</v>
       </c>
     </row>
-    <row r="668" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:5" ht="15" thickBot="1">
       <c r="A668" s="11">
         <v>44541</v>
       </c>
@@ -12777,7 +12788,7 @@
         <v>513366</v>
       </c>
     </row>
-    <row r="669" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:5" ht="15" thickBot="1">
       <c r="A669" s="11">
         <v>44548</v>
       </c>
@@ -12795,7 +12806,7 @@
         <v>504099</v>
       </c>
     </row>
-    <row r="670" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:5" ht="15" thickBot="1">
       <c r="A670" s="11">
         <v>44555</v>
       </c>
@@ -12813,7 +12824,7 @@
         <v>420373</v>
       </c>
     </row>
-    <row r="671" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:5" ht="15" thickBot="1">
       <c r="A671" s="11">
         <v>44562</v>
       </c>
@@ -12831,7 +12842,7 @@
         <v>395371</v>
       </c>
     </row>
-    <row r="672" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:5" ht="15" thickBot="1">
       <c r="A672" s="11">
         <v>44569</v>
       </c>
@@ -12849,7 +12860,7 @@
         <v>440761</v>
       </c>
     </row>
-    <row r="673" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:5" ht="15" thickBot="1">
       <c r="A673" s="11">
         <v>44576</v>
       </c>
@@ -12867,7 +12878,7 @@
         <v>493617</v>
       </c>
     </row>
-    <row r="674" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:5" ht="15" thickBot="1">
       <c r="A674" s="11">
         <v>44583</v>
       </c>
@@ -12885,7 +12896,7 @@
         <v>477462</v>
       </c>
     </row>
-    <row r="675" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:5" ht="15" thickBot="1">
       <c r="A675" s="11">
         <v>44590</v>
       </c>
@@ -12903,7 +12914,7 @@
         <v>491868</v>
       </c>
     </row>
-    <row r="676" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:5" ht="15" thickBot="1">
       <c r="A676" s="13">
         <v>44597</v>
       </c>
@@ -12921,7 +12932,7 @@
         <v>458152</v>
       </c>
     </row>
-    <row r="677" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:5" ht="15" thickBot="1">
       <c r="A677" s="11">
         <v>44604</v>
       </c>
@@ -12939,7 +12950,7 @@
         <v>504482</v>
       </c>
     </row>
-    <row r="678" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:5" ht="15" thickBot="1">
       <c r="A678" s="11">
         <v>44611</v>
       </c>
@@ -12957,7 +12968,7 @@
         <v>497822</v>
       </c>
     </row>
-    <row r="679" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:5" ht="15" thickBot="1">
       <c r="A679" s="11">
         <v>44625</v>
       </c>
@@ -12975,7 +12986,7 @@
         <v>505177</v>
       </c>
     </row>
-    <row r="680" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:5" ht="15" thickBot="1">
       <c r="A680" s="11">
         <v>44632</v>
       </c>
@@ -12993,7 +13004,7 @@
         <v>496134</v>
       </c>
     </row>
-    <row r="681" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:5" ht="15" thickBot="1">
       <c r="A681" s="11">
         <v>44639</v>
       </c>
@@ -13011,7 +13022,7 @@
         <v>499362</v>
       </c>
     </row>
-    <row r="682" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:5" ht="15" thickBot="1">
       <c r="A682" s="11">
         <v>44646</v>
       </c>
@@ -13029,7 +13040,7 @@
         <v>504817</v>
       </c>
     </row>
-    <row r="683" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:5" ht="15" thickBot="1">
       <c r="A683" s="11">
         <v>44653</v>
       </c>
@@ -13047,7 +13058,7 @@
         <v>502194</v>
       </c>
     </row>
-    <row r="684" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:5" ht="15" thickBot="1">
       <c r="A684" s="11">
         <v>44660</v>
       </c>
@@ -13065,7 +13076,7 @@
         <v>508343</v>
       </c>
     </row>
-    <row r="685" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:5" ht="15" thickBot="1">
       <c r="A685" s="11">
         <v>44667</v>
       </c>
@@ -13083,7 +13094,7 @@
         <v>489801</v>
       </c>
     </row>
-    <row r="686" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:5" ht="15" thickBot="1">
       <c r="A686" s="11">
         <v>44674</v>
       </c>
@@ -13101,7 +13112,7 @@
         <v>498011</v>
       </c>
     </row>
-    <row r="687" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:5" ht="15" thickBot="1">
       <c r="A687" s="11">
         <v>44681</v>
       </c>
@@ -13119,7 +13130,7 @@
         <v>506699</v>
       </c>
     </row>
-    <row r="688" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:5" ht="15" thickBot="1">
       <c r="A688" s="11">
         <v>44688</v>
       </c>
@@ -13137,7 +13148,7 @@
         <v>504927</v>
       </c>
     </row>
-    <row r="689" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:5" ht="15" thickBot="1">
       <c r="A689" s="11">
         <v>44695</v>
       </c>
@@ -13155,7 +13166,7 @@
         <v>505120</v>
       </c>
     </row>
-    <row r="690" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:5" ht="15" thickBot="1">
       <c r="A690" s="11">
         <v>44702</v>
       </c>
@@ -13173,7 +13184,7 @@
         <v>506976</v>
       </c>
     </row>
-    <row r="691" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:5" ht="15" thickBot="1">
       <c r="A691" s="11">
         <v>44709</v>
       </c>
@@ -13191,7 +13202,7 @@
         <v>514277</v>
       </c>
     </row>
-    <row r="692" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:5" ht="15" thickBot="1">
       <c r="A692" s="11">
         <v>44716</v>
       </c>
@@ -13209,7 +13220,7 @@
         <v>475513</v>
       </c>
     </row>
-    <row r="693" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:5" ht="15" thickBot="1">
       <c r="A693" s="11">
         <v>44723</v>
       </c>
@@ -13227,7 +13238,7 @@
         <v>510295</v>
       </c>
     </row>
-    <row r="694" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:5" ht="15" thickBot="1">
       <c r="A694" s="11">
         <v>44730</v>
       </c>
@@ -13245,7 +13256,7 @@
         <v>501207</v>
       </c>
     </row>
-    <row r="695" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:5" ht="15" thickBot="1">
       <c r="A695" s="11">
         <v>44737</v>
       </c>
@@ -13263,7 +13274,7 @@
         <v>493374</v>
       </c>
     </row>
-    <row r="696" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:5" ht="15" thickBot="1">
       <c r="A696" s="11">
         <v>44744</v>
       </c>
@@ -13281,7 +13292,7 @@
         <v>500285</v>
       </c>
     </row>
-    <row r="697" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:5" ht="15" thickBot="1">
       <c r="A697" s="11">
         <v>44751</v>
       </c>
@@ -13299,7 +13310,7 @@
         <v>437600</v>
       </c>
     </row>
-    <row r="698" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:5" ht="15" thickBot="1">
       <c r="A698" s="11">
         <v>44758</v>
       </c>
@@ -13317,7 +13328,7 @@
         <v>498899</v>
       </c>
     </row>
-    <row r="699" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:5" ht="15" thickBot="1">
       <c r="A699" s="11">
         <v>44765</v>
       </c>
@@ -13335,7 +13346,7 @@
         <v>498901</v>
       </c>
     </row>
-    <row r="700" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:5" ht="15" thickBot="1">
       <c r="A700" s="11">
         <v>44772</v>
       </c>
@@ -13353,7 +13364,7 @@
         <v>505409</v>
       </c>
     </row>
-    <row r="701" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:5" ht="15" thickBot="1">
       <c r="A701" s="13">
         <v>44779</v>
       </c>
@@ -13371,7 +13382,7 @@
         <v>496526</v>
       </c>
     </row>
-    <row r="702" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:5" ht="15" thickBot="1">
       <c r="A702" s="11">
         <v>44786</v>
       </c>
@@ -13389,7 +13400,7 @@
         <v>502775</v>
       </c>
     </row>
-    <row r="703" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:5" ht="15" thickBot="1">
       <c r="A703" s="11">
         <v>44793</v>
       </c>
@@ -13407,7 +13418,7 @@
         <v>501548</v>
       </c>
     </row>
-    <row r="704" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:5" ht="15" thickBot="1">
       <c r="A704" s="11">
         <v>44800</v>
       </c>
@@ -13425,7 +13436,7 @@
         <v>511574</v>
       </c>
     </row>
-    <row r="705" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:5" ht="15" thickBot="1">
       <c r="A705" s="11">
         <v>44807</v>
       </c>
@@ -13443,7 +13454,7 @@
         <v>513087</v>
       </c>
     </row>
-    <row r="706" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:5" ht="15" thickBot="1">
       <c r="A706" s="11">
         <v>44814</v>
       </c>
@@ -13476,7 +13487,7 @@
         <v>464261</v>
       </c>
     </row>
-    <row r="707" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:5" ht="15" thickBot="1">
       <c r="A707" s="11">
         <v>44821</v>
       </c>
@@ -13494,7 +13505,7 @@
         <v>490654</v>
       </c>
     </row>
-    <row r="708" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:5" ht="15" thickBot="1">
       <c r="A708" s="11">
         <v>44828</v>
       </c>
@@ -13512,7 +13523,7 @@
         <v>489111</v>
       </c>
     </row>
-    <row r="709" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:5" ht="15" thickBot="1">
       <c r="A709" s="11">
         <v>44835</v>
       </c>
@@ -13530,7 +13541,7 @@
         <v>495868</v>
       </c>
     </row>
-    <row r="710" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:5" ht="15" thickBot="1">
       <c r="A710" s="11">
         <v>44842</v>
       </c>
@@ -13548,7 +13559,7 @@
         <v>494413</v>
       </c>
     </row>
-    <row r="711" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:5" ht="15" thickBot="1">
       <c r="A711" s="11">
         <v>44849</v>
       </c>
@@ -13566,7 +13577,7 @@
         <v>500304</v>
       </c>
     </row>
-    <row r="712" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:5" ht="15" thickBot="1">
       <c r="A712" s="11">
         <v>44856</v>
       </c>
@@ -13584,7 +13595,7 @@
         <v>505322</v>
       </c>
     </row>
-    <row r="713" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:5" ht="15" thickBot="1">
       <c r="A713" s="11">
         <v>44863</v>
       </c>
@@ -13602,7 +13613,7 @@
         <v>514457</v>
       </c>
     </row>
-    <row r="714" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:5" ht="15" thickBot="1">
       <c r="A714" s="11">
         <v>44870</v>
       </c>
@@ -13620,7 +13631,7 @@
         <v>502106</v>
       </c>
     </row>
-    <row r="715" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:5" ht="15" thickBot="1">
       <c r="A715" s="11">
         <v>44877</v>
       </c>
@@ -13638,7 +13649,7 @@
         <v>490350</v>
       </c>
     </row>
-    <row r="716" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:5" ht="15" thickBot="1">
       <c r="A716" s="11">
         <v>44884</v>
       </c>
@@ -13656,7 +13667,7 @@
         <v>491794</v>
       </c>
     </row>
-    <row r="717" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:5" ht="15" thickBot="1">
       <c r="A717" s="11">
         <v>44891</v>
       </c>
@@ -13674,7 +13685,7 @@
         <v>413305</v>
       </c>
     </row>
-    <row r="718" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:5" ht="15" thickBot="1">
       <c r="A718" s="11">
         <v>44898</v>
       </c>
@@ -13692,7 +13703,7 @@
         <v>495472</v>
       </c>
     </row>
-    <row r="719" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:5" ht="15" thickBot="1">
       <c r="A719" s="11">
         <v>44905</v>
       </c>
@@ -13710,7 +13721,7 @@
         <v>500310</v>
       </c>
     </row>
-    <row r="720" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:5" ht="15" thickBot="1">
       <c r="A720" s="11">
         <v>44912</v>
       </c>
@@ -13728,7 +13739,7 @@
         <v>476232</v>
       </c>
     </row>
-    <row r="721" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:5" ht="15" thickBot="1">
       <c r="A721" s="11">
         <v>44919</v>
       </c>
@@ -13746,7 +13757,7 @@
         <v>400289</v>
       </c>
     </row>
-    <row r="722" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:5" ht="15" thickBot="1">
       <c r="A722" s="11">
         <v>44926</v>
       </c>
@@ -13764,7 +13775,7 @@
         <v>365553</v>
       </c>
     </row>
-    <row r="723" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:5" ht="15" thickBot="1">
       <c r="A723" s="11">
         <v>44933</v>
       </c>
@@ -13782,7 +13793,7 @@
         <v>416489</v>
       </c>
     </row>
-    <row r="724" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:5" ht="15" thickBot="1">
       <c r="A724" s="11">
         <v>44940</v>
       </c>
@@ -13800,7 +13811,7 @@
         <v>486000</v>
       </c>
     </row>
-    <row r="725" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:5" ht="15" thickBot="1">
       <c r="A725" s="11">
         <v>44947</v>
       </c>
@@ -13818,7 +13829,7 @@
         <v>467485</v>
       </c>
     </row>
-    <row r="726" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:5" ht="15" thickBot="1">
       <c r="A726" s="13">
         <v>44954</v>
       </c>
@@ -13836,7 +13847,7 @@
         <v>473650</v>
       </c>
     </row>
-    <row r="727" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:5" ht="15" thickBot="1">
       <c r="A727" s="11">
         <v>44961</v>
       </c>
@@ -13854,7 +13865,7 @@
         <v>449586</v>
       </c>
     </row>
-    <row r="728" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:5" ht="15" thickBot="1">
       <c r="A728" s="11">
         <v>44968</v>
       </c>
@@ -13872,7 +13883,7 @@
         <v>473972</v>
       </c>
     </row>
-    <row r="729" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:5" ht="15" thickBot="1">
       <c r="A729" s="11">
         <v>44975</v>
       </c>
@@ -13890,7 +13901,7 @@
         <v>466932</v>
       </c>
     </row>
-    <row r="730" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:5" ht="15" thickBot="1">
       <c r="A730" s="11">
         <v>44982</v>
       </c>
@@ -13908,7 +13919,7 @@
         <v>459233</v>
       </c>
     </row>
-    <row r="731" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:5" ht="15" thickBot="1">
       <c r="A731" s="11">
         <v>44989</v>
       </c>
@@ -13926,7 +13937,7 @@
         <v>474191</v>
       </c>
     </row>
-    <row r="732" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:5" ht="15" thickBot="1">
       <c r="A732" s="11">
         <v>44996</v>
       </c>
@@ -13944,7 +13955,7 @@
         <v>458629</v>
       </c>
     </row>
-    <row r="733" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:5" ht="15" thickBot="1">
       <c r="A733" s="11">
         <v>45003</v>
       </c>
@@ -13962,7 +13973,7 @@
         <v>453500</v>
       </c>
     </row>
-    <row r="734" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:5" ht="15" thickBot="1">
       <c r="A734" s="11">
         <v>45010</v>
       </c>
@@ -13980,7 +13991,7 @@
         <v>469958</v>
       </c>
     </row>
-    <row r="735" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:5" ht="15" thickBot="1">
       <c r="A735" s="11">
         <v>45017</v>
       </c>
@@ -13998,7 +14009,7 @@
         <v>467430</v>
       </c>
     </row>
-    <row r="736" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:5" ht="15" thickBot="1">
       <c r="A736" s="11">
         <v>45024</v>
       </c>
@@ -14016,7 +14027,7 @@
         <v>451336</v>
       </c>
     </row>
-    <row r="737" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:5" ht="15" thickBot="1">
       <c r="A737" s="11">
         <v>45031</v>
       </c>
@@ -14034,7 +14045,7 @@
         <v>468197</v>
       </c>
     </row>
-    <row r="738" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:5" ht="15" thickBot="1">
       <c r="A738" s="11">
         <v>45038</v>
       </c>
@@ -14052,7 +14063,7 @@
         <v>480457</v>
       </c>
     </row>
-    <row r="739" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:5" ht="15" thickBot="1">
       <c r="A739" s="11">
         <v>45045</v>
       </c>
@@ -14070,7 +14081,7 @@
         <v>481960</v>
       </c>
     </row>
-    <row r="740" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:5" ht="15" thickBot="1">
       <c r="A740" s="11">
         <v>45052</v>
       </c>
@@ -14088,7 +14099,7 @@
         <v>471859</v>
       </c>
     </row>
-    <row r="741" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:5" ht="15" thickBot="1">
       <c r="A741" s="11">
         <v>45059</v>
       </c>
@@ -14106,7 +14117,7 @@
         <v>466381</v>
       </c>
     </row>
-    <row r="742" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:5" ht="15" thickBot="1">
       <c r="A742" s="11">
         <v>45066</v>
       </c>
@@ -14124,7 +14135,7 @@
         <v>470694</v>
       </c>
     </row>
-    <row r="743" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:5" ht="15" thickBot="1">
       <c r="A743" s="11">
         <v>45073</v>
       </c>
@@ -14142,7 +14153,7 @@
         <v>480998</v>
       </c>
     </row>
-    <row r="744" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:5" ht="15" thickBot="1">
       <c r="A744" s="11">
         <v>45080</v>
       </c>
@@ -14160,7 +14171,7 @@
         <v>439601</v>
       </c>
     </row>
-    <row r="745" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:5" ht="15" thickBot="1">
       <c r="A745" s="11">
         <v>45087</v>
       </c>
@@ -14178,7 +14189,7 @@
         <v>471141</v>
       </c>
     </row>
-    <row r="746" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:5" ht="15" thickBot="1">
       <c r="A746" s="11">
         <v>45094</v>
       </c>
@@ -14196,7 +14207,7 @@
         <v>477126</v>
       </c>
     </row>
-    <row r="747" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:5" ht="15" thickBot="1">
       <c r="A747" s="11">
         <v>45101</v>
       </c>
@@ -14214,7 +14225,7 @@
         <v>469453</v>
       </c>
     </row>
-    <row r="748" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:5" ht="15" thickBot="1">
       <c r="A748" s="11">
         <v>45108</v>
       </c>
@@ -14232,7 +14243,7 @@
         <v>474443</v>
       </c>
     </row>
-    <row r="749" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:5" ht="15" thickBot="1">
       <c r="A749" s="11">
         <v>45115</v>
       </c>
@@ -14250,7 +14261,7 @@
         <v>407843</v>
       </c>
     </row>
-    <row r="750" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:5" ht="15" thickBot="1">
       <c r="A750" s="11">
         <v>45122</v>
       </c>
@@ -14268,7 +14279,7 @@
         <v>478153</v>
       </c>
     </row>
-    <row r="751" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:5" ht="15" thickBot="1">
       <c r="A751" s="13">
         <v>45129</v>
       </c>
@@ -14286,7 +14297,7 @@
         <v>473736</v>
       </c>
     </row>
-    <row r="752" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:5" ht="15" thickBot="1">
       <c r="A752" s="11">
         <v>45136</v>
       </c>
@@ -14304,7 +14315,7 @@
         <v>483481</v>
       </c>
     </row>
-    <row r="753" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:5" ht="15" thickBot="1">
       <c r="A753" s="11">
         <v>45143</v>
       </c>
@@ -14322,7 +14333,7 @@
         <v>471938</v>
       </c>
     </row>
-    <row r="754" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:5" ht="15" thickBot="1">
       <c r="A754" s="11">
         <v>45150</v>
       </c>
@@ -14340,7 +14351,7 @@
         <v>472498</v>
       </c>
     </row>
-    <row r="755" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:5" ht="15" thickBot="1">
       <c r="A755" s="11">
         <v>45157</v>
       </c>
@@ -14358,7 +14369,7 @@
         <v>478853</v>
       </c>
     </row>
-    <row r="756" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:5" ht="15" thickBot="1">
       <c r="A756" s="11">
         <v>45164</v>
       </c>
@@ -14376,7 +14387,7 @@
         <v>472525</v>
       </c>
     </row>
-    <row r="757" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:5" ht="15" thickBot="1">
       <c r="A757" s="11">
         <v>45171</v>
       </c>
@@ -14394,7 +14405,7 @@
         <v>476851</v>
       </c>
     </row>
-    <row r="758" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:5" ht="15" thickBot="1">
       <c r="A758" s="11">
         <v>45178</v>
       </c>
@@ -14412,7 +14423,7 @@
         <v>447345</v>
       </c>
     </row>
-    <row r="759" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:5" ht="15" thickBot="1">
       <c r="A759" s="11">
         <v>45185</v>
       </c>
@@ -14430,7 +14441,7 @@
         <v>489790</v>
       </c>
     </row>
-    <row r="760" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:5" ht="15" thickBot="1">
       <c r="A760" s="11">
         <v>45192</v>
       </c>
@@ -14448,7 +14459,7 @@
         <v>493323</v>
       </c>
     </row>
-    <row r="761" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:5" ht="15" thickBot="1">
       <c r="A761" s="11">
         <v>45199</v>
       </c>
@@ -14466,7 +14477,7 @@
         <v>500154</v>
       </c>
     </row>
-    <row r="762" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:5" ht="15" thickBot="1">
       <c r="A762" s="11">
         <v>45206</v>
       </c>
@@ -14484,7 +14495,7 @@
         <v>499217</v>
       </c>
     </row>
-    <row r="763" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:5" ht="15" thickBot="1">
       <c r="A763" s="11">
         <v>45213</v>
       </c>
@@ -14502,7 +14513,7 @@
         <v>492781</v>
       </c>
     </row>
-    <row r="764" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:5" ht="15" thickBot="1">
       <c r="A764" s="11">
         <v>45220</v>
       </c>
@@ -14520,7 +14531,7 @@
         <v>505985</v>
       </c>
     </row>
-    <row r="765" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:5" ht="15" thickBot="1">
       <c r="A765" s="11">
         <v>45227</v>
       </c>
@@ -14538,7 +14549,7 @@
         <v>499389</v>
       </c>
     </row>
-    <row r="766" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:5" ht="15" thickBot="1">
       <c r="A766" s="11">
         <v>45234</v>
       </c>
@@ -14556,7 +14567,7 @@
         <v>484757</v>
       </c>
     </row>
-    <row r="767" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:5" ht="15" thickBot="1">
       <c r="A767" s="11">
         <v>45241</v>
       </c>
@@ -14574,7 +14585,7 @@
         <v>497348</v>
       </c>
     </row>
-    <row r="768" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:5" ht="15" thickBot="1">
       <c r="A768" s="11">
         <v>45248</v>
       </c>
@@ -14592,7 +14603,7 @@
         <v>501416</v>
       </c>
     </row>
-    <row r="769" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:5" ht="15" thickBot="1">
       <c r="A769" s="11">
         <v>45255</v>
       </c>
@@ -14610,7 +14621,7 @@
         <v>415332</v>
       </c>
     </row>
-    <row r="770" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:5" ht="15" thickBot="1">
       <c r="A770" s="11">
         <v>45262</v>
       </c>
@@ -14643,7 +14654,7 @@
         <v>509626</v>
       </c>
     </row>
-    <row r="771" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:5" ht="15" thickBot="1">
       <c r="A771" s="11">
         <v>45269</v>
       </c>
@@ -14661,7 +14672,7 @@
         <v>499094</v>
       </c>
     </row>
-    <row r="772" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:5" ht="15" thickBot="1">
       <c r="A772" s="11">
         <v>45276</v>
       </c>
@@ -14679,7 +14690,7 @@
         <v>502583</v>
       </c>
     </row>
-    <row r="773" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:5" ht="15" thickBot="1">
       <c r="A773" s="11">
         <v>45283</v>
       </c>
@@ -14697,7 +14708,7 @@
         <v>486787</v>
       </c>
     </row>
-    <row r="774" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:5" ht="15" thickBot="1">
       <c r="A774" s="11">
         <v>45297</v>
       </c>
@@ -14715,7 +14726,7 @@
         <v>417257</v>
       </c>
     </row>
-    <row r="775" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:5" ht="15" thickBot="1">
       <c r="A775" s="11">
         <v>45304</v>
       </c>
@@ -14733,7 +14744,7 @@
         <v>457453</v>
       </c>
     </row>
-    <row r="776" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:5" ht="15" thickBot="1">
       <c r="A776" s="15">
         <v>45311</v>
       </c>
@@ -14751,7 +14762,7 @@
         <v>397553</v>
       </c>
     </row>
-    <row r="777" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:5" ht="15" thickBot="1">
       <c r="A777" s="17">
         <v>45318</v>
       </c>
@@ -14769,7 +14780,7 @@
         <v>467222</v>
       </c>
     </row>
-    <row r="778" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:5" ht="15" thickBot="1">
       <c r="A778" s="17">
         <v>45325</v>
       </c>
@@ -14787,7 +14798,7 @@
         <v>491697</v>
       </c>
     </row>
-    <row r="779" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:5" ht="15" thickBot="1">
       <c r="A779" s="17">
         <v>45332</v>
       </c>
@@ -14805,7 +14816,7 @@
         <v>484840</v>
       </c>
     </row>
-    <row r="780" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:5" ht="15" thickBot="1">
       <c r="A780" s="17">
         <v>45339</v>
       </c>
@@ -14823,7 +14834,7 @@
         <v>474226</v>
       </c>
     </row>
-    <row r="781" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:5" ht="15" thickBot="1">
       <c r="A781" s="17">
         <v>45346</v>
       </c>
@@ -14841,7 +14852,7 @@
         <v>483656</v>
       </c>
     </row>
-    <row r="782" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:5" ht="15" thickBot="1">
       <c r="A782" s="17">
         <v>45353</v>
       </c>
@@ -14859,7 +14870,7 @@
         <v>483138</v>
       </c>
     </row>
-    <row r="783" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:5" ht="15" thickBot="1">
       <c r="A783" s="17">
         <v>45360</v>
       </c>
@@ -14877,7 +14888,7 @@
         <v>472662</v>
       </c>
     </row>
-    <row r="784" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:5" ht="15" thickBot="1">
       <c r="A784" s="17">
         <v>45367</v>
       </c>
@@ -14895,7 +14906,7 @@
         <v>474596</v>
       </c>
     </row>
-    <row r="785" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:5" ht="15" thickBot="1">
       <c r="A785" s="17">
         <v>45374</v>
       </c>
@@ -14913,7 +14924,7 @@
         <v>470593</v>
       </c>
     </row>
-    <row r="786" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:5" ht="15" thickBot="1">
       <c r="A786" s="17">
         <v>45381</v>
       </c>
@@ -14931,7 +14942,7 @@
         <v>472651</v>
       </c>
     </row>
-    <row r="787" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:5" ht="15" thickBot="1">
       <c r="A787" s="17">
         <v>45388</v>
       </c>
@@ -14949,7 +14960,7 @@
         <v>450142</v>
       </c>
     </row>
-    <row r="788" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:5" ht="15" thickBot="1">
       <c r="A788" s="17">
         <v>45395</v>
       </c>
@@ -14967,7 +14978,7 @@
         <v>466463</v>
       </c>
     </row>
-    <row r="789" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:5" ht="15" thickBot="1">
       <c r="A789" s="17">
         <v>45402</v>
       </c>
@@ -14985,7 +14996,7 @@
         <v>474544</v>
       </c>
     </row>
-    <row r="790" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:5" ht="15" thickBot="1">
       <c r="A790" s="17">
         <v>45409</v>
       </c>
@@ -15003,7 +15014,7 @@
         <v>476302</v>
       </c>
     </row>
-    <row r="791" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:5" ht="15" thickBot="1">
       <c r="A791" s="17">
         <v>45416</v>
       </c>
@@ -15021,7 +15032,7 @@
         <v>463106</v>
       </c>
     </row>
-    <row r="792" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:5" ht="15" thickBot="1">
       <c r="A792" s="17">
         <v>45423</v>
       </c>
@@ -15039,7 +15050,7 @@
         <v>468748</v>
       </c>
     </row>
-    <row r="793" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:5" ht="15" thickBot="1">
       <c r="A793" s="17">
         <v>45430</v>
       </c>
@@ -15057,7 +15068,7 @@
         <v>474886</v>
       </c>
     </row>
-    <row r="794" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:5" ht="15" thickBot="1">
       <c r="A794" s="17">
         <v>45437</v>
       </c>
@@ -15075,7 +15086,7 @@
         <v>485232</v>
       </c>
     </row>
-    <row r="795" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:5" ht="15" thickBot="1">
       <c r="A795" s="17">
         <v>45444</v>
       </c>
@@ -15093,7 +15104,7 @@
         <v>450077</v>
       </c>
     </row>
-    <row r="796" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:5" ht="15" thickBot="1">
       <c r="A796" s="17">
         <v>45451</v>
       </c>
@@ -15111,7 +15122,7 @@
         <v>489916</v>
       </c>
     </row>
-    <row r="797" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:5" ht="15" thickBot="1">
       <c r="A797" s="17">
         <v>45458</v>
       </c>
@@ -15129,7 +15140,7 @@
         <v>493138</v>
       </c>
     </row>
-    <row r="798" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:5" ht="15" thickBot="1">
       <c r="A798" s="17">
         <v>45465</v>
       </c>
@@ -15147,7 +15158,7 @@
         <v>485557</v>
       </c>
     </row>
-    <row r="799" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:5" ht="15" thickBot="1">
       <c r="A799" s="17">
         <v>45472</v>
       </c>
@@ -15165,7 +15176,7 @@
         <v>491899</v>
       </c>
     </row>
-    <row r="800" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:5" ht="15" thickBot="1">
       <c r="A800" s="17">
         <v>45479</v>
       </c>
@@ -15183,7 +15194,7 @@
         <v>421817</v>
       </c>
     </row>
-    <row r="801" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:5" ht="15" thickBot="1">
       <c r="A801" s="15">
         <v>45486</v>
       </c>
@@ -15201,7 +15212,7 @@
         <v>483806</v>
       </c>
     </row>
-    <row r="802" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:5" ht="15" thickBot="1">
       <c r="A802" s="17">
         <v>45493</v>
       </c>
@@ -15219,7 +15230,7 @@
         <v>480083</v>
       </c>
     </row>
-    <row r="803" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:5" ht="15" thickBot="1">
       <c r="A803" s="17">
         <v>45500</v>
       </c>
@@ -15237,7 +15248,7 @@
         <v>508496</v>
       </c>
     </row>
-    <row r="804" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:5" ht="15" thickBot="1">
       <c r="A804" s="17">
         <v>45507</v>
       </c>
@@ -15255,7 +15266,7 @@
         <v>498807</v>
       </c>
     </row>
-    <row r="805" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:5" ht="15" thickBot="1">
       <c r="A805" s="17">
         <v>45514</v>
       </c>
@@ -15273,7 +15284,7 @@
         <v>496509</v>
       </c>
     </row>
-    <row r="806" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:5" ht="15" thickBot="1">
       <c r="A806" s="17">
         <v>45521</v>
       </c>
@@ -15291,7 +15302,7 @@
         <v>516819</v>
       </c>
     </row>
-    <row r="807" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:5" ht="15" thickBot="1">
       <c r="A807" s="17">
         <v>45528</v>
       </c>
@@ -15309,7 +15320,7 @@
         <v>516807</v>
       </c>
     </row>
-    <row r="808" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:5" ht="15" thickBot="1">
       <c r="A808" s="17">
         <v>45535</v>
       </c>
@@ -15327,7 +15338,7 @@
         <v>516632</v>
       </c>
     </row>
-    <row r="809" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:5" ht="15" thickBot="1">
       <c r="A809" s="17">
         <v>45542</v>
       </c>
@@ -15345,7 +15356,7 @@
         <v>479179</v>
       </c>
     </row>
-    <row r="810" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:5" ht="15" thickBot="1">
       <c r="A810" s="17">
         <v>45549</v>
       </c>
@@ -15363,7 +15374,7 @@
         <v>522557</v>
       </c>
     </row>
-    <row r="811" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:5" ht="15" thickBot="1">
       <c r="A811" s="17">
         <v>45556</v>
       </c>
@@ -15381,7 +15392,7 @@
         <v>522112</v>
       </c>
     </row>
-    <row r="812" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:5" ht="15" thickBot="1">
       <c r="A812" s="17">
         <v>45563</v>
       </c>
@@ -15399,7 +15410,7 @@
         <v>507537</v>
       </c>
     </row>
-    <row r="813" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:5" ht="15" thickBot="1">
       <c r="A813" s="17">
         <v>45570</v>
       </c>
@@ -15417,7 +15428,7 @@
         <v>486187</v>
       </c>
     </row>
-    <row r="814" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:5" ht="15" thickBot="1">
       <c r="A814" s="17">
         <v>45577</v>
       </c>
@@ -15435,7 +15446,7 @@
         <v>505033</v>
       </c>
     </row>
-    <row r="815" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:5" ht="15" thickBot="1">
       <c r="A815" s="17">
         <v>45584</v>
       </c>
@@ -15453,7 +15464,7 @@
         <v>510730</v>
       </c>
     </row>
-    <row r="816" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:5" ht="15" thickBot="1">
       <c r="A816" s="17">
         <v>45591</v>
       </c>
@@ -15471,7 +15482,7 @@
         <v>519415</v>
       </c>
     </row>
-    <row r="817" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:5" ht="15" thickBot="1">
       <c r="A817" s="17">
         <v>45598</v>
       </c>
@@ -15489,7 +15500,7 @@
         <v>516743</v>
       </c>
     </row>
-    <row r="818" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:5" ht="15" thickBot="1">
       <c r="A818" s="17">
         <v>45612</v>
       </c>
@@ -15507,7 +15518,7 @@
         <v>516886</v>
       </c>
     </row>
-    <row r="819" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:5" ht="15" thickBot="1">
       <c r="A819" s="17">
         <v>45619</v>
       </c>
@@ -15525,7 +15536,7 @@
         <v>520798</v>
       </c>
     </row>
-    <row r="820" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:5" ht="15" thickBot="1">
       <c r="A820" s="17">
         <v>45626</v>
       </c>
@@ -15543,7 +15554,7 @@
         <v>439362</v>
       </c>
     </row>
-    <row r="821" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:5" ht="15" thickBot="1">
       <c r="A821" s="17">
         <v>45633</v>
       </c>
@@ -15561,7 +15572,7 @@
         <v>520894</v>
       </c>
     </row>
-    <row r="822" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:5" ht="15" thickBot="1">
       <c r="A822" s="17">
         <v>45640</v>
       </c>
@@ -15579,7 +15590,7 @@
         <v>526166</v>
       </c>
     </row>
-    <row r="823" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:5" ht="15" thickBot="1">
       <c r="A823" s="17">
         <v>45647</v>
       </c>
@@ -15597,7 +15608,7 @@
         <v>523912</v>
       </c>
     </row>
-    <row r="824" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:5" ht="15" thickBot="1">
       <c r="A824" s="17">
         <v>45654</v>
       </c>
@@ -15615,7 +15626,7 @@
         <v>389700</v>
       </c>
     </row>
-    <row r="825" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:5" ht="15" thickBot="1">
       <c r="A825" s="17">
         <v>45661</v>
       </c>
@@ -15633,7 +15644,7 @@
         <v>421410</v>
       </c>
     </row>
-    <row r="826" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:5" ht="15" thickBot="1">
       <c r="A826" s="15">
         <v>45668</v>
       </c>
@@ -15651,7 +15662,7 @@
         <v>465390</v>
       </c>
     </row>
-    <row r="827" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:5" ht="15" thickBot="1">
       <c r="A827" s="17">
         <v>45675</v>
       </c>
@@ -15669,7 +15680,7 @@
         <v>500160</v>
       </c>
     </row>
-    <row r="828" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:5" ht="15" thickBot="1">
       <c r="A828" s="17">
         <v>45682</v>
       </c>
@@ -15687,7 +15698,7 @@
         <v>454797</v>
       </c>
     </row>
-    <row r="829" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:5" ht="15" thickBot="1">
       <c r="A829" s="17">
         <v>45689</v>
       </c>
@@ -15705,7 +15716,7 @@
         <v>513622</v>
       </c>
     </row>
-    <row r="830" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:5" ht="15" thickBot="1">
       <c r="A830" s="17">
         <v>45696</v>
       </c>
@@ -15723,7 +15734,7 @@
         <v>502449</v>
       </c>
     </row>
-    <row r="831" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:5" ht="15" thickBot="1">
       <c r="A831" s="17">
         <v>45703</v>
       </c>
@@ -15741,7 +15752,7 @@
         <v>480740</v>
       </c>
     </row>
-    <row r="832" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:5" ht="15" thickBot="1">
       <c r="A832" s="17">
         <v>45710</v>
       </c>
@@ -15759,7 +15770,7 @@
         <v>458513</v>
       </c>
     </row>
-    <row r="833" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:5" ht="15" thickBot="1">
       <c r="A833" s="17">
         <v>45717</v>
       </c>
@@ -15777,7 +15788,7 @@
         <v>508531</v>
       </c>
     </row>
-    <row r="834" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:5" ht="15" thickBot="1">
       <c r="A834" s="17">
         <v>45724</v>
       </c>
@@ -15810,7 +15821,7 @@
         <v>497412</v>
       </c>
     </row>
-    <row r="835" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:5" ht="15" thickBot="1">
       <c r="A835" s="17">
         <v>45731</v>
       </c>
@@ -15828,7 +15839,7 @@
         <v>503473</v>
       </c>
     </row>
-    <row r="836" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:5" ht="15" thickBot="1">
       <c r="A836" s="17">
         <v>45738</v>
       </c>
@@ -15846,7 +15857,7 @@
         <v>496214</v>
       </c>
     </row>
-    <row r="837" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:5" ht="15" thickBot="1">
       <c r="A837" s="17">
         <v>45745</v>
       </c>
@@ -15864,7 +15875,7 @@
         <v>513553</v>
       </c>
     </row>
-    <row r="838" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:5" ht="15" thickBot="1">
       <c r="A838" s="17">
         <v>45752</v>
       </c>
@@ -15882,7 +15893,7 @@
         <v>500584</v>
       </c>
     </row>
-    <row r="839" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:5" ht="15" thickBot="1">
       <c r="A839" s="17">
         <v>45759</v>
       </c>
@@ -15900,7 +15911,7 @@
         <v>491908</v>
       </c>
     </row>
-    <row r="840" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:5" ht="15" thickBot="1">
       <c r="A840" s="17">
         <v>45766</v>
       </c>
@@ -15918,7 +15929,7 @@
         <v>496053</v>
       </c>
     </row>
-    <row r="841" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:5" ht="15" thickBot="1">
       <c r="A841" s="17">
         <v>45773</v>
       </c>
@@ -15936,7 +15947,7 @@
         <v>502105</v>
       </c>
     </row>
-    <row r="842" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:5" ht="15" thickBot="1">
       <c r="A842" s="17">
         <v>45780</v>
       </c>
@@ -15954,7 +15965,7 @@
         <v>498693</v>
       </c>
     </row>
-    <row r="843" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:5" ht="15" thickBot="1">
       <c r="A843" s="17">
         <v>45787</v>
       </c>
@@ -15972,7 +15983,7 @@
         <v>495552</v>
       </c>
     </row>
-    <row r="844" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:5" ht="15" thickBot="1">
       <c r="A844" s="17">
         <v>45794</v>
       </c>
@@ -15990,7 +16001,7 @@
         <v>490775</v>
       </c>
     </row>
-    <row r="845" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:5" ht="15" thickBot="1">
       <c r="A845" s="17">
         <v>45801</v>
       </c>
@@ -16008,7 +16019,7 @@
         <v>488709</v>
       </c>
     </row>
-    <row r="846" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:5" ht="15" thickBot="1">
       <c r="A846" s="17">
         <v>45808</v>
       </c>
@@ -16026,7 +16037,7 @@
         <v>459884</v>
       </c>
     </row>
-    <row r="847" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:5" ht="15" thickBot="1">
       <c r="A847" s="17">
         <v>45815</v>
       </c>
@@ -16044,7 +16055,7 @@
         <v>483807</v>
       </c>
     </row>
-    <row r="848" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:5" ht="15" thickBot="1">
       <c r="A848" s="17">
         <v>45822</v>
       </c>
@@ -16062,7 +16073,7 @@
         <v>485810</v>
       </c>
     </row>
-    <row r="849" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:5" ht="15" thickBot="1">
       <c r="A849" s="17">
         <v>45829</v>
       </c>
@@ -16080,7 +16091,7 @@
         <v>487328</v>
       </c>
     </row>
-    <row r="850" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:5" ht="15" thickBot="1">
       <c r="A850" s="17">
         <v>45836</v>
       </c>
@@ -16098,7 +16109,7 @@
         <v>491424</v>
       </c>
     </row>
-    <row r="851" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:5" ht="15" thickBot="1">
       <c r="A851" s="15">
         <v>45843</v>
       </c>
@@ -16116,7 +16127,7 @@
         <v>443049</v>
       </c>
     </row>
-    <row r="852" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:5" ht="15" thickBot="1">
       <c r="A852" s="17">
         <v>45850</v>
       </c>
@@ -16134,7 +16145,7 @@
         <v>496188</v>
       </c>
     </row>
-    <row r="853" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:5" ht="15" thickBot="1">
       <c r="A853" s="17">
         <v>45857</v>
       </c>
@@ -16152,7 +16163,7 @@
         <v>506882</v>
       </c>
     </row>
-    <row r="854" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:5" ht="15" thickBot="1">
       <c r="A854" s="17">
         <v>45864</v>
       </c>
@@ -16170,7 +16181,7 @@
         <v>514279</v>
       </c>
     </row>
-    <row r="855" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:5" ht="15" thickBot="1">
       <c r="A855" s="17">
         <v>45871</v>
       </c>
@@ -16188,7 +16199,7 @@
         <v>513529</v>
       </c>
     </row>
-    <row r="856" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:5" ht="15" thickBot="1">
       <c r="A856" s="17">
         <v>45878</v>
       </c>
@@ -16206,7 +16217,7 @@
         <v>511194</v>
       </c>
     </row>
-    <row r="857" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:5" ht="15" thickBot="1">
       <c r="A857" s="17">
         <v>45885</v>
       </c>
@@ -16224,7 +16235,7 @@
         <v>512970</v>
       </c>
     </row>
-    <row r="858" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:5" ht="15" thickBot="1">
       <c r="A858" s="17">
         <v>45892</v>
       </c>
@@ -16242,7 +16253,7 @@
         <v>512333</v>
       </c>
     </row>
-    <row r="859" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:5" ht="15" thickBot="1">
       <c r="A859" s="17">
         <v>45899</v>
       </c>
@@ -16260,7 +16271,7 @@
         <v>521502</v>
       </c>
     </row>
-    <row r="860" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:5" ht="15" thickBot="1">
       <c r="A860" s="17">
         <v>45906</v>
       </c>
@@ -16278,7 +16289,7 @@
         <v>467880</v>
       </c>
     </row>
-    <row r="861" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:5" ht="15" thickBot="1">
       <c r="A861" s="17">
         <v>45913</v>
       </c>
@@ -16296,7 +16307,7 @@
         <v>514167</v>
       </c>
     </row>
-    <row r="862" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:5" ht="15" thickBot="1">
       <c r="A862" s="17">
         <v>45920</v>
       </c>
@@ -16314,7 +16325,7 @@
         <v>510677</v>
       </c>
     </row>
-    <row r="863" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:5" ht="15" thickBot="1">
       <c r="A863" s="15">
         <v>45927</v>
       </c>
@@ -16332,7 +16343,7 @@
         <v>512642</v>
       </c>
     </row>
-    <row r="864" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:5" ht="15" thickBot="1">
       <c r="A864" s="17">
         <v>45934</v>
       </c>
@@ -16350,7 +16361,7 @@
         <v>503538</v>
       </c>
     </row>
-    <row r="865" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:5" ht="15" thickBot="1">
       <c r="A865" s="17">
         <v>45941</v>
       </c>
@@ -16368,7 +16379,7 @@
         <v>498462</v>
       </c>
     </row>
-    <row r="866" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:5" ht="15" thickBot="1">
       <c r="A866" s="17">
         <v>45948</v>
       </c>
@@ -16386,7 +16397,7 @@
         <v>497854</v>
       </c>
     </row>
-    <row r="867" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:5" ht="15" thickBot="1">
       <c r="A867" s="17">
         <v>45955</v>
       </c>
@@ -16404,7 +16415,7 @@
         <v>499688</v>
       </c>
     </row>
-    <row r="868" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:5" ht="15" thickBot="1">
       <c r="A868" s="17">
         <v>45962</v>
       </c>
@@ -16422,7 +16433,7 @@
         <v>496928</v>
       </c>
     </row>
-    <row r="869" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:5" ht="15" thickBot="1">
       <c r="A869" s="17">
         <v>45969</v>
       </c>
@@ -16440,7 +16451,7 @@
         <v>493493</v>
       </c>
     </row>
-    <row r="870" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:5" ht="15" thickBot="1">
       <c r="A870" s="17">
         <v>45976</v>
       </c>
@@ -16458,7 +16469,7 @@
         <v>493880</v>
       </c>
     </row>
-    <row r="871" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:5" ht="15" thickBot="1">
       <c r="A871" s="17">
         <v>45983</v>
       </c>
@@ -16476,7 +16487,7 @@
         <v>516110</v>
       </c>
     </row>
-    <row r="872" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:5" ht="15" thickBot="1">
       <c r="A872" s="17">
         <v>45990</v>
       </c>
@@ -16494,7 +16505,7 @@
         <v>431435</v>
       </c>
     </row>
-    <row r="873" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:5" ht="15" thickBot="1">
       <c r="A873" s="17">
         <v>45997</v>
       </c>
@@ -16512,7 +16523,7 @@
         <v>508999</v>
       </c>
     </row>
-    <row r="874" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:5" ht="15" thickBot="1">
       <c r="A874" s="17">
         <v>46004</v>
       </c>
@@ -16530,7 +16541,7 @@
         <v>518904</v>
       </c>
     </row>
-    <row r="875" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:5" ht="15" thickBot="1">
       <c r="A875" s="15">
         <v>46018</v>
       </c>
@@ -16548,7 +16559,7 @@
         <v>392295</v>
       </c>
     </row>
-    <row r="876" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:5" ht="15" thickBot="1">
       <c r="A876" s="8">
         <v>46025</v>
       </c>
@@ -16566,7 +16577,7 @@
         <v>404293</v>
       </c>
     </row>
-    <row r="877" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:5" ht="15" thickBot="1">
       <c r="A877" s="15">
         <v>46032</v>
       </c>
@@ -16584,7 +16595,7 @@
         <v>510457</v>
       </c>
     </row>
-    <row r="878" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:5" ht="15" thickBot="1">
       <c r="A878" s="8">
         <v>46039</v>
       </c>
@@ -16617,7 +16628,7 @@
         <v>505385</v>
       </c>
     </row>
-    <row r="879" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:5" ht="15" thickBot="1">
       <c r="A879" s="15">
         <v>46046</v>
       </c>
@@ -16650,7 +16661,7 @@
         <v>481708</v>
       </c>
     </row>
-    <row r="880" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:5" ht="15" thickBot="1">
       <c r="A880" s="15">
         <v>46053</v>
       </c>
@@ -16683,7 +16694,7 @@
         <v>434361</v>
       </c>
     </row>
-    <row r="881" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:5" ht="15" thickBot="1">
       <c r="A881" s="15">
         <v>46060</v>
       </c>
@@ -16701,8 +16712,38 @@
         <v>486854</v>
       </c>
     </row>
+    <row r="882" spans="1:5" ht="14">
+      <c r="A882" s="8">
+        <v>46067</v>
+      </c>
+      <c r="B882" s="8">
+        <v>46071</v>
+      </c>
+      <c r="C882" s="21">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="D882" s="7" t="str">
+        <f>IF(
+ AND(
+  A882 &gt;= IF(
+         YEAR(A882)&gt;=2007,
+         DATE(YEAR(A882),3,14)-WEEKDAY(DATE(YEAR(A882),3,14),1)+1 + TIME(2,0,0),
+         DATE(YEAR(A882),4,7)-WEEKDAY(DATE(YEAR(A882),4,7),1)+1 + TIME(2,0,0)
+       ),
+  A882 &lt;  IF(
+         YEAR(A882)&gt;=2007,
+         DATE(YEAR(A882),11,7)-WEEKDAY(DATE(YEAR(A882),11,7),1)+1 + TIME(2,0,0),
+         DATE(YEAR(A882),10,31)-WEEKDAY(DATE(YEAR(A882),10,31),1) + TIME(2,0,0)
+       )
+ ),
+ "UTC-4",
+ "UTC-5"
+)</f>
+        <v>UTC-5</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:E876">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E876">
     <sortCondition ref="B2:B876"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -16719,12 +16760,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -16732,7 +16773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -16740,7 +16781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>

--- a/data/freight/US Rail Traffic.xlsx
+++ b/data/freight/US Rail Traffic.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junghunlee/Desktop/Pycharm/AlternativeData/data/freight/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\freight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1DE197-5F6C-BF4A-9411-057AD41C88E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47828865-89CD-4CFC-A9BD-52F0A08D611B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="12120" xr2:uid="{55EF15CE-83DB-4E42-B75D-C3DAE3AA4C48}"/>
   </bookViews>
@@ -20,17 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -88,12 +77,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -191,7 +180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -208,68 +197,68 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="쉼표" xfId="1" builtinId="3"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -285,9 +274,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -325,7 +314,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -431,7 +420,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -573,7 +562,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -584,23 +573,23 @@
   <dimension ref="A1:E882"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="G869" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="G872" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G878" sqref="G878"/>
+      <selection pane="bottomRight" activeCell="C883" sqref="C883"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1640625" style="6"/>
+    <col min="5" max="5" width="12.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -617,7 +606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>39823</v>
       </c>
@@ -650,7 +639,7 @@
         <v>474565</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>39830</v>
       </c>
@@ -668,7 +657,7 @@
         <v>465386</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>39837</v>
       </c>
@@ -686,7 +675,7 @@
         <v>462128</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>39844</v>
       </c>
@@ -704,7 +693,7 @@
         <v>449966</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>39851</v>
       </c>
@@ -722,7 +711,7 @@
         <v>455757</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>39858</v>
       </c>
@@ -740,7 +729,7 @@
         <v>471961</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>39865</v>
       </c>
@@ -758,7 +747,7 @@
         <v>446575</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>39872</v>
       </c>
@@ -776,7 +765,7 @@
         <v>458242</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>39879</v>
       </c>
@@ -794,7 +783,7 @@
         <v>455041</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>39886</v>
       </c>
@@ -812,7 +801,7 @@
         <v>455686</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>39893</v>
       </c>
@@ -830,7 +819,7 @@
         <v>459547</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>39900</v>
       </c>
@@ -848,7 +837,7 @@
         <v>439844</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>39907</v>
       </c>
@@ -866,7 +855,7 @@
         <v>447103</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>39914</v>
       </c>
@@ -884,7 +873,7 @@
         <v>426107</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>39921</v>
       </c>
@@ -902,7 +891,7 @@
         <v>438602</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>39928</v>
       </c>
@@ -920,7 +909,7 @@
         <v>444794</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>39935</v>
       </c>
@@ -938,7 +927,7 @@
         <v>442378</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>39942</v>
       </c>
@@ -956,7 +945,7 @@
         <v>435052</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>39949</v>
       </c>
@@ -974,7 +963,7 @@
         <v>438329</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>39956</v>
       </c>
@@ -992,7 +981,7 @@
         <v>451355</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>39963</v>
       </c>
@@ -1010,7 +999,7 @@
         <v>401248</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>39970</v>
       </c>
@@ -1028,7 +1017,7 @@
         <v>448743</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>39977</v>
       </c>
@@ -1046,7 +1035,7 @@
         <v>451065</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>39984</v>
       </c>
@@ -1064,7 +1053,7 @@
         <v>449103</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>39991</v>
       </c>
@@ -1082,7 +1071,7 @@
         <v>444212</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>39998</v>
       </c>
@@ -1100,7 +1089,7 @@
         <v>410661</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>40005</v>
       </c>
@@ -1118,7 +1107,7 @@
         <v>439041</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>40012</v>
       </c>
@@ -1136,7 +1125,7 @@
         <v>456926</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>40019</v>
       </c>
@@ -1154,7 +1143,7 @@
         <v>467395</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="14">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>40026</v>
       </c>
@@ -1172,7 +1161,7 @@
         <v>468150</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>40033</v>
       </c>
@@ -1190,7 +1179,7 @@
         <v>469814</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>40040</v>
       </c>
@@ -1208,7 +1197,7 @@
         <v>469727</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>40047</v>
       </c>
@@ -1226,7 +1215,7 @@
         <v>472644</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>40054</v>
       </c>
@@ -1244,7 +1233,7 @@
         <v>488273</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="14">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>40061</v>
       </c>
@@ -1262,7 +1251,7 @@
         <v>486009</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="14">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>40068</v>
       </c>
@@ -1280,7 +1269,7 @@
         <v>439238</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="14">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>40075</v>
       </c>
@@ -1298,7 +1287,7 @@
         <v>487236</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>40082</v>
       </c>
@@ -1316,7 +1305,7 @@
         <v>477434</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="14">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>40089</v>
       </c>
@@ -1334,7 +1323,7 @@
         <v>484157</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>40096</v>
       </c>
@@ -1352,7 +1341,7 @@
         <v>481944</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>40103</v>
       </c>
@@ -1370,7 +1359,7 @@
         <v>481827</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>40110</v>
       </c>
@@ -1388,7 +1377,7 @@
         <v>483850</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="14">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>40117</v>
       </c>
@@ -1406,7 +1395,7 @@
         <v>479450</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>40124</v>
       </c>
@@ -1424,7 +1413,7 @@
         <v>481493</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>40131</v>
       </c>
@@ -1442,7 +1431,7 @@
         <v>489073</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="14">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>40138</v>
       </c>
@@ -1460,7 +1449,7 @@
         <v>500284</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="14">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>40145</v>
       </c>
@@ -1478,7 +1467,7 @@
         <v>412036</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="14">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>40152</v>
       </c>
@@ -1496,7 +1485,7 @@
         <v>491440</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="14">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>40159</v>
       </c>
@@ -1514,7 +1503,7 @@
         <v>464948</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="14">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>40166</v>
       </c>
@@ -1532,7 +1521,7 @@
         <v>481426</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="14">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>40173</v>
       </c>
@@ -1550,7 +1539,7 @@
         <v>339702</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="14">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>40180</v>
       </c>
@@ -1568,7 +1557,7 @@
         <v>376455</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="14">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>40187</v>
       </c>
@@ -1586,7 +1575,7 @@
         <v>433584</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="14">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>40194</v>
       </c>
@@ -1604,7 +1593,7 @@
         <v>465758</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="14">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>40201</v>
       </c>
@@ -1622,7 +1611,7 @@
         <v>478227</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="14">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>40208</v>
       </c>
@@ -1640,7 +1629,7 @@
         <v>482390</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="14">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>40215</v>
       </c>
@@ -1658,7 +1647,7 @@
         <v>469221</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="14">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>40222</v>
       </c>
@@ -1676,7 +1665,7 @@
         <v>450177</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="14">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>40229</v>
       </c>
@@ -1694,7 +1683,7 @@
         <v>474203</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="14">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>40236</v>
       </c>
@@ -1712,7 +1701,7 @@
         <v>496078</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="14">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>40243</v>
       </c>
@@ -1730,7 +1719,7 @@
         <v>497456</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="14">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>40250</v>
       </c>
@@ -1748,7 +1737,7 @@
         <v>491463</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="14">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>40257</v>
       </c>
@@ -1766,7 +1755,7 @@
         <v>488939</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="14">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>40264</v>
       </c>
@@ -1784,7 +1773,7 @@
         <v>504028</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="14">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>40271</v>
       </c>
@@ -1817,7 +1806,7 @@
         <v>486474</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="14">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>40278</v>
       </c>
@@ -1835,7 +1824,7 @@
         <v>492044</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="14">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>40285</v>
       </c>
@@ -1853,7 +1842,7 @@
         <v>506502</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="14">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>40292</v>
       </c>
@@ -1871,7 +1860,7 @@
         <v>510565</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="14">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>40299</v>
       </c>
@@ -1889,7 +1878,7 @@
         <v>508731</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="14">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>40306</v>
       </c>
@@ -1907,7 +1896,7 @@
         <v>497714</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="14">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>40313</v>
       </c>
@@ -1925,7 +1914,7 @@
         <v>508469</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="14">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>40320</v>
       </c>
@@ -1943,7 +1932,7 @@
         <v>503232</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="14">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>40327</v>
       </c>
@@ -1961,7 +1950,7 @@
         <v>511776</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="14">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>40334</v>
       </c>
@@ -1979,7 +1968,7 @@
         <v>462009</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="14">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>40341</v>
       </c>
@@ -1997,7 +1986,7 @@
         <v>512048</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="14">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>40348</v>
       </c>
@@ -2015,7 +2004,7 @@
         <v>512898</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="14">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>40355</v>
       </c>
@@ -2033,7 +2022,7 @@
         <v>511945</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="14">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>40362</v>
       </c>
@@ -2051,7 +2040,7 @@
         <v>518063</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="14">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>40369</v>
       </c>
@@ -2069,7 +2058,7 @@
         <v>445917</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="14">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>40376</v>
       </c>
@@ -2087,7 +2076,7 @@
         <v>509860</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="14">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>40383</v>
       </c>
@@ -2105,7 +2094,7 @@
         <v>517297</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="14">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>40390</v>
       </c>
@@ -2123,7 +2112,7 @@
         <v>533187</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="14">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>40397</v>
       </c>
@@ -2141,7 +2130,7 @@
         <v>515715</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="14">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>40404</v>
       </c>
@@ -2159,7 +2148,7 @@
         <v>529715</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="14">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>40411</v>
       </c>
@@ -2177,7 +2166,7 @@
         <v>533038</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="14">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>40418</v>
       </c>
@@ -2195,7 +2184,7 @@
         <v>539552</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="14">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>40425</v>
       </c>
@@ -2213,7 +2202,7 @@
         <v>542006</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="14">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>40432</v>
       </c>
@@ -2231,7 +2220,7 @@
         <v>484380</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="14">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>40439</v>
       </c>
@@ -2249,7 +2238,7 @@
         <v>544692</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="14">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>40446</v>
       </c>
@@ -2267,7 +2256,7 @@
         <v>542075</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="14">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <v>40453</v>
       </c>
@@ -2285,7 +2274,7 @@
         <v>539646</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="14">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>40460</v>
       </c>
@@ -2303,7 +2292,7 @@
         <v>533301</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="14">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <v>40467</v>
       </c>
@@ -2321,7 +2310,7 @@
         <v>540844</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="14">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>40474</v>
       </c>
@@ -2339,7 +2328,7 @@
         <v>538461</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="14">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>40481</v>
       </c>
@@ -2357,7 +2346,7 @@
         <v>525601</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="14">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>40488</v>
       </c>
@@ -2375,7 +2364,7 @@
         <v>519134</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="14">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>40495</v>
       </c>
@@ -2393,7 +2382,7 @@
         <v>530157</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="14">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>40502</v>
       </c>
@@ -2411,7 +2400,7 @@
         <v>533989</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="14">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>40509</v>
       </c>
@@ -2429,7 +2418,7 @@
         <v>437911</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15" thickBot="1">
+    <row r="101" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
         <v>40516</v>
       </c>
@@ -2447,7 +2436,7 @@
         <v>539405</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15" thickBot="1">
+    <row r="102" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="11">
         <v>40523</v>
       </c>
@@ -2465,7 +2454,7 @@
         <v>520326</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15" thickBot="1">
+    <row r="103" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="11">
         <v>40530</v>
       </c>
@@ -2483,7 +2472,7 @@
         <v>491896</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15" thickBot="1">
+    <row r="104" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="11">
         <v>40537</v>
       </c>
@@ -2501,7 +2490,7 @@
         <v>433347</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15" thickBot="1">
+    <row r="105" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="11">
         <v>40544</v>
       </c>
@@ -2519,7 +2508,7 @@
         <v>406967</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15" thickBot="1">
+    <row r="106" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="11">
         <v>40551</v>
       </c>
@@ -2537,7 +2526,7 @@
         <v>498773</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15" thickBot="1">
+    <row r="107" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="11">
         <v>40558</v>
       </c>
@@ -2555,7 +2544,7 @@
         <v>496473</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15" thickBot="1">
+    <row r="108" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="11">
         <v>40565</v>
       </c>
@@ -2573,7 +2562,7 @@
         <v>496043</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15" thickBot="1">
+    <row r="109" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="11">
         <v>40572</v>
       </c>
@@ -2591,7 +2580,7 @@
         <v>513889</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15" thickBot="1">
+    <row r="110" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="11">
         <v>40579</v>
       </c>
@@ -2609,7 +2598,7 @@
         <v>465931</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15" thickBot="1">
+    <row r="111" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="11">
         <v>40586</v>
       </c>
@@ -2627,7 +2616,7 @@
         <v>502078</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15" thickBot="1">
+    <row r="112" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="11">
         <v>40593</v>
       </c>
@@ -2645,7 +2634,7 @@
         <v>530973</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15" thickBot="1">
+    <row r="113" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="11">
         <v>40600</v>
       </c>
@@ -2663,7 +2652,7 @@
         <v>516841</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15" thickBot="1">
+    <row r="114" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="11">
         <v>40607</v>
       </c>
@@ -2681,7 +2670,7 @@
         <v>515296</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15" thickBot="1">
+    <row r="115" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="11">
         <v>40614</v>
       </c>
@@ -2699,7 +2688,7 @@
         <v>508992</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15" thickBot="1">
+    <row r="116" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="11">
         <v>40621</v>
       </c>
@@ -2717,7 +2706,7 @@
         <v>516560</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15" thickBot="1">
+    <row r="117" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="11">
         <v>40628</v>
       </c>
@@ -2735,7 +2724,7 @@
         <v>522937</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15" thickBot="1">
+    <row r="118" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="11">
         <v>40635</v>
       </c>
@@ -2753,7 +2742,7 @@
         <v>540213</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15" thickBot="1">
+    <row r="119" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="11">
         <v>40642</v>
       </c>
@@ -2771,7 +2760,7 @@
         <v>522511</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15" thickBot="1">
+    <row r="120" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="11">
         <v>40649</v>
       </c>
@@ -2789,7 +2778,7 @@
         <v>525886</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15" thickBot="1">
+    <row r="121" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="11">
         <v>40656</v>
       </c>
@@ -2807,7 +2796,7 @@
         <v>518374</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15" thickBot="1">
+    <row r="122" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="11">
         <v>40663</v>
       </c>
@@ -2825,7 +2814,7 @@
         <v>525024</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15" thickBot="1">
+    <row r="123" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="11">
         <v>40670</v>
       </c>
@@ -2843,7 +2832,7 @@
         <v>514038</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15" thickBot="1">
+    <row r="124" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="11">
         <v>40677</v>
       </c>
@@ -2861,7 +2850,7 @@
         <v>526146</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15" thickBot="1">
+    <row r="125" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="11">
         <v>40684</v>
       </c>
@@ -2879,7 +2868,7 @@
         <v>529383</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15" thickBot="1">
+    <row r="126" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="13">
         <v>40691</v>
       </c>
@@ -2897,7 +2886,7 @@
         <v>522717</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15" thickBot="1">
+    <row r="127" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="11">
         <v>40698</v>
       </c>
@@ -2915,7 +2904,7 @@
         <v>479149</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15" thickBot="1">
+    <row r="128" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="11">
         <v>40705</v>
       </c>
@@ -2933,7 +2922,7 @@
         <v>527603</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15" thickBot="1">
+    <row r="129" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="11">
         <v>40712</v>
       </c>
@@ -2951,7 +2940,7 @@
         <v>531992</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15" thickBot="1">
+    <row r="130" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="11">
         <v>40719</v>
       </c>
@@ -2984,7 +2973,7 @@
         <v>519337</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15" thickBot="1">
+    <row r="131" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="11">
         <v>40726</v>
       </c>
@@ -3002,7 +2991,7 @@
         <v>522931</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15" thickBot="1">
+    <row r="132" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="11">
         <v>40733</v>
       </c>
@@ -3020,7 +3009,7 @@
         <v>438193</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15" thickBot="1">
+    <row r="133" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="11">
         <v>40740</v>
       </c>
@@ -3038,7 +3027,7 @@
         <v>511711</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15" thickBot="1">
+    <row r="134" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="11">
         <v>40747</v>
       </c>
@@ -3056,7 +3045,7 @@
         <v>524090</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15" thickBot="1">
+    <row r="135" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="11">
         <v>40754</v>
       </c>
@@ -3074,7 +3063,7 @@
         <v>533337</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15" thickBot="1">
+    <row r="136" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="11">
         <v>40761</v>
       </c>
@@ -3092,7 +3081,7 @@
         <v>522889</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15" thickBot="1">
+    <row r="137" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="11">
         <v>40768</v>
       </c>
@@ -3110,7 +3099,7 @@
         <v>527864</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15" thickBot="1">
+    <row r="138" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="11">
         <v>40775</v>
       </c>
@@ -3128,7 +3117,7 @@
         <v>539201</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15" thickBot="1">
+    <row r="139" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="11">
         <v>40782</v>
       </c>
@@ -3146,7 +3135,7 @@
         <v>535994</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15" thickBot="1">
+    <row r="140" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="11">
         <v>40789</v>
       </c>
@@ -3164,7 +3153,7 @@
         <v>537201</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15" thickBot="1">
+    <row r="141" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="11">
         <v>40796</v>
       </c>
@@ -3182,7 +3171,7 @@
         <v>486472</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15" thickBot="1">
+    <row r="142" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="11">
         <v>40803</v>
       </c>
@@ -3200,7 +3189,7 @@
         <v>542164</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15" thickBot="1">
+    <row r="143" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="11">
         <v>40810</v>
       </c>
@@ -3218,7 +3207,7 @@
         <v>553535</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15" thickBot="1">
+    <row r="144" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="11">
         <v>40817</v>
       </c>
@@ -3236,7 +3225,7 @@
         <v>563034</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15" thickBot="1">
+    <row r="145" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="11">
         <v>40824</v>
       </c>
@@ -3254,7 +3243,7 @@
         <v>544499</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="15" thickBot="1">
+    <row r="146" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="11">
         <v>40831</v>
       </c>
@@ -3272,7 +3261,7 @@
         <v>547752</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15" thickBot="1">
+    <row r="147" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="11">
         <v>40838</v>
       </c>
@@ -3290,7 +3279,7 @@
         <v>547268</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15" thickBot="1">
+    <row r="148" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="11">
         <v>40845</v>
       </c>
@@ -3308,7 +3297,7 @@
         <v>551674</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="15" thickBot="1">
+    <row r="149" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="11">
         <v>40852</v>
       </c>
@@ -3326,7 +3315,7 @@
         <v>537645</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15" thickBot="1">
+    <row r="150" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="11">
         <v>40859</v>
       </c>
@@ -3344,7 +3333,7 @@
         <v>544563</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15" thickBot="1">
+    <row r="151" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="13">
         <v>40866</v>
       </c>
@@ -3362,7 +3351,7 @@
         <v>545153</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15" thickBot="1">
+    <row r="152" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="11">
         <v>40873</v>
       </c>
@@ -3380,7 +3369,7 @@
         <v>456170</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15" thickBot="1">
+    <row r="153" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="11">
         <v>40880</v>
       </c>
@@ -3398,7 +3387,7 @@
         <v>555353</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15" thickBot="1">
+    <row r="154" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="11">
         <v>40887</v>
       </c>
@@ -3416,7 +3405,7 @@
         <v>538299</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15" thickBot="1">
+    <row r="155" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="11">
         <v>40894</v>
       </c>
@@ -3434,7 +3423,7 @@
         <v>537699</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15" thickBot="1">
+    <row r="156" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="11">
         <v>40901</v>
       </c>
@@ -3452,7 +3441,7 @@
         <v>505089</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15" thickBot="1">
+    <row r="157" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="11">
         <v>40908</v>
       </c>
@@ -3470,7 +3459,7 @@
         <v>426883</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15" thickBot="1">
+    <row r="158" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="11">
         <v>40915</v>
       </c>
@@ -3488,7 +3477,7 @@
         <v>468674</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15" thickBot="1">
+    <row r="159" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="11">
         <v>40922</v>
       </c>
@@ -3506,7 +3495,7 @@
         <v>527651</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15" thickBot="1">
+    <row r="160" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="11">
         <v>40929</v>
       </c>
@@ -3524,7 +3513,7 @@
         <v>507440</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15" thickBot="1">
+    <row r="161" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="11">
         <v>40936</v>
       </c>
@@ -3542,7 +3531,7 @@
         <v>518682</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15" thickBot="1">
+    <row r="162" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="11">
         <v>40943</v>
       </c>
@@ -3560,7 +3549,7 @@
         <v>517136</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="15" thickBot="1">
+    <row r="163" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="11">
         <v>40950</v>
       </c>
@@ -3578,7 +3567,7 @@
         <v>506708</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="15" thickBot="1">
+    <row r="164" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="11">
         <v>40957</v>
       </c>
@@ -3596,7 +3585,7 @@
         <v>502992</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="15" thickBot="1">
+    <row r="165" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="11">
         <v>40964</v>
       </c>
@@ -3614,7 +3603,7 @@
         <v>496046</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15" thickBot="1">
+    <row r="166" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="11">
         <v>40971</v>
       </c>
@@ -3632,7 +3621,7 @@
         <v>510568</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15" thickBot="1">
+    <row r="167" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="11">
         <v>40978</v>
       </c>
@@ -3650,7 +3639,7 @@
         <v>504767</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="15" thickBot="1">
+    <row r="168" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="11">
         <v>40985</v>
       </c>
@@ -3668,7 +3657,7 @@
         <v>505558</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="15" thickBot="1">
+    <row r="169" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="11">
         <v>40992</v>
       </c>
@@ -3686,7 +3675,7 @@
         <v>510794</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="15" thickBot="1">
+    <row r="170" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="11">
         <v>40999</v>
       </c>
@@ -3704,7 +3693,7 @@
         <v>529734</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15" thickBot="1">
+    <row r="171" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="11">
         <v>41006</v>
       </c>
@@ -3722,7 +3711,7 @@
         <v>502127</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="15" thickBot="1">
+    <row r="172" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="11">
         <v>41013</v>
       </c>
@@ -3740,7 +3729,7 @@
         <v>510946</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="15" thickBot="1">
+    <row r="173" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="11">
         <v>41020</v>
       </c>
@@ -3758,7 +3747,7 @@
         <v>521538</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="15" thickBot="1">
+    <row r="174" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="11">
         <v>41027</v>
       </c>
@@ -3776,7 +3765,7 @@
         <v>525445</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="15" thickBot="1">
+    <row r="175" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="11">
         <v>41034</v>
       </c>
@@ -3794,7 +3783,7 @@
         <v>515167</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="15" thickBot="1">
+    <row r="176" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="13">
         <v>41041</v>
       </c>
@@ -3812,7 +3801,7 @@
         <v>518043</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15" thickBot="1">
+    <row r="177" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="11">
         <v>41048</v>
       </c>
@@ -3830,7 +3819,7 @@
         <v>522229</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="15" thickBot="1">
+    <row r="178" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="11">
         <v>41055</v>
       </c>
@@ -3848,7 +3837,7 @@
         <v>536107</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="15" thickBot="1">
+    <row r="179" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="11">
         <v>41062</v>
       </c>
@@ -3866,7 +3855,7 @@
         <v>479118</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="15" thickBot="1">
+    <row r="180" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="11">
         <v>41069</v>
       </c>
@@ -3884,7 +3873,7 @@
         <v>531835</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="15" thickBot="1">
+    <row r="181" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="11">
         <v>41076</v>
       </c>
@@ -3902,7 +3891,7 @@
         <v>537011</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="15" thickBot="1">
+    <row r="182" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="11">
         <v>41083</v>
       </c>
@@ -3920,7 +3909,7 @@
         <v>534858</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="15" thickBot="1">
+    <row r="183" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="11">
         <v>41090</v>
       </c>
@@ -3938,7 +3927,7 @@
         <v>532131</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="15" thickBot="1">
+    <row r="184" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="11">
         <v>41097</v>
       </c>
@@ -3956,7 +3945,7 @@
         <v>446518</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15" thickBot="1">
+    <row r="185" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="11">
         <v>41104</v>
       </c>
@@ -3974,7 +3963,7 @@
         <v>532071</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="15" thickBot="1">
+    <row r="186" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="11">
         <v>41111</v>
       </c>
@@ -3992,7 +3981,7 @@
         <v>532729</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="15" thickBot="1">
+    <row r="187" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="11">
         <v>41118</v>
       </c>
@@ -4010,7 +3999,7 @@
         <v>538486</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="15" thickBot="1">
+    <row r="188" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="11">
         <v>41125</v>
       </c>
@@ -4028,7 +4017,7 @@
         <v>531490</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15" thickBot="1">
+    <row r="189" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="11">
         <v>41132</v>
       </c>
@@ -4046,7 +4035,7 @@
         <v>532202</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="15" thickBot="1">
+    <row r="190" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="11">
         <v>41139</v>
       </c>
@@ -4064,7 +4053,7 @@
         <v>541140</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15" thickBot="1">
+    <row r="191" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="11">
         <v>41146</v>
       </c>
@@ -4082,7 +4071,7 @@
         <v>545406</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="15" thickBot="1">
+    <row r="192" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="11">
         <v>41153</v>
       </c>
@@ -4100,7 +4089,7 @@
         <v>541845</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="15" thickBot="1">
+    <row r="193" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="11">
         <v>41160</v>
       </c>
@@ -4118,7 +4107,7 @@
         <v>486818</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="15" thickBot="1">
+    <row r="194" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="11">
         <v>41167</v>
       </c>
@@ -4151,7 +4140,7 @@
         <v>543250</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="15" thickBot="1">
+    <row r="195" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="11">
         <v>41174</v>
       </c>
@@ -4169,7 +4158,7 @@
         <v>542897</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="15" thickBot="1">
+    <row r="196" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="11">
         <v>41181</v>
       </c>
@@ -4187,7 +4176,7 @@
         <v>552468</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="15" thickBot="1">
+    <row r="197" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="11">
         <v>41188</v>
       </c>
@@ -4205,7 +4194,7 @@
         <v>534553</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="15" thickBot="1">
+    <row r="198" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="11">
         <v>41195</v>
       </c>
@@ -4223,7 +4212,7 @@
         <v>535915</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="15" thickBot="1">
+    <row r="199" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="11">
         <v>41202</v>
       </c>
@@ -4241,7 +4230,7 @@
         <v>542674</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="15" thickBot="1">
+    <row r="200" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="11">
         <v>41209</v>
       </c>
@@ -4259,7 +4248,7 @@
         <v>540290</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="15" thickBot="1">
+    <row r="201" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="13">
         <v>41216</v>
       </c>
@@ -4277,7 +4266,7 @@
         <v>502697</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="15" thickBot="1">
+    <row r="202" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="11">
         <v>41223</v>
       </c>
@@ -4295,7 +4284,7 @@
         <v>532945</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="15" thickBot="1">
+    <row r="203" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="11">
         <v>41230</v>
       </c>
@@ -4313,7 +4302,7 @@
         <v>537832</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="15" thickBot="1">
+    <row r="204" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="11">
         <v>41237</v>
       </c>
@@ -4331,7 +4320,7 @@
         <v>447469</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="15" thickBot="1">
+    <row r="205" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="11">
         <v>41244</v>
       </c>
@@ -4349,7 +4338,7 @@
         <v>547119</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="15" thickBot="1">
+    <row r="206" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="11">
         <v>41251</v>
       </c>
@@ -4367,7 +4356,7 @@
         <v>532304</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="15" thickBot="1">
+    <row r="207" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="11">
         <v>41258</v>
       </c>
@@ -4385,7 +4374,7 @@
         <v>544625</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="15" thickBot="1">
+    <row r="208" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="11">
         <v>41265</v>
       </c>
@@ -4403,7 +4392,7 @@
         <v>530342</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="15" thickBot="1">
+    <row r="209" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="11">
         <v>41272</v>
       </c>
@@ -4421,7 +4410,7 @@
         <v>367721</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="15" thickBot="1">
+    <row r="210" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="11">
         <v>41279</v>
       </c>
@@ -4439,7 +4428,7 @@
         <v>419999</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="15" thickBot="1">
+    <row r="211" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="11">
         <v>41286</v>
       </c>
@@ -4457,7 +4446,7 @@
         <v>532789</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15" thickBot="1">
+    <row r="212" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="11">
         <v>41293</v>
       </c>
@@ -4475,7 +4464,7 @@
         <v>526887</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="15" thickBot="1">
+    <row r="213" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="11">
         <v>41300</v>
       </c>
@@ -4493,7 +4482,7 @@
         <v>504628</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="15" thickBot="1">
+    <row r="214" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="11">
         <v>41307</v>
       </c>
@@ -4511,7 +4500,7 @@
         <v>523931</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="15" thickBot="1">
+    <row r="215" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="11">
         <v>41314</v>
       </c>
@@ -4529,7 +4518,7 @@
         <v>518048</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="15" thickBot="1">
+    <row r="216" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="11">
         <v>41321</v>
       </c>
@@ -4547,7 +4536,7 @@
         <v>529674</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="15" thickBot="1">
+    <row r="217" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="11">
         <v>41328</v>
       </c>
@@ -4565,7 +4554,7 @@
         <v>516142</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="15" thickBot="1">
+    <row r="218" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="11">
         <v>41335</v>
       </c>
@@ -4583,7 +4572,7 @@
         <v>533057</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="15" thickBot="1">
+    <row r="219" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="11">
         <v>41342</v>
       </c>
@@ -4601,7 +4590,7 @@
         <v>511872</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="15" thickBot="1">
+    <row r="220" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="11">
         <v>41349</v>
       </c>
@@ -4619,7 +4608,7 @@
         <v>509430</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="15" thickBot="1">
+    <row r="221" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="11">
         <v>41356</v>
       </c>
@@ -4637,7 +4626,7 @@
         <v>514379</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="15" thickBot="1">
+    <row r="222" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="11">
         <v>41363</v>
       </c>
@@ -4655,7 +4644,7 @@
         <v>514954</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="15" thickBot="1">
+    <row r="223" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="11">
         <v>41370</v>
       </c>
@@ -4673,7 +4662,7 @@
         <v>512396</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="15" thickBot="1">
+    <row r="224" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="11">
         <v>41377</v>
       </c>
@@ -4691,7 +4680,7 @@
         <v>517662</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="15" thickBot="1">
+    <row r="225" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="11">
         <v>41384</v>
       </c>
@@ -4709,7 +4698,7 @@
         <v>517360</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="15" thickBot="1">
+    <row r="226" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="13">
         <v>41391</v>
       </c>
@@ -4727,7 +4716,7 @@
         <v>523207</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="15" thickBot="1">
+    <row r="227" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="11">
         <v>41398</v>
       </c>
@@ -4745,7 +4734,7 @@
         <v>529594</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="15" thickBot="1">
+    <row r="228" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="11">
         <v>41405</v>
       </c>
@@ -4763,7 +4752,7 @@
         <v>529252</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="15" thickBot="1">
+    <row r="229" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="11">
         <v>41412</v>
       </c>
@@ -4781,7 +4770,7 @@
         <v>535835</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="15" thickBot="1">
+    <row r="230" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="11">
         <v>41419</v>
       </c>
@@ -4799,7 +4788,7 @@
         <v>529937</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="15" thickBot="1">
+    <row r="231" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="11">
         <v>41426</v>
       </c>
@@ -4817,7 +4806,7 @@
         <v>491082</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="15" thickBot="1">
+    <row r="232" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="11">
         <v>41433</v>
       </c>
@@ -4835,7 +4824,7 @@
         <v>530890</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="15" thickBot="1">
+    <row r="233" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="11">
         <v>41440</v>
       </c>
@@ -4853,7 +4842,7 @@
         <v>543145</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="15" thickBot="1">
+    <row r="234" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="11">
         <v>41447</v>
       </c>
@@ -4871,7 +4860,7 @@
         <v>541031</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="15" thickBot="1">
+    <row r="235" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="11">
         <v>41454</v>
       </c>
@@ -4889,7 +4878,7 @@
         <v>531040</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="15" thickBot="1">
+    <row r="236" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="11">
         <v>41461</v>
       </c>
@@ -4907,7 +4896,7 @@
         <v>453493</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="15" thickBot="1">
+    <row r="237" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="11">
         <v>41468</v>
       </c>
@@ -4925,7 +4914,7 @@
         <v>525333</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="15" thickBot="1">
+    <row r="238" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="11">
         <v>41475</v>
       </c>
@@ -4943,7 +4932,7 @@
         <v>531357</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="15" thickBot="1">
+    <row r="239" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="11">
         <v>41482</v>
       </c>
@@ -4961,7 +4950,7 @@
         <v>551911</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="15" thickBot="1">
+    <row r="240" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="11">
         <v>41489</v>
       </c>
@@ -4979,7 +4968,7 @@
         <v>542396</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="15" thickBot="1">
+    <row r="241" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="11">
         <v>41496</v>
       </c>
@@ -4997,7 +4986,7 @@
         <v>546772</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="15" thickBot="1">
+    <row r="242" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="11">
         <v>41503</v>
       </c>
@@ -5015,7 +5004,7 @@
         <v>552359</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="15" thickBot="1">
+    <row r="243" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="11">
         <v>41510</v>
       </c>
@@ -5033,7 +5022,7 @@
         <v>548969</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="15" thickBot="1">
+    <row r="244" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="11">
         <v>41517</v>
       </c>
@@ -5051,7 +5040,7 @@
         <v>561698</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="15" thickBot="1">
+    <row r="245" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="11">
         <v>41524</v>
       </c>
@@ -5069,7 +5058,7 @@
         <v>507493</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="15" thickBot="1">
+    <row r="246" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="11">
         <v>41531</v>
       </c>
@@ -5087,7 +5076,7 @@
         <v>562094</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="15" thickBot="1">
+    <row r="247" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="11">
         <v>41538</v>
       </c>
@@ -5105,7 +5094,7 @@
         <v>551057</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="15" thickBot="1">
+    <row r="248" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="11">
         <v>41545</v>
       </c>
@@ -5123,7 +5112,7 @@
         <v>566662</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="15" thickBot="1">
+    <row r="249" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="11">
         <v>41552</v>
       </c>
@@ -5141,7 +5130,7 @@
         <v>545708</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="15" thickBot="1">
+    <row r="250" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="11">
         <v>41559</v>
       </c>
@@ -5159,7 +5148,7 @@
         <v>546211</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="15" thickBot="1">
+    <row r="251" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="13">
         <v>41566</v>
       </c>
@@ -5177,7 +5166,7 @@
         <v>553943</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="15" thickBot="1">
+    <row r="252" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="11">
         <v>41573</v>
       </c>
@@ -5195,7 +5184,7 @@
         <v>558686</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="15" thickBot="1">
+    <row r="253" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="11">
         <v>41580</v>
       </c>
@@ -5213,7 +5202,7 @@
         <v>556662</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="15" thickBot="1">
+    <row r="254" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="11">
         <v>41587</v>
       </c>
@@ -5231,7 +5220,7 @@
         <v>562840</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="15" thickBot="1">
+    <row r="255" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="11">
         <v>41594</v>
       </c>
@@ -5249,7 +5238,7 @@
         <v>562206</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="15" thickBot="1">
+    <row r="256" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="11">
         <v>41601</v>
       </c>
@@ -5267,7 +5256,7 @@
         <v>564340</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="15" thickBot="1">
+    <row r="257" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="11">
         <v>41608</v>
       </c>
@@ -5285,7 +5274,7 @@
         <v>463516</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="15" thickBot="1">
+    <row r="258" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="11">
         <v>41615</v>
       </c>
@@ -5318,7 +5307,7 @@
         <v>541978</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="15" thickBot="1">
+    <row r="259" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="11">
         <v>41622</v>
       </c>
@@ -5336,7 +5325,7 @@
         <v>546825</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="15" thickBot="1">
+    <row r="260" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="11">
         <v>41629</v>
       </c>
@@ -5354,7 +5343,7 @@
         <v>544984</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="15" thickBot="1">
+    <row r="261" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="11">
         <v>41636</v>
       </c>
@@ -5372,7 +5361,7 @@
         <v>403329</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="15" thickBot="1">
+    <row r="262" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="11">
         <v>41643</v>
       </c>
@@ -5390,7 +5379,7 @@
         <v>433724</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="15" thickBot="1">
+    <row r="263" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="11">
         <v>41650</v>
       </c>
@@ -5408,7 +5397,7 @@
         <v>492836</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="15" thickBot="1">
+    <row r="264" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="11">
         <v>41657</v>
       </c>
@@ -5426,7 +5415,7 @@
         <v>557253</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="15" thickBot="1">
+    <row r="265" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="11">
         <v>41664</v>
       </c>
@@ -5444,7 +5433,7 @@
         <v>526644</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="15" thickBot="1">
+    <row r="266" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="11">
         <v>41671</v>
       </c>
@@ -5462,7 +5451,7 @@
         <v>518012</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="15" thickBot="1">
+    <row r="267" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="11">
         <v>41678</v>
       </c>
@@ -5480,7 +5469,7 @@
         <v>507368</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="15" thickBot="1">
+    <row r="268" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="11">
         <v>41685</v>
       </c>
@@ -5498,7 +5487,7 @@
         <v>507257</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="15" thickBot="1">
+    <row r="269" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="11">
         <v>41692</v>
       </c>
@@ -5516,7 +5505,7 @@
         <v>535036</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="15" thickBot="1">
+    <row r="270" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="11">
         <v>41699</v>
       </c>
@@ -5534,7 +5523,7 @@
         <v>545004</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="15" thickBot="1">
+    <row r="271" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="11">
         <v>41706</v>
       </c>
@@ -5552,7 +5541,7 @@
         <v>518495</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="15" thickBot="1">
+    <row r="272" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="11">
         <v>41713</v>
       </c>
@@ -5570,7 +5559,7 @@
         <v>545366</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="15" thickBot="1">
+    <row r="273" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="11">
         <v>41720</v>
       </c>
@@ -5588,7 +5577,7 @@
         <v>552238</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="15" thickBot="1">
+    <row r="274" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="11">
         <v>41727</v>
       </c>
@@ -5606,7 +5595,7 @@
         <v>566505</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="15" thickBot="1">
+    <row r="275" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="11">
         <v>41734</v>
       </c>
@@ -5624,7 +5613,7 @@
         <v>557123</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="15" thickBot="1">
+    <row r="276" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="13">
         <v>41741</v>
       </c>
@@ -5642,7 +5631,7 @@
         <v>559676</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="15" thickBot="1">
+    <row r="277" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="11">
         <v>41748</v>
       </c>
@@ -5660,7 +5649,7 @@
         <v>549826</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="15" thickBot="1">
+    <row r="278" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="11">
         <v>41755</v>
       </c>
@@ -5678,7 +5667,7 @@
         <v>566336</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="15" thickBot="1">
+    <row r="279" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="11">
         <v>41762</v>
       </c>
@@ -5696,7 +5685,7 @@
         <v>564801</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="15" thickBot="1">
+    <row r="280" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="11">
         <v>41769</v>
       </c>
@@ -5714,7 +5703,7 @@
         <v>564096</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="15" thickBot="1">
+    <row r="281" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="11">
         <v>41783</v>
       </c>
@@ -5732,7 +5721,7 @@
         <v>570380</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="15" thickBot="1">
+    <row r="282" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="11">
         <v>41790</v>
       </c>
@@ -5750,7 +5739,7 @@
         <v>531725</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="15" thickBot="1">
+    <row r="283" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="11">
         <v>41797</v>
       </c>
@@ -5768,7 +5757,7 @@
         <v>562747</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="15" thickBot="1">
+    <row r="284" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="11">
         <v>41804</v>
       </c>
@@ -5786,7 +5775,7 @@
         <v>565375</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="15" thickBot="1">
+    <row r="285" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="11">
         <v>41811</v>
       </c>
@@ -5804,7 +5793,7 @@
         <v>563695</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="15" thickBot="1">
+    <row r="286" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="11">
         <v>41818</v>
       </c>
@@ -5822,7 +5811,7 @@
         <v>563223</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="15" thickBot="1">
+    <row r="287" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="11">
         <v>41825</v>
       </c>
@@ -5840,7 +5829,7 @@
         <v>497828</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="15" thickBot="1">
+    <row r="288" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="11">
         <v>41832</v>
       </c>
@@ -5858,7 +5847,7 @@
         <v>546863</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="15" thickBot="1">
+    <row r="289" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="11">
         <v>41839</v>
       </c>
@@ -5876,7 +5865,7 @@
         <v>566931</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="15" thickBot="1">
+    <row r="290" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="11">
         <v>41846</v>
       </c>
@@ -5894,7 +5883,7 @@
         <v>571797</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="15" thickBot="1">
+    <row r="291" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="11">
         <v>41853</v>
       </c>
@@ -5912,7 +5901,7 @@
         <v>574552</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="15" thickBot="1">
+    <row r="292" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="11">
         <v>41860</v>
       </c>
@@ -5930,7 +5919,7 @@
         <v>567908</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="15" thickBot="1">
+    <row r="293" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="11">
         <v>41867</v>
       </c>
@@ -5948,7 +5937,7 @@
         <v>574592</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="15" thickBot="1">
+    <row r="294" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="11">
         <v>41874</v>
       </c>
@@ -5966,7 +5955,7 @@
         <v>566266</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="15" thickBot="1">
+    <row r="295" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="11">
         <v>41881</v>
       </c>
@@ -5984,7 +5973,7 @@
         <v>579209</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="15" thickBot="1">
+    <row r="296" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="11">
         <v>41888</v>
       </c>
@@ -6002,7 +5991,7 @@
         <v>525144</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="15" thickBot="1">
+    <row r="297" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="11">
         <v>41895</v>
       </c>
@@ -6020,7 +6009,7 @@
         <v>579440</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="15" thickBot="1">
+    <row r="298" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="11">
         <v>41902</v>
       </c>
@@ -6038,7 +6027,7 @@
         <v>581955</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="15" thickBot="1">
+    <row r="299" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="11">
         <v>41909</v>
       </c>
@@ -6056,7 +6045,7 @@
         <v>576934</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="15" thickBot="1">
+    <row r="300" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="11">
         <v>41916</v>
       </c>
@@ -6074,7 +6063,7 @@
         <v>576356</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="15" thickBot="1">
+    <row r="301" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="13">
         <v>41923</v>
       </c>
@@ -6092,7 +6081,7 @@
         <v>571812</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="15" thickBot="1">
+    <row r="302" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="11">
         <v>41930</v>
       </c>
@@ -6110,7 +6099,7 @@
         <v>569684</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="15" thickBot="1">
+    <row r="303" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="11">
         <v>41937</v>
       </c>
@@ -6128,7 +6117,7 @@
         <v>586115</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="15" thickBot="1">
+    <row r="304" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="11">
         <v>41944</v>
       </c>
@@ -6146,7 +6135,7 @@
         <v>585208</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="15" thickBot="1">
+    <row r="305" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="11">
         <v>41951</v>
       </c>
@@ -6164,7 +6153,7 @@
         <v>568807</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="15" thickBot="1">
+    <row r="306" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="11">
         <v>41958</v>
       </c>
@@ -6182,7 +6171,7 @@
         <v>570350</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="15" thickBot="1">
+    <row r="307" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="11">
         <v>41965</v>
       </c>
@@ -6200,7 +6189,7 @@
         <v>565185</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="15" thickBot="1">
+    <row r="308" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="11">
         <v>41972</v>
       </c>
@@ -6218,7 +6207,7 @@
         <v>492532</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="15" thickBot="1">
+    <row r="309" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="11">
         <v>41979</v>
       </c>
@@ -6236,7 +6225,7 @@
         <v>580108</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="15" thickBot="1">
+    <row r="310" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="11">
         <v>41986</v>
       </c>
@@ -6254,7 +6243,7 @@
         <v>592608</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="15" thickBot="1">
+    <row r="311" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="11">
         <v>41993</v>
       </c>
@@ -6272,7 +6261,7 @@
         <v>580559</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="15" thickBot="1">
+    <row r="312" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="11">
         <v>42000</v>
       </c>
@@ -6290,7 +6279,7 @@
         <v>433338</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="15" thickBot="1">
+    <row r="313" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="11">
         <v>42007</v>
       </c>
@@ -6308,7 +6297,7 @@
         <v>446201</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="15" thickBot="1">
+    <row r="314" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="11">
         <v>42014</v>
       </c>
@@ -6326,7 +6315,7 @@
         <v>517520</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="15" thickBot="1">
+    <row r="315" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="11">
         <v>42021</v>
       </c>
@@ -6344,7 +6333,7 @@
         <v>551856</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="15" thickBot="1">
+    <row r="316" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="11">
         <v>42028</v>
       </c>
@@ -6362,7 +6351,7 @@
         <v>548055</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="15" thickBot="1">
+    <row r="317" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="11">
         <v>42035</v>
       </c>
@@ -6380,7 +6369,7 @@
         <v>548478</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="15" thickBot="1">
+    <row r="318" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="11">
         <v>42042</v>
       </c>
@@ -6398,7 +6387,7 @@
         <v>511563</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="15" thickBot="1">
+    <row r="319" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="11">
         <v>42049</v>
       </c>
@@ -6416,7 +6405,7 @@
         <v>525224</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="15" thickBot="1">
+    <row r="320" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="11">
         <v>42056</v>
       </c>
@@ -6434,7 +6423,7 @@
         <v>473161</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="15" thickBot="1">
+    <row r="321" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="11">
         <v>42063</v>
       </c>
@@ -6452,7 +6441,7 @@
         <v>508658</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="15" thickBot="1">
+    <row r="322" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="11">
         <v>42070</v>
       </c>
@@ -6485,7 +6474,7 @@
         <v>522382</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="15" thickBot="1">
+    <row r="323" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="11">
         <v>42077</v>
       </c>
@@ -6503,7 +6492,7 @@
         <v>553031</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="15" thickBot="1">
+    <row r="324" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="11">
         <v>42084</v>
       </c>
@@ -6521,7 +6510,7 @@
         <v>562472</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="15" thickBot="1">
+    <row r="325" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="11">
         <v>42091</v>
       </c>
@@ -6539,7 +6528,7 @@
         <v>563280</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="15" thickBot="1">
+    <row r="326" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="13">
         <v>42098</v>
       </c>
@@ -6557,7 +6546,7 @@
         <v>549021</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="15" thickBot="1">
+    <row r="327" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="11">
         <v>42105</v>
       </c>
@@ -6575,7 +6564,7 @@
         <v>557812</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="15" thickBot="1">
+    <row r="328" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="11">
         <v>42112</v>
       </c>
@@ -6593,7 +6582,7 @@
         <v>556432</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="15" thickBot="1">
+    <row r="329" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="11">
         <v>42119</v>
       </c>
@@ -6611,7 +6600,7 @@
         <v>557306</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="15" thickBot="1">
+    <row r="330" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="11">
         <v>42126</v>
       </c>
@@ -6629,7 +6618,7 @@
         <v>565787</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="15" thickBot="1">
+    <row r="331" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="11">
         <v>42133</v>
       </c>
@@ -6647,7 +6636,7 @@
         <v>551034</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="15" thickBot="1">
+    <row r="332" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="11">
         <v>42140</v>
       </c>
@@ -6665,7 +6654,7 @@
         <v>549199</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="15" thickBot="1">
+    <row r="333" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="11">
         <v>42147</v>
       </c>
@@ -6683,7 +6672,7 @@
         <v>554477</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="15" thickBot="1">
+    <row r="334" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="11">
         <v>42154</v>
       </c>
@@ -6701,7 +6690,7 @@
         <v>505543</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="15" thickBot="1">
+    <row r="335" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="11">
         <v>42161</v>
       </c>
@@ -6719,7 +6708,7 @@
         <v>550037</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="15" thickBot="1">
+    <row r="336" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="11">
         <v>42168</v>
       </c>
@@ -6737,7 +6726,7 @@
         <v>554461</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="15" thickBot="1">
+    <row r="337" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="11">
         <v>42175</v>
       </c>
@@ -6755,7 +6744,7 @@
         <v>550839</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="15" thickBot="1">
+    <row r="338" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="11">
         <v>42182</v>
       </c>
@@ -6773,7 +6762,7 @@
         <v>547969</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="15" thickBot="1">
+    <row r="339" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="11">
         <v>42189</v>
       </c>
@@ -6791,7 +6780,7 @@
         <v>506284</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="15" thickBot="1">
+    <row r="340" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="11">
         <v>42196</v>
       </c>
@@ -6809,7 +6798,7 @@
         <v>534097</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="15" thickBot="1">
+    <row r="341" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="11">
         <v>42203</v>
       </c>
@@ -6827,7 +6816,7 @@
         <v>551181</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="15" thickBot="1">
+    <row r="342" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="11">
         <v>42210</v>
       </c>
@@ -6845,7 +6834,7 @@
         <v>557612</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="15" thickBot="1">
+    <row r="343" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="11">
         <v>42217</v>
       </c>
@@ -6863,7 +6852,7 @@
         <v>559125</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="15" thickBot="1">
+    <row r="344" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="11">
         <v>42224</v>
       </c>
@@ -6881,7 +6870,7 @@
         <v>562884</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="15" thickBot="1">
+    <row r="345" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="11">
         <v>42238</v>
       </c>
@@ -6899,7 +6888,7 @@
         <v>567943</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="15" thickBot="1">
+    <row r="346" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="11">
         <v>42245</v>
       </c>
@@ -6917,7 +6906,7 @@
         <v>575323</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="15" thickBot="1">
+    <row r="347" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="11">
         <v>42252</v>
       </c>
@@ -6935,7 +6924,7 @@
         <v>567206</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="15" thickBot="1">
+    <row r="348" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="11">
         <v>42259</v>
       </c>
@@ -6953,7 +6942,7 @@
         <v>510797</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="15" thickBot="1">
+    <row r="349" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="11">
         <v>42266</v>
       </c>
@@ -6971,7 +6960,7 @@
         <v>566734</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="15" thickBot="1">
+    <row r="350" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="11">
         <v>42273</v>
       </c>
@@ -6989,7 +6978,7 @@
         <v>566700</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="15" thickBot="1">
+    <row r="351" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="13">
         <v>42280</v>
       </c>
@@ -7007,7 +6996,7 @@
         <v>572293</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="15" thickBot="1">
+    <row r="352" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="11">
         <v>42287</v>
       </c>
@@ -7025,7 +7014,7 @@
         <v>556233</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="15" thickBot="1">
+    <row r="353" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="11">
         <v>42294</v>
       </c>
@@ -7043,7 +7032,7 @@
         <v>554696</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="15" thickBot="1">
+    <row r="354" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="11">
         <v>42301</v>
       </c>
@@ -7061,7 +7050,7 @@
         <v>553144</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="15" thickBot="1">
+    <row r="355" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="11">
         <v>42308</v>
       </c>
@@ -7079,7 +7068,7 @@
         <v>549707</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="15" thickBot="1">
+    <row r="356" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="11">
         <v>42315</v>
       </c>
@@ -7097,7 +7086,7 @@
         <v>539165</v>
       </c>
     </row>
-    <row r="357" spans="1:5" ht="15" thickBot="1">
+    <row r="357" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="11">
         <v>42322</v>
       </c>
@@ -7115,7 +7104,7 @@
         <v>543681</v>
       </c>
     </row>
-    <row r="358" spans="1:5" ht="15" thickBot="1">
+    <row r="358" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="11">
         <v>42336</v>
       </c>
@@ -7133,7 +7122,7 @@
         <v>450389</v>
       </c>
     </row>
-    <row r="359" spans="1:5" ht="15" thickBot="1">
+    <row r="359" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="11">
         <v>42343</v>
       </c>
@@ -7151,7 +7140,7 @@
         <v>542050</v>
       </c>
     </row>
-    <row r="360" spans="1:5" ht="15" thickBot="1">
+    <row r="360" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="11">
         <v>42350</v>
       </c>
@@ -7169,7 +7158,7 @@
         <v>544975</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="15" thickBot="1">
+    <row r="361" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="11">
         <v>42357</v>
       </c>
@@ -7187,7 +7176,7 @@
         <v>525555</v>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="15" thickBot="1">
+    <row r="362" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="11">
         <v>42364</v>
       </c>
@@ -7205,7 +7194,7 @@
         <v>391107</v>
       </c>
     </row>
-    <row r="363" spans="1:5" ht="15" thickBot="1">
+    <row r="363" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="11">
         <v>42371</v>
       </c>
@@ -7223,7 +7212,7 @@
         <v>395663</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="15" thickBot="1">
+    <row r="364" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="11">
         <v>42378</v>
       </c>
@@ -7241,7 +7230,7 @@
         <v>498160</v>
       </c>
     </row>
-    <row r="365" spans="1:5" ht="15" thickBot="1">
+    <row r="365" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="11">
         <v>42385</v>
       </c>
@@ -7259,7 +7248,7 @@
         <v>506433</v>
       </c>
     </row>
-    <row r="366" spans="1:5" ht="15" thickBot="1">
+    <row r="366" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="11">
         <v>42392</v>
       </c>
@@ -7277,7 +7266,7 @@
         <v>490324</v>
       </c>
     </row>
-    <row r="367" spans="1:5" ht="15" thickBot="1">
+    <row r="367" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="11">
         <v>42399</v>
       </c>
@@ -7295,7 +7284,7 @@
         <v>512746</v>
       </c>
     </row>
-    <row r="368" spans="1:5" ht="15" thickBot="1">
+    <row r="368" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="11">
         <v>42406</v>
       </c>
@@ -7313,7 +7302,7 @@
         <v>504510</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="15" thickBot="1">
+    <row r="369" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="11">
         <v>42413</v>
       </c>
@@ -7331,7 +7320,7 @@
         <v>505148</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="15" thickBot="1">
+    <row r="370" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="11">
         <v>42420</v>
       </c>
@@ -7349,7 +7338,7 @@
         <v>497210</v>
       </c>
     </row>
-    <row r="371" spans="1:5" ht="15" thickBot="1">
+    <row r="371" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="11">
         <v>42427</v>
       </c>
@@ -7367,7 +7356,7 @@
         <v>521300</v>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="15" thickBot="1">
+    <row r="372" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="11">
         <v>42434</v>
       </c>
@@ -7385,7 +7374,7 @@
         <v>512202</v>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="15" thickBot="1">
+    <row r="373" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="11">
         <v>42441</v>
       </c>
@@ -7403,7 +7392,7 @@
         <v>489177</v>
       </c>
     </row>
-    <row r="374" spans="1:5" ht="15" thickBot="1">
+    <row r="374" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="11">
         <v>42448</v>
       </c>
@@ -7421,7 +7410,7 @@
         <v>483463</v>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="15" thickBot="1">
+    <row r="375" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="11">
         <v>42455</v>
       </c>
@@ -7439,7 +7428,7 @@
         <v>470271</v>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="15" thickBot="1">
+    <row r="376" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A376" s="13">
         <v>42462</v>
       </c>
@@ -7457,7 +7446,7 @@
         <v>491979</v>
       </c>
     </row>
-    <row r="377" spans="1:5" ht="15" thickBot="1">
+    <row r="377" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="11">
         <v>42469</v>
       </c>
@@ -7475,7 +7464,7 @@
         <v>479059</v>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="15" thickBot="1">
+    <row r="378" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="11">
         <v>42476</v>
       </c>
@@ -7493,7 +7482,7 @@
         <v>499779</v>
       </c>
     </row>
-    <row r="379" spans="1:5" ht="15" thickBot="1">
+    <row r="379" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="11">
         <v>42483</v>
       </c>
@@ -7511,7 +7500,7 @@
         <v>491946</v>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="15" thickBot="1">
+    <row r="380" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="11">
         <v>42490</v>
       </c>
@@ -7529,7 +7518,7 @@
         <v>502045</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="15" thickBot="1">
+    <row r="381" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="11">
         <v>42497</v>
       </c>
@@ -7547,7 +7536,7 @@
         <v>492923</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="15" thickBot="1">
+    <row r="382" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="11">
         <v>42504</v>
       </c>
@@ -7565,7 +7554,7 @@
         <v>498379</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="15" thickBot="1">
+    <row r="383" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="11">
         <v>42511</v>
       </c>
@@ -7583,7 +7572,7 @@
         <v>506983</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="15" thickBot="1">
+    <row r="384" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="11">
         <v>42518</v>
       </c>
@@ -7601,7 +7590,7 @@
         <v>513917</v>
       </c>
     </row>
-    <row r="385" spans="1:5" ht="15" thickBot="1">
+    <row r="385" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="11">
         <v>42525</v>
       </c>
@@ -7619,7 +7608,7 @@
         <v>455346</v>
       </c>
     </row>
-    <row r="386" spans="1:5" ht="15" thickBot="1">
+    <row r="386" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="11">
         <v>42532</v>
       </c>
@@ -7652,7 +7641,7 @@
         <v>513471</v>
       </c>
     </row>
-    <row r="387" spans="1:5" ht="15" thickBot="1">
+    <row r="387" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="11">
         <v>42539</v>
       </c>
@@ -7670,7 +7659,7 @@
         <v>516096</v>
       </c>
     </row>
-    <row r="388" spans="1:5" ht="15" thickBot="1">
+    <row r="388" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="11">
         <v>42546</v>
       </c>
@@ -7688,7 +7677,7 @@
         <v>526161</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="15" thickBot="1">
+    <row r="389" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="11">
         <v>42553</v>
       </c>
@@ -7706,7 +7695,7 @@
         <v>529191</v>
       </c>
     </row>
-    <row r="390" spans="1:5" ht="15" thickBot="1">
+    <row r="390" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="11">
         <v>42560</v>
       </c>
@@ -7724,7 +7713,7 @@
         <v>442113</v>
       </c>
     </row>
-    <row r="391" spans="1:5" ht="15" thickBot="1">
+    <row r="391" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="11">
         <v>42567</v>
       </c>
@@ -7742,7 +7731,7 @@
         <v>520222</v>
       </c>
     </row>
-    <row r="392" spans="1:5" ht="15" thickBot="1">
+    <row r="392" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="11">
         <v>42574</v>
       </c>
@@ -7760,7 +7749,7 @@
         <v>528070</v>
       </c>
     </row>
-    <row r="393" spans="1:5" ht="15" thickBot="1">
+    <row r="393" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="11">
         <v>42581</v>
       </c>
@@ -7778,7 +7767,7 @@
         <v>536916</v>
       </c>
     </row>
-    <row r="394" spans="1:5" ht="15" thickBot="1">
+    <row r="394" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" s="11">
         <v>42588</v>
       </c>
@@ -7796,7 +7785,7 @@
         <v>531595</v>
       </c>
     </row>
-    <row r="395" spans="1:5" ht="15" thickBot="1">
+    <row r="395" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="11">
         <v>42595</v>
       </c>
@@ -7814,7 +7803,7 @@
         <v>534533</v>
       </c>
     </row>
-    <row r="396" spans="1:5" ht="15" thickBot="1">
+    <row r="396" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="11">
         <v>42602</v>
       </c>
@@ -7832,7 +7821,7 @@
         <v>531484</v>
       </c>
     </row>
-    <row r="397" spans="1:5" ht="15" thickBot="1">
+    <row r="397" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="11">
         <v>42609</v>
       </c>
@@ -7850,7 +7839,7 @@
         <v>539657</v>
       </c>
     </row>
-    <row r="398" spans="1:5" ht="15" thickBot="1">
+    <row r="398" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" s="11">
         <v>42616</v>
       </c>
@@ -7868,7 +7857,7 @@
         <v>538826</v>
       </c>
     </row>
-    <row r="399" spans="1:5" ht="15" thickBot="1">
+    <row r="399" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="11">
         <v>42623</v>
       </c>
@@ -7886,7 +7875,7 @@
         <v>482894</v>
       </c>
     </row>
-    <row r="400" spans="1:5" ht="15" thickBot="1">
+    <row r="400" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" s="11">
         <v>42630</v>
       </c>
@@ -7904,7 +7893,7 @@
         <v>537904</v>
       </c>
     </row>
-    <row r="401" spans="1:5" ht="15" thickBot="1">
+    <row r="401" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="13">
         <v>42637</v>
       </c>
@@ -7922,7 +7911,7 @@
         <v>539609</v>
       </c>
     </row>
-    <row r="402" spans="1:5" ht="15" thickBot="1">
+    <row r="402" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="11">
         <v>42644</v>
       </c>
@@ -7940,7 +7929,7 @@
         <v>549171</v>
       </c>
     </row>
-    <row r="403" spans="1:5" ht="15" thickBot="1">
+    <row r="403" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="11">
         <v>42651</v>
       </c>
@@ -7958,7 +7947,7 @@
         <v>521789</v>
       </c>
     </row>
-    <row r="404" spans="1:5" ht="15" thickBot="1">
+    <row r="404" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" s="11">
         <v>42658</v>
       </c>
@@ -7976,7 +7965,7 @@
         <v>531936</v>
       </c>
     </row>
-    <row r="405" spans="1:5" ht="15" thickBot="1">
+    <row r="405" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="11">
         <v>42665</v>
       </c>
@@ -7994,7 +7983,7 @@
         <v>544092</v>
       </c>
     </row>
-    <row r="406" spans="1:5" ht="15" thickBot="1">
+    <row r="406" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="11">
         <v>42672</v>
       </c>
@@ -8012,7 +8001,7 @@
         <v>544997</v>
       </c>
     </row>
-    <row r="407" spans="1:5" ht="15" thickBot="1">
+    <row r="407" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="11">
         <v>42679</v>
       </c>
@@ -8030,7 +8019,7 @@
         <v>543377</v>
       </c>
     </row>
-    <row r="408" spans="1:5" ht="15" thickBot="1">
+    <row r="408" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" s="11">
         <v>42686</v>
       </c>
@@ -8048,7 +8037,7 @@
         <v>541127</v>
       </c>
     </row>
-    <row r="409" spans="1:5" ht="15" thickBot="1">
+    <row r="409" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" s="11">
         <v>42693</v>
       </c>
@@ -8066,7 +8055,7 @@
         <v>547804</v>
       </c>
     </row>
-    <row r="410" spans="1:5" ht="15" thickBot="1">
+    <row r="410" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A410" s="11">
         <v>42700</v>
       </c>
@@ -8084,7 +8073,7 @@
         <v>452759</v>
       </c>
     </row>
-    <row r="411" spans="1:5" ht="15" thickBot="1">
+    <row r="411" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" s="11">
         <v>42707</v>
       </c>
@@ -8102,7 +8091,7 @@
         <v>553130</v>
       </c>
     </row>
-    <row r="412" spans="1:5" ht="15" thickBot="1">
+    <row r="412" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="11">
         <v>42714</v>
       </c>
@@ -8120,7 +8109,7 @@
         <v>538932</v>
       </c>
     </row>
-    <row r="413" spans="1:5" ht="15" thickBot="1">
+    <row r="413" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" s="11">
         <v>42721</v>
       </c>
@@ -8138,7 +8127,7 @@
         <v>523949</v>
       </c>
     </row>
-    <row r="414" spans="1:5" ht="15" thickBot="1">
+    <row r="414" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" s="11">
         <v>42728</v>
       </c>
@@ -8156,7 +8145,7 @@
         <v>496633</v>
       </c>
     </row>
-    <row r="415" spans="1:5" ht="15" thickBot="1">
+    <row r="415" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A415" s="11">
         <v>42735</v>
       </c>
@@ -8174,7 +8163,7 @@
         <v>425998</v>
       </c>
     </row>
-    <row r="416" spans="1:5" ht="15" thickBot="1">
+    <row r="416" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A416" s="11">
         <v>42742</v>
       </c>
@@ -8192,7 +8181,7 @@
         <v>441417</v>
       </c>
     </row>
-    <row r="417" spans="1:5" ht="15" thickBot="1">
+    <row r="417" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="11">
         <v>42749</v>
       </c>
@@ -8210,7 +8199,7 @@
         <v>516229</v>
       </c>
     </row>
-    <row r="418" spans="1:5" ht="15" thickBot="1">
+    <row r="418" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A418" s="11">
         <v>42756</v>
       </c>
@@ -8228,7 +8217,7 @@
         <v>530299</v>
       </c>
     </row>
-    <row r="419" spans="1:5" ht="15" thickBot="1">
+    <row r="419" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A419" s="11">
         <v>42763</v>
       </c>
@@ -8246,7 +8235,7 @@
         <v>529696</v>
       </c>
     </row>
-    <row r="420" spans="1:5" ht="15" thickBot="1">
+    <row r="420" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A420" s="11">
         <v>42770</v>
       </c>
@@ -8264,7 +8253,7 @@
         <v>541474</v>
       </c>
     </row>
-    <row r="421" spans="1:5" ht="15" thickBot="1">
+    <row r="421" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A421" s="11">
         <v>42777</v>
       </c>
@@ -8282,7 +8271,7 @@
         <v>518431</v>
       </c>
     </row>
-    <row r="422" spans="1:5" ht="15" thickBot="1">
+    <row r="422" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A422" s="11">
         <v>42784</v>
       </c>
@@ -8300,7 +8289,7 @@
         <v>531123</v>
       </c>
     </row>
-    <row r="423" spans="1:5" ht="15" thickBot="1">
+    <row r="423" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A423" s="11">
         <v>42791</v>
       </c>
@@ -8318,7 +8307,7 @@
         <v>521451</v>
       </c>
     </row>
-    <row r="424" spans="1:5" ht="15" thickBot="1">
+    <row r="424" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A424" s="11">
         <v>42798</v>
       </c>
@@ -8336,7 +8325,7 @@
         <v>521607</v>
       </c>
     </row>
-    <row r="425" spans="1:5" ht="15" thickBot="1">
+    <row r="425" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A425" s="11">
         <v>42805</v>
       </c>
@@ -8354,7 +8343,7 @@
         <v>510638</v>
       </c>
     </row>
-    <row r="426" spans="1:5" ht="15" thickBot="1">
+    <row r="426" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426" s="13">
         <v>42812</v>
       </c>
@@ -8372,7 +8361,7 @@
         <v>495281</v>
       </c>
     </row>
-    <row r="427" spans="1:5" ht="15" thickBot="1">
+    <row r="427" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A427" s="11">
         <v>42819</v>
       </c>
@@ -8390,7 +8379,7 @@
         <v>526471</v>
       </c>
     </row>
-    <row r="428" spans="1:5" ht="15" thickBot="1">
+    <row r="428" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A428" s="11">
         <v>42826</v>
       </c>
@@ -8408,7 +8397,7 @@
         <v>527665</v>
       </c>
     </row>
-    <row r="429" spans="1:5" ht="15" thickBot="1">
+    <row r="429" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A429" s="11">
         <v>42833</v>
       </c>
@@ -8426,7 +8415,7 @@
         <v>513022</v>
       </c>
     </row>
-    <row r="430" spans="1:5" ht="15" thickBot="1">
+    <row r="430" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A430" s="11">
         <v>42840</v>
       </c>
@@ -8444,7 +8433,7 @@
         <v>519318</v>
       </c>
     </row>
-    <row r="431" spans="1:5" ht="15" thickBot="1">
+    <row r="431" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A431" s="11">
         <v>42847</v>
       </c>
@@ -8462,7 +8451,7 @@
         <v>515131</v>
       </c>
     </row>
-    <row r="432" spans="1:5" ht="15" thickBot="1">
+    <row r="432" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A432" s="11">
         <v>42854</v>
       </c>
@@ -8480,7 +8469,7 @@
         <v>527830</v>
       </c>
     </row>
-    <row r="433" spans="1:5" ht="15" thickBot="1">
+    <row r="433" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A433" s="11">
         <v>42861</v>
       </c>
@@ -8498,7 +8487,7 @@
         <v>515305</v>
       </c>
     </row>
-    <row r="434" spans="1:5" ht="15" thickBot="1">
+    <row r="434" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A434" s="11">
         <v>42868</v>
       </c>
@@ -8516,7 +8505,7 @@
         <v>526970</v>
       </c>
     </row>
-    <row r="435" spans="1:5" ht="15" thickBot="1">
+    <row r="435" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A435" s="11">
         <v>42875</v>
       </c>
@@ -8534,7 +8523,7 @@
         <v>534922</v>
       </c>
     </row>
-    <row r="436" spans="1:5" ht="15" thickBot="1">
+    <row r="436" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A436" s="11">
         <v>42882</v>
       </c>
@@ -8552,7 +8541,7 @@
         <v>548103</v>
       </c>
     </row>
-    <row r="437" spans="1:5" ht="15" thickBot="1">
+    <row r="437" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A437" s="11">
         <v>42889</v>
       </c>
@@ -8570,7 +8559,7 @@
         <v>500192</v>
       </c>
     </row>
-    <row r="438" spans="1:5" ht="15" thickBot="1">
+    <row r="438" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A438" s="11">
         <v>42896</v>
       </c>
@@ -8588,7 +8577,7 @@
         <v>545317</v>
       </c>
     </row>
-    <row r="439" spans="1:5" ht="15" thickBot="1">
+    <row r="439" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A439" s="11">
         <v>42903</v>
       </c>
@@ -8606,7 +8595,7 @@
         <v>543179</v>
       </c>
     </row>
-    <row r="440" spans="1:5" ht="15" thickBot="1">
+    <row r="440" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A440" s="11">
         <v>42910</v>
       </c>
@@ -8624,7 +8613,7 @@
         <v>544694</v>
       </c>
     </row>
-    <row r="441" spans="1:5" ht="15" thickBot="1">
+    <row r="441" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A441" s="11">
         <v>42917</v>
       </c>
@@ -8642,7 +8631,7 @@
         <v>546361</v>
       </c>
     </row>
-    <row r="442" spans="1:5" ht="15" thickBot="1">
+    <row r="442" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A442" s="11">
         <v>42924</v>
       </c>
@@ -8660,7 +8649,7 @@
         <v>453080</v>
       </c>
     </row>
-    <row r="443" spans="1:5" ht="15" thickBot="1">
+    <row r="443" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A443" s="11">
         <v>42931</v>
       </c>
@@ -8678,7 +8667,7 @@
         <v>540005</v>
       </c>
     </row>
-    <row r="444" spans="1:5" ht="15" thickBot="1">
+    <row r="444" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A444" s="11">
         <v>42938</v>
       </c>
@@ -8696,7 +8685,7 @@
         <v>534152</v>
       </c>
     </row>
-    <row r="445" spans="1:5" ht="15" thickBot="1">
+    <row r="445" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A445" s="11">
         <v>42945</v>
       </c>
@@ -8714,7 +8703,7 @@
         <v>550356</v>
       </c>
     </row>
-    <row r="446" spans="1:5" ht="15" thickBot="1">
+    <row r="446" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A446" s="11">
         <v>42952</v>
       </c>
@@ -8732,7 +8721,7 @@
         <v>554822</v>
       </c>
     </row>
-    <row r="447" spans="1:5" ht="15" thickBot="1">
+    <row r="447" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A447" s="11">
         <v>42959</v>
       </c>
@@ -8750,7 +8739,7 @@
         <v>548790</v>
       </c>
     </row>
-    <row r="448" spans="1:5" ht="15" thickBot="1">
+    <row r="448" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A448" s="11">
         <v>42966</v>
       </c>
@@ -8768,7 +8757,7 @@
         <v>554021</v>
       </c>
     </row>
-    <row r="449" spans="1:5" ht="15" thickBot="1">
+    <row r="449" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A449" s="11">
         <v>42973</v>
       </c>
@@ -8786,7 +8775,7 @@
         <v>551776</v>
       </c>
     </row>
-    <row r="450" spans="1:5" ht="15" thickBot="1">
+    <row r="450" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A450" s="11">
         <v>42980</v>
       </c>
@@ -8819,7 +8808,7 @@
         <v>534140</v>
       </c>
     </row>
-    <row r="451" spans="1:5" ht="15" thickBot="1">
+    <row r="451" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A451" s="13">
         <v>42987</v>
       </c>
@@ -8837,7 +8826,7 @@
         <v>486474</v>
       </c>
     </row>
-    <row r="452" spans="1:5" ht="15" thickBot="1">
+    <row r="452" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A452" s="11">
         <v>42994</v>
       </c>
@@ -8855,7 +8844,7 @@
         <v>530774</v>
       </c>
     </row>
-    <row r="453" spans="1:5" ht="15" thickBot="1">
+    <row r="453" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A453" s="11">
         <v>43001</v>
       </c>
@@ -8873,7 +8862,7 @@
         <v>548204</v>
       </c>
     </row>
-    <row r="454" spans="1:5" ht="15" thickBot="1">
+    <row r="454" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A454" s="11">
         <v>43008</v>
       </c>
@@ -8891,7 +8880,7 @@
         <v>559555</v>
       </c>
     </row>
-    <row r="455" spans="1:5" ht="15" thickBot="1">
+    <row r="455" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A455" s="11">
         <v>43015</v>
       </c>
@@ -8909,7 +8898,7 @@
         <v>554826</v>
       </c>
     </row>
-    <row r="456" spans="1:5" ht="15" thickBot="1">
+    <row r="456" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A456" s="11">
         <v>43022</v>
       </c>
@@ -8927,7 +8916,7 @@
         <v>548264</v>
       </c>
     </row>
-    <row r="457" spans="1:5" ht="15" thickBot="1">
+    <row r="457" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A457" s="11">
         <v>43029</v>
       </c>
@@ -8945,7 +8934,7 @@
         <v>559989</v>
       </c>
     </row>
-    <row r="458" spans="1:5" ht="15" thickBot="1">
+    <row r="458" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A458" s="11">
         <v>43036</v>
       </c>
@@ -8963,7 +8952,7 @@
         <v>546582</v>
       </c>
     </row>
-    <row r="459" spans="1:5" ht="15" thickBot="1">
+    <row r="459" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A459" s="11">
         <v>43043</v>
       </c>
@@ -8981,7 +8970,7 @@
         <v>538739</v>
       </c>
     </row>
-    <row r="460" spans="1:5" ht="15" thickBot="1">
+    <row r="460" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A460" s="11">
         <v>43050</v>
       </c>
@@ -8999,7 +8988,7 @@
         <v>547480</v>
       </c>
     </row>
-    <row r="461" spans="1:5" ht="15" thickBot="1">
+    <row r="461" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A461" s="11">
         <v>43057</v>
       </c>
@@ -9017,7 +9006,7 @@
         <v>554066</v>
       </c>
     </row>
-    <row r="462" spans="1:5" ht="15" thickBot="1">
+    <row r="462" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A462" s="11">
         <v>43064</v>
       </c>
@@ -9035,7 +9024,7 @@
         <v>463602</v>
       </c>
     </row>
-    <row r="463" spans="1:5" ht="15" thickBot="1">
+    <row r="463" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A463" s="11">
         <v>43071</v>
       </c>
@@ -9053,7 +9042,7 @@
         <v>572794</v>
       </c>
     </row>
-    <row r="464" spans="1:5" ht="15" thickBot="1">
+    <row r="464" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A464" s="11">
         <v>43078</v>
       </c>
@@ -9071,7 +9060,7 @@
         <v>560756</v>
       </c>
     </row>
-    <row r="465" spans="1:5" ht="15" thickBot="1">
+    <row r="465" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A465" s="11">
         <v>43085</v>
       </c>
@@ -9089,7 +9078,7 @@
         <v>554779</v>
       </c>
     </row>
-    <row r="466" spans="1:5" ht="15" thickBot="1">
+    <row r="466" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A466" s="11">
         <v>43092</v>
       </c>
@@ -9107,7 +9096,7 @@
         <v>551566</v>
       </c>
     </row>
-    <row r="467" spans="1:5" ht="15" thickBot="1">
+    <row r="467" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A467" s="11">
         <v>43099</v>
       </c>
@@ -9125,7 +9114,7 @@
         <v>397032</v>
       </c>
     </row>
-    <row r="468" spans="1:5" ht="15" thickBot="1">
+    <row r="468" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A468" s="11">
         <v>43113</v>
       </c>
@@ -9143,7 +9132,7 @@
         <v>511937</v>
       </c>
     </row>
-    <row r="469" spans="1:5" ht="15" thickBot="1">
+    <row r="469" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A469" s="11">
         <v>43120</v>
       </c>
@@ -9161,7 +9150,7 @@
         <v>508239</v>
       </c>
     </row>
-    <row r="470" spans="1:5" ht="15" thickBot="1">
+    <row r="470" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A470" s="11">
         <v>43127</v>
       </c>
@@ -9179,7 +9168,7 @@
         <v>543515</v>
       </c>
     </row>
-    <row r="471" spans="1:5" ht="15" thickBot="1">
+    <row r="471" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A471" s="11">
         <v>43134</v>
       </c>
@@ -9197,7 +9186,7 @@
         <v>547993</v>
       </c>
     </row>
-    <row r="472" spans="1:5" ht="15" thickBot="1">
+    <row r="472" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A472" s="11">
         <v>43141</v>
       </c>
@@ -9215,7 +9204,7 @@
         <v>519545</v>
       </c>
     </row>
-    <row r="473" spans="1:5" ht="15" thickBot="1">
+    <row r="473" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A473" s="11">
         <v>43148</v>
       </c>
@@ -9233,7 +9222,7 @@
         <v>539963</v>
       </c>
     </row>
-    <row r="474" spans="1:5" ht="15" thickBot="1">
+    <row r="474" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A474" s="11">
         <v>43155</v>
       </c>
@@ -9251,7 +9240,7 @@
         <v>528440</v>
       </c>
     </row>
-    <row r="475" spans="1:5" ht="15" thickBot="1">
+    <row r="475" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A475" s="11">
         <v>43162</v>
       </c>
@@ -9269,7 +9258,7 @@
         <v>544194</v>
       </c>
     </row>
-    <row r="476" spans="1:5" ht="15" thickBot="1">
+    <row r="476" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A476" s="13">
         <v>43169</v>
       </c>
@@ -9287,7 +9276,7 @@
         <v>534282</v>
       </c>
     </row>
-    <row r="477" spans="1:5" ht="15" thickBot="1">
+    <row r="477" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A477" s="11">
         <v>43176</v>
       </c>
@@ -9305,7 +9294,7 @@
         <v>537338</v>
       </c>
     </row>
-    <row r="478" spans="1:5" ht="15" thickBot="1">
+    <row r="478" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A478" s="11">
         <v>43183</v>
       </c>
@@ -9323,7 +9312,7 @@
         <v>526521</v>
       </c>
     </row>
-    <row r="479" spans="1:5" ht="15" thickBot="1">
+    <row r="479" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A479" s="11">
         <v>43190</v>
       </c>
@@ -9341,7 +9330,7 @@
         <v>534751</v>
       </c>
     </row>
-    <row r="480" spans="1:5" ht="15" thickBot="1">
+    <row r="480" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A480" s="11">
         <v>43197</v>
       </c>
@@ -9359,7 +9348,7 @@
         <v>524905</v>
       </c>
     </row>
-    <row r="481" spans="1:5" ht="15" thickBot="1">
+    <row r="481" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A481" s="11">
         <v>43204</v>
       </c>
@@ -9377,7 +9366,7 @@
         <v>534198</v>
       </c>
     </row>
-    <row r="482" spans="1:5" ht="15" thickBot="1">
+    <row r="482" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A482" s="11">
         <v>43211</v>
       </c>
@@ -9395,7 +9384,7 @@
         <v>539425</v>
       </c>
     </row>
-    <row r="483" spans="1:5" ht="15" thickBot="1">
+    <row r="483" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A483" s="11">
         <v>43218</v>
       </c>
@@ -9413,7 +9402,7 @@
         <v>551498</v>
       </c>
     </row>
-    <row r="484" spans="1:5" ht="15" thickBot="1">
+    <row r="484" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A484" s="11">
         <v>43225</v>
       </c>
@@ -9431,7 +9420,7 @@
         <v>545937</v>
       </c>
     </row>
-    <row r="485" spans="1:5" ht="15" thickBot="1">
+    <row r="485" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A485" s="11">
         <v>43232</v>
       </c>
@@ -9449,7 +9438,7 @@
         <v>550029</v>
       </c>
     </row>
-    <row r="486" spans="1:5" ht="15" thickBot="1">
+    <row r="486" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A486" s="11">
         <v>43239</v>
       </c>
@@ -9467,7 +9456,7 @@
         <v>546415</v>
       </c>
     </row>
-    <row r="487" spans="1:5" ht="15" thickBot="1">
+    <row r="487" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A487" s="11">
         <v>43246</v>
       </c>
@@ -9485,7 +9474,7 @@
         <v>565502</v>
       </c>
     </row>
-    <row r="488" spans="1:5" ht="15" thickBot="1">
+    <row r="488" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A488" s="11">
         <v>43253</v>
       </c>
@@ -9503,7 +9492,7 @@
         <v>509740</v>
       </c>
     </row>
-    <row r="489" spans="1:5" ht="15" thickBot="1">
+    <row r="489" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A489" s="11">
         <v>43260</v>
       </c>
@@ -9521,7 +9510,7 @@
         <v>561061</v>
       </c>
     </row>
-    <row r="490" spans="1:5" ht="15" thickBot="1">
+    <row r="490" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A490" s="11">
         <v>43267</v>
       </c>
@@ -9539,7 +9528,7 @@
         <v>558098</v>
       </c>
     </row>
-    <row r="491" spans="1:5" ht="15" thickBot="1">
+    <row r="491" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A491" s="11">
         <v>43274</v>
       </c>
@@ -9557,7 +9546,7 @@
         <v>557340</v>
       </c>
     </row>
-    <row r="492" spans="1:5" ht="15" thickBot="1">
+    <row r="492" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A492" s="11">
         <v>43281</v>
       </c>
@@ -9575,7 +9564,7 @@
         <v>564243</v>
       </c>
     </row>
-    <row r="493" spans="1:5" ht="15" thickBot="1">
+    <row r="493" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A493" s="11">
         <v>43288</v>
       </c>
@@ -9593,7 +9582,7 @@
         <v>485193</v>
       </c>
     </row>
-    <row r="494" spans="1:5" ht="15" thickBot="1">
+    <row r="494" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A494" s="11">
         <v>43295</v>
       </c>
@@ -9611,7 +9600,7 @@
         <v>559064</v>
       </c>
     </row>
-    <row r="495" spans="1:5" ht="15" thickBot="1">
+    <row r="495" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A495" s="11">
         <v>43302</v>
       </c>
@@ -9629,7 +9618,7 @@
         <v>553024</v>
       </c>
     </row>
-    <row r="496" spans="1:5" ht="15" thickBot="1">
+    <row r="496" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A496" s="11">
         <v>43309</v>
       </c>
@@ -9647,7 +9636,7 @@
         <v>559154</v>
       </c>
     </row>
-    <row r="497" spans="1:5" ht="15" thickBot="1">
+    <row r="497" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A497" s="11">
         <v>43316</v>
       </c>
@@ -9665,7 +9654,7 @@
         <v>570995</v>
       </c>
     </row>
-    <row r="498" spans="1:5" ht="15" thickBot="1">
+    <row r="498" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A498" s="11">
         <v>43323</v>
       </c>
@@ -9683,7 +9672,7 @@
         <v>556887</v>
       </c>
     </row>
-    <row r="499" spans="1:5" ht="15" thickBot="1">
+    <row r="499" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A499" s="11">
         <v>43330</v>
       </c>
@@ -9701,7 +9690,7 @@
         <v>567477</v>
       </c>
     </row>
-    <row r="500" spans="1:5" ht="15" thickBot="1">
+    <row r="500" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A500" s="11">
         <v>43337</v>
       </c>
@@ -9719,7 +9708,7 @@
         <v>565706</v>
       </c>
     </row>
-    <row r="501" spans="1:5" ht="15" thickBot="1">
+    <row r="501" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A501" s="13">
         <v>43344</v>
       </c>
@@ -9737,7 +9726,7 @@
         <v>567881</v>
       </c>
     </row>
-    <row r="502" spans="1:5" ht="15" thickBot="1">
+    <row r="502" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A502" s="11">
         <v>43351</v>
       </c>
@@ -9755,7 +9744,7 @@
         <v>502208</v>
       </c>
     </row>
-    <row r="503" spans="1:5" ht="15" thickBot="1">
+    <row r="503" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A503" s="11">
         <v>43358</v>
       </c>
@@ -9773,7 +9762,7 @@
         <v>553003</v>
       </c>
     </row>
-    <row r="504" spans="1:5" ht="15" thickBot="1">
+    <row r="504" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A504" s="11">
         <v>43365</v>
       </c>
@@ -9791,7 +9780,7 @@
         <v>567078</v>
       </c>
     </row>
-    <row r="505" spans="1:5" ht="15" thickBot="1">
+    <row r="505" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A505" s="11">
         <v>43372</v>
       </c>
@@ -9809,7 +9798,7 @@
         <v>571922</v>
       </c>
     </row>
-    <row r="506" spans="1:5" ht="15" thickBot="1">
+    <row r="506" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A506" s="11">
         <v>43379</v>
       </c>
@@ -9827,7 +9816,7 @@
         <v>554238</v>
       </c>
     </row>
-    <row r="507" spans="1:5" ht="15" thickBot="1">
+    <row r="507" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A507" s="11">
         <v>43386</v>
       </c>
@@ -9845,7 +9834,7 @@
         <v>549757</v>
       </c>
     </row>
-    <row r="508" spans="1:5" ht="15" thickBot="1">
+    <row r="508" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A508" s="11">
         <v>43393</v>
       </c>
@@ -9863,7 +9852,7 @@
         <v>555106</v>
       </c>
     </row>
-    <row r="509" spans="1:5" ht="15" thickBot="1">
+    <row r="509" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A509" s="11">
         <v>43400</v>
       </c>
@@ -9881,7 +9870,7 @@
         <v>562804</v>
       </c>
     </row>
-    <row r="510" spans="1:5" ht="15" thickBot="1">
+    <row r="510" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A510" s="11">
         <v>43407</v>
       </c>
@@ -9899,7 +9888,7 @@
         <v>560046</v>
       </c>
     </row>
-    <row r="511" spans="1:5" ht="15" thickBot="1">
+    <row r="511" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A511" s="11">
         <v>43414</v>
       </c>
@@ -9917,7 +9906,7 @@
         <v>547236</v>
       </c>
     </row>
-    <row r="512" spans="1:5" ht="15" thickBot="1">
+    <row r="512" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A512" s="11">
         <v>43421</v>
       </c>
@@ -9935,7 +9924,7 @@
         <v>546541</v>
       </c>
     </row>
-    <row r="513" spans="1:5" ht="15" thickBot="1">
+    <row r="513" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A513" s="11">
         <v>43428</v>
       </c>
@@ -9953,7 +9942,7 @@
         <v>470851</v>
       </c>
     </row>
-    <row r="514" spans="1:5" ht="15" thickBot="1">
+    <row r="514" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A514" s="11">
         <v>43435</v>
       </c>
@@ -9986,7 +9975,7 @@
         <v>567282</v>
       </c>
     </row>
-    <row r="515" spans="1:5" ht="15" thickBot="1">
+    <row r="515" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A515" s="11">
         <v>43442</v>
       </c>
@@ -10004,7 +9993,7 @@
         <v>570225</v>
       </c>
     </row>
-    <row r="516" spans="1:5" ht="15" thickBot="1">
+    <row r="516" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A516" s="11">
         <v>43449</v>
       </c>
@@ -10022,7 +10011,7 @@
         <v>568941</v>
       </c>
     </row>
-    <row r="517" spans="1:5" ht="15" thickBot="1">
+    <row r="517" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A517" s="11">
         <v>43456</v>
       </c>
@@ -10040,7 +10029,7 @@
         <v>567252</v>
       </c>
     </row>
-    <row r="518" spans="1:5" ht="15" thickBot="1">
+    <row r="518" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A518" s="11">
         <v>43463</v>
       </c>
@@ -10058,7 +10047,7 @@
         <v>411676</v>
       </c>
     </row>
-    <row r="519" spans="1:5" ht="15" thickBot="1">
+    <row r="519" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A519" s="11">
         <v>43470</v>
       </c>
@@ -10076,7 +10065,7 @@
         <v>436103</v>
       </c>
     </row>
-    <row r="520" spans="1:5" ht="15" thickBot="1">
+    <row r="520" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A520" s="11">
         <v>43477</v>
       </c>
@@ -10094,7 +10083,7 @@
         <v>555127</v>
       </c>
     </row>
-    <row r="521" spans="1:5" ht="15" thickBot="1">
+    <row r="521" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A521" s="11">
         <v>43484</v>
       </c>
@@ -10112,7 +10101,7 @@
         <v>543111</v>
       </c>
     </row>
-    <row r="522" spans="1:5" ht="15" thickBot="1">
+    <row r="522" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A522" s="11">
         <v>43491</v>
       </c>
@@ -10130,7 +10119,7 @@
         <v>522026</v>
       </c>
     </row>
-    <row r="523" spans="1:5" ht="15" thickBot="1">
+    <row r="523" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A523" s="11">
         <v>43498</v>
       </c>
@@ -10148,7 +10137,7 @@
         <v>498288</v>
       </c>
     </row>
-    <row r="524" spans="1:5" ht="15" thickBot="1">
+    <row r="524" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A524" s="11">
         <v>43505</v>
       </c>
@@ -10166,7 +10155,7 @@
         <v>519779</v>
       </c>
     </row>
-    <row r="525" spans="1:5" ht="15" thickBot="1">
+    <row r="525" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A525" s="11">
         <v>43512</v>
       </c>
@@ -10184,7 +10173,7 @@
         <v>523915</v>
       </c>
     </row>
-    <row r="526" spans="1:5" ht="15" thickBot="1">
+    <row r="526" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A526" s="13">
         <v>43519</v>
       </c>
@@ -10202,7 +10191,7 @@
         <v>522630</v>
       </c>
     </row>
-    <row r="527" spans="1:5" ht="15" thickBot="1">
+    <row r="527" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A527" s="11">
         <v>43526</v>
       </c>
@@ -10220,7 +10209,7 @@
         <v>528153</v>
       </c>
     </row>
-    <row r="528" spans="1:5" ht="15" thickBot="1">
+    <row r="528" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A528" s="11">
         <v>43533</v>
       </c>
@@ -10238,7 +10227,7 @@
         <v>508958</v>
       </c>
     </row>
-    <row r="529" spans="1:5" ht="15" thickBot="1">
+    <row r="529" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A529" s="11">
         <v>43540</v>
       </c>
@@ -10256,7 +10245,7 @@
         <v>501001</v>
       </c>
     </row>
-    <row r="530" spans="1:5" ht="15" thickBot="1">
+    <row r="530" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A530" s="11">
         <v>43547</v>
       </c>
@@ -10274,7 +10263,7 @@
         <v>503017</v>
       </c>
     </row>
-    <row r="531" spans="1:5" ht="15" thickBot="1">
+    <row r="531" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A531" s="11">
         <v>43554</v>
       </c>
@@ -10292,7 +10281,7 @@
         <v>509958</v>
       </c>
     </row>
-    <row r="532" spans="1:5" ht="15" thickBot="1">
+    <row r="532" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A532" s="11">
         <v>43561</v>
       </c>
@@ -10310,7 +10299,7 @@
         <v>510192</v>
       </c>
     </row>
-    <row r="533" spans="1:5" ht="15" thickBot="1">
+    <row r="533" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A533" s="11">
         <v>43568</v>
       </c>
@@ -10328,7 +10317,7 @@
         <v>528167</v>
       </c>
     </row>
-    <row r="534" spans="1:5" ht="15" thickBot="1">
+    <row r="534" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A534" s="11">
         <v>43575</v>
       </c>
@@ -10346,7 +10335,7 @@
         <v>526141</v>
       </c>
     </row>
-    <row r="535" spans="1:5" ht="15" thickBot="1">
+    <row r="535" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A535" s="11">
         <v>43582</v>
       </c>
@@ -10364,7 +10353,7 @@
         <v>533190</v>
       </c>
     </row>
-    <row r="536" spans="1:5" ht="15" thickBot="1">
+    <row r="536" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A536" s="11">
         <v>43589</v>
       </c>
@@ -10382,7 +10371,7 @@
         <v>535089</v>
       </c>
     </row>
-    <row r="537" spans="1:5" ht="15" thickBot="1">
+    <row r="537" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A537" s="11">
         <v>43596</v>
       </c>
@@ -10400,7 +10389,7 @@
         <v>529263</v>
       </c>
     </row>
-    <row r="538" spans="1:5" ht="15" thickBot="1">
+    <row r="538" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A538" s="11">
         <v>43603</v>
       </c>
@@ -10418,7 +10407,7 @@
         <v>536358</v>
       </c>
     </row>
-    <row r="539" spans="1:5" ht="15" thickBot="1">
+    <row r="539" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A539" s="11">
         <v>43610</v>
       </c>
@@ -10436,7 +10425,7 @@
         <v>527966</v>
       </c>
     </row>
-    <row r="540" spans="1:5" ht="15" thickBot="1">
+    <row r="540" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A540" s="11">
         <v>43617</v>
       </c>
@@ -10454,7 +10443,7 @@
         <v>478679</v>
       </c>
     </row>
-    <row r="541" spans="1:5" ht="15" thickBot="1">
+    <row r="541" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A541" s="11">
         <v>43624</v>
       </c>
@@ -10472,7 +10461,7 @@
         <v>513099</v>
       </c>
     </row>
-    <row r="542" spans="1:5" ht="15" thickBot="1">
+    <row r="542" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A542" s="11">
         <v>43631</v>
       </c>
@@ -10490,7 +10479,7 @@
         <v>527989</v>
       </c>
     </row>
-    <row r="543" spans="1:5" ht="15" thickBot="1">
+    <row r="543" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A543" s="11">
         <v>43638</v>
       </c>
@@ -10508,7 +10497,7 @@
         <v>525116</v>
       </c>
     </row>
-    <row r="544" spans="1:5" ht="15" thickBot="1">
+    <row r="544" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A544" s="11">
         <v>43645</v>
       </c>
@@ -10526,7 +10515,7 @@
         <v>533164</v>
       </c>
     </row>
-    <row r="545" spans="1:5" ht="15" thickBot="1">
+    <row r="545" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A545" s="11">
         <v>43652</v>
       </c>
@@ -10544,7 +10533,7 @@
         <v>448459</v>
       </c>
     </row>
-    <row r="546" spans="1:5" ht="15" thickBot="1">
+    <row r="546" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A546" s="11">
         <v>43659</v>
       </c>
@@ -10562,7 +10551,7 @@
         <v>527908</v>
       </c>
     </row>
-    <row r="547" spans="1:5" ht="15" thickBot="1">
+    <row r="547" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A547" s="11">
         <v>43666</v>
       </c>
@@ -10580,7 +10569,7 @@
         <v>526010</v>
       </c>
     </row>
-    <row r="548" spans="1:5" ht="15" thickBot="1">
+    <row r="548" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A548" s="11">
         <v>43673</v>
       </c>
@@ -10598,7 +10587,7 @@
         <v>534498</v>
       </c>
     </row>
-    <row r="549" spans="1:5" ht="15" thickBot="1">
+    <row r="549" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A549" s="11">
         <v>43680</v>
       </c>
@@ -10616,7 +10605,7 @@
         <v>541558</v>
       </c>
     </row>
-    <row r="550" spans="1:5" ht="15" thickBot="1">
+    <row r="550" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A550" s="11">
         <v>43687</v>
       </c>
@@ -10634,7 +10623,7 @@
         <v>533190</v>
       </c>
     </row>
-    <row r="551" spans="1:5" ht="15" thickBot="1">
+    <row r="551" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A551" s="13">
         <v>43694</v>
       </c>
@@ -10652,7 +10641,7 @@
         <v>537617</v>
       </c>
     </row>
-    <row r="552" spans="1:5" ht="15" thickBot="1">
+    <row r="552" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A552" s="11">
         <v>43701</v>
       </c>
@@ -10670,7 +10659,7 @@
         <v>532483</v>
       </c>
     </row>
-    <row r="553" spans="1:5" ht="15" thickBot="1">
+    <row r="553" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A553" s="11">
         <v>43708</v>
       </c>
@@ -10688,7 +10677,7 @@
         <v>541945</v>
       </c>
     </row>
-    <row r="554" spans="1:5" ht="15" thickBot="1">
+    <row r="554" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A554" s="11">
         <v>43715</v>
       </c>
@@ -10706,7 +10695,7 @@
         <v>469285</v>
       </c>
     </row>
-    <row r="555" spans="1:5" ht="15" thickBot="1">
+    <row r="555" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A555" s="11">
         <v>43722</v>
       </c>
@@ -10724,7 +10713,7 @@
         <v>526734</v>
       </c>
     </row>
-    <row r="556" spans="1:5" ht="15" thickBot="1">
+    <row r="556" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A556" s="11">
         <v>43729</v>
       </c>
@@ -10742,7 +10731,7 @@
         <v>528670</v>
       </c>
     </row>
-    <row r="557" spans="1:5" ht="15" thickBot="1">
+    <row r="557" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A557" s="11">
         <v>43736</v>
       </c>
@@ -10760,7 +10749,7 @@
         <v>529336</v>
       </c>
     </row>
-    <row r="558" spans="1:5" ht="15" thickBot="1">
+    <row r="558" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A558" s="11">
         <v>43743</v>
       </c>
@@ -10778,7 +10767,7 @@
         <v>515061</v>
       </c>
     </row>
-    <row r="559" spans="1:5" ht="15" thickBot="1">
+    <row r="559" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A559" s="11">
         <v>43750</v>
       </c>
@@ -10796,7 +10785,7 @@
         <v>510820</v>
       </c>
     </row>
-    <row r="560" spans="1:5" ht="15" thickBot="1">
+    <row r="560" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A560" s="11">
         <v>43757</v>
       </c>
@@ -10814,7 +10803,7 @@
         <v>507381</v>
       </c>
     </row>
-    <row r="561" spans="1:5" ht="15" thickBot="1">
+    <row r="561" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A561" s="11">
         <v>43764</v>
       </c>
@@ -10832,7 +10821,7 @@
         <v>513147</v>
       </c>
     </row>
-    <row r="562" spans="1:5" ht="15" thickBot="1">
+    <row r="562" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A562" s="11">
         <v>43771</v>
       </c>
@@ -10850,7 +10839,7 @@
         <v>510012</v>
       </c>
     </row>
-    <row r="563" spans="1:5" ht="15" thickBot="1">
+    <row r="563" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A563" s="11">
         <v>43778</v>
       </c>
@@ -10868,7 +10857,7 @@
         <v>515269</v>
       </c>
     </row>
-    <row r="564" spans="1:5" ht="15" thickBot="1">
+    <row r="564" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A564" s="11">
         <v>43785</v>
       </c>
@@ -10886,7 +10875,7 @@
         <v>501249</v>
       </c>
     </row>
-    <row r="565" spans="1:5" ht="15" thickBot="1">
+    <row r="565" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A565" s="11">
         <v>43792</v>
       </c>
@@ -10904,7 +10893,7 @@
         <v>521927</v>
       </c>
     </row>
-    <row r="566" spans="1:5" ht="15" thickBot="1">
+    <row r="566" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A566" s="11">
         <v>43813</v>
       </c>
@@ -10922,7 +10911,7 @@
         <v>520589</v>
       </c>
     </row>
-    <row r="567" spans="1:5" ht="15" thickBot="1">
+    <row r="567" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A567" s="11">
         <v>43820</v>
       </c>
@@ -10940,7 +10929,7 @@
         <v>507589</v>
       </c>
     </row>
-    <row r="568" spans="1:5" ht="15" thickBot="1">
+    <row r="568" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A568" s="11">
         <v>43827</v>
       </c>
@@ -10958,7 +10947,7 @@
         <v>373728</v>
       </c>
     </row>
-    <row r="569" spans="1:5" ht="15" thickBot="1">
+    <row r="569" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A569" s="11">
         <v>43834</v>
       </c>
@@ -10976,7 +10965,7 @@
         <v>414014</v>
       </c>
     </row>
-    <row r="570" spans="1:5" ht="15" thickBot="1">
+    <row r="570" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A570" s="11">
         <v>43841</v>
       </c>
@@ -10994,7 +10983,7 @@
         <v>501624</v>
       </c>
     </row>
-    <row r="571" spans="1:5" ht="15" thickBot="1">
+    <row r="571" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A571" s="11">
         <v>43848</v>
       </c>
@@ -11012,7 +11001,7 @@
         <v>499732</v>
       </c>
     </row>
-    <row r="572" spans="1:5" ht="15" thickBot="1">
+    <row r="572" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A572" s="11">
         <v>43855</v>
       </c>
@@ -11030,7 +11019,7 @@
         <v>485282</v>
       </c>
     </row>
-    <row r="573" spans="1:5" ht="15" thickBot="1">
+    <row r="573" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A573" s="11">
         <v>43862</v>
       </c>
@@ -11048,7 +11037,7 @@
         <v>510161</v>
       </c>
     </row>
-    <row r="574" spans="1:5" ht="15" thickBot="1">
+    <row r="574" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A574" s="11">
         <v>43869</v>
       </c>
@@ -11066,7 +11055,7 @@
         <v>485329</v>
       </c>
     </row>
-    <row r="575" spans="1:5" ht="15" thickBot="1">
+    <row r="575" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A575" s="11">
         <v>43876</v>
       </c>
@@ -11084,7 +11073,7 @@
         <v>479137</v>
       </c>
     </row>
-    <row r="576" spans="1:5" ht="15" thickBot="1">
+    <row r="576" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A576" s="13">
         <v>43883</v>
       </c>
@@ -11102,7 +11091,7 @@
         <v>482690</v>
       </c>
     </row>
-    <row r="577" spans="1:5" ht="15" thickBot="1">
+    <row r="577" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A577" s="11">
         <v>43890</v>
       </c>
@@ -11120,7 +11109,7 @@
         <v>477611</v>
       </c>
     </row>
-    <row r="578" spans="1:5" ht="15" thickBot="1">
+    <row r="578" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A578" s="11">
         <v>43897</v>
       </c>
@@ -11153,7 +11142,7 @@
         <v>462303</v>
       </c>
     </row>
-    <row r="579" spans="1:5" ht="15" thickBot="1">
+    <row r="579" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A579" s="11">
         <v>43904</v>
       </c>
@@ -11171,7 +11160,7 @@
         <v>463017</v>
       </c>
     </row>
-    <row r="580" spans="1:5" ht="15" thickBot="1">
+    <row r="580" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A580" s="11">
         <v>43911</v>
       </c>
@@ -11189,7 +11178,7 @@
         <v>459966</v>
       </c>
     </row>
-    <row r="581" spans="1:5" ht="15" thickBot="1">
+    <row r="581" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A581" s="11">
         <v>43918</v>
       </c>
@@ -11207,7 +11196,7 @@
         <v>449767</v>
       </c>
     </row>
-    <row r="582" spans="1:5" ht="15" thickBot="1">
+    <row r="582" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A582" s="11">
         <v>43925</v>
       </c>
@@ -11225,7 +11214,7 @@
         <v>429095</v>
       </c>
     </row>
-    <row r="583" spans="1:5" ht="15" thickBot="1">
+    <row r="583" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A583" s="11">
         <v>43932</v>
       </c>
@@ -11243,7 +11232,7 @@
         <v>412503</v>
       </c>
     </row>
-    <row r="584" spans="1:5" ht="15" thickBot="1">
+    <row r="584" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A584" s="11">
         <v>43939</v>
       </c>
@@ -11261,7 +11250,7 @@
         <v>403283</v>
       </c>
     </row>
-    <row r="585" spans="1:5" ht="15" thickBot="1">
+    <row r="585" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A585" s="11">
         <v>43946</v>
       </c>
@@ -11279,7 +11268,7 @@
         <v>414123</v>
       </c>
     </row>
-    <row r="586" spans="1:5" ht="15" thickBot="1">
+    <row r="586" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A586" s="11">
         <v>43953</v>
       </c>
@@ -11297,7 +11286,7 @@
         <v>416954</v>
       </c>
     </row>
-    <row r="587" spans="1:5" ht="15" thickBot="1">
+    <row r="587" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A587" s="11">
         <v>43960</v>
       </c>
@@ -11315,7 +11304,7 @@
         <v>412549</v>
       </c>
     </row>
-    <row r="588" spans="1:5" ht="15" thickBot="1">
+    <row r="588" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A588" s="11">
         <v>43967</v>
       </c>
@@ -11333,7 +11322,7 @@
         <v>416115</v>
       </c>
     </row>
-    <row r="589" spans="1:5" ht="15" thickBot="1">
+    <row r="589" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A589" s="11">
         <v>43974</v>
       </c>
@@ -11351,7 +11340,7 @@
         <v>428715</v>
       </c>
     </row>
-    <row r="590" spans="1:5" ht="15" thickBot="1">
+    <row r="590" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A590" s="11">
         <v>43981</v>
       </c>
@@ -11369,7 +11358,7 @@
         <v>395714</v>
       </c>
     </row>
-    <row r="591" spans="1:5" ht="15" thickBot="1">
+    <row r="591" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A591" s="11">
         <v>43988</v>
       </c>
@@ -11387,7 +11376,7 @@
         <v>433171</v>
       </c>
     </row>
-    <row r="592" spans="1:5" ht="15" thickBot="1">
+    <row r="592" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A592" s="11">
         <v>43995</v>
       </c>
@@ -11405,7 +11394,7 @@
         <v>449291</v>
       </c>
     </row>
-    <row r="593" spans="1:5" ht="15" thickBot="1">
+    <row r="593" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A593" s="11">
         <v>44002</v>
       </c>
@@ -11423,7 +11412,7 @@
         <v>457278</v>
       </c>
     </row>
-    <row r="594" spans="1:5" ht="15" thickBot="1">
+    <row r="594" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A594" s="11">
         <v>44009</v>
       </c>
@@ -11441,7 +11430,7 @@
         <v>459449</v>
       </c>
     </row>
-    <row r="595" spans="1:5" ht="15" thickBot="1">
+    <row r="595" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A595" s="11">
         <v>44016</v>
       </c>
@@ -11459,7 +11448,7 @@
         <v>437989</v>
       </c>
     </row>
-    <row r="596" spans="1:5" ht="15" thickBot="1">
+    <row r="596" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A596" s="11">
         <v>44023</v>
       </c>
@@ -11477,7 +11466,7 @@
         <v>449092</v>
       </c>
     </row>
-    <row r="597" spans="1:5" ht="15" thickBot="1">
+    <row r="597" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A597" s="11">
         <v>44030</v>
       </c>
@@ -11495,7 +11484,7 @@
         <v>481597</v>
       </c>
     </row>
-    <row r="598" spans="1:5" ht="15" thickBot="1">
+    <row r="598" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A598" s="11">
         <v>44037</v>
       </c>
@@ -11513,7 +11502,7 @@
         <v>481331</v>
       </c>
     </row>
-    <row r="599" spans="1:5" ht="15" thickBot="1">
+    <row r="599" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A599" s="11">
         <v>44044</v>
       </c>
@@ -11531,7 +11520,7 @@
         <v>487968</v>
       </c>
     </row>
-    <row r="600" spans="1:5" ht="15" thickBot="1">
+    <row r="600" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A600" s="11">
         <v>44051</v>
       </c>
@@ -11549,7 +11538,7 @@
         <v>497397</v>
       </c>
     </row>
-    <row r="601" spans="1:5" ht="15" thickBot="1">
+    <row r="601" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A601" s="13">
         <v>44058</v>
       </c>
@@ -11567,7 +11556,7 @@
         <v>500563</v>
       </c>
     </row>
-    <row r="602" spans="1:5" ht="15" thickBot="1">
+    <row r="602" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A602" s="11">
         <v>44072</v>
       </c>
@@ -11585,7 +11574,7 @@
         <v>508307</v>
       </c>
     </row>
-    <row r="603" spans="1:5" ht="15" thickBot="1">
+    <row r="603" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A603" s="11">
         <v>44079</v>
       </c>
@@ -11603,7 +11592,7 @@
         <v>509637</v>
       </c>
     </row>
-    <row r="604" spans="1:5" ht="15" thickBot="1">
+    <row r="604" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A604" s="11">
         <v>44086</v>
       </c>
@@ -11621,7 +11610,7 @@
         <v>474785</v>
       </c>
     </row>
-    <row r="605" spans="1:5" ht="15" thickBot="1">
+    <row r="605" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A605" s="11">
         <v>44093</v>
       </c>
@@ -11639,7 +11628,7 @@
         <v>521956</v>
       </c>
     </row>
-    <row r="606" spans="1:5" ht="15" thickBot="1">
+    <row r="606" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A606" s="11">
         <v>44100</v>
       </c>
@@ -11657,7 +11646,7 @@
         <v>518290</v>
       </c>
     </row>
-    <row r="607" spans="1:5" ht="15" thickBot="1">
+    <row r="607" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A607" s="11">
         <v>44107</v>
       </c>
@@ -11675,7 +11664,7 @@
         <v>518761</v>
       </c>
     </row>
-    <row r="608" spans="1:5" ht="15" thickBot="1">
+    <row r="608" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A608" s="11">
         <v>44114</v>
       </c>
@@ -11693,7 +11682,7 @@
         <v>520452</v>
       </c>
     </row>
-    <row r="609" spans="1:5" ht="15" thickBot="1">
+    <row r="609" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A609" s="11">
         <v>44121</v>
       </c>
@@ -11711,7 +11700,7 @@
         <v>518763</v>
       </c>
     </row>
-    <row r="610" spans="1:5" ht="15" thickBot="1">
+    <row r="610" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A610" s="11">
         <v>44128</v>
       </c>
@@ -11729,7 +11718,7 @@
         <v>522653</v>
       </c>
     </row>
-    <row r="611" spans="1:5" ht="15" thickBot="1">
+    <row r="611" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A611" s="11">
         <v>44135</v>
       </c>
@@ -11747,7 +11736,7 @@
         <v>520778</v>
       </c>
     </row>
-    <row r="612" spans="1:5" ht="15" thickBot="1">
+    <row r="612" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A612" s="11">
         <v>44142</v>
       </c>
@@ -11765,7 +11754,7 @@
         <v>522028</v>
       </c>
     </row>
-    <row r="613" spans="1:5" ht="15" thickBot="1">
+    <row r="613" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A613" s="11">
         <v>44149</v>
       </c>
@@ -11783,7 +11772,7 @@
         <v>527462</v>
       </c>
     </row>
-    <row r="614" spans="1:5" ht="15" thickBot="1">
+    <row r="614" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A614" s="11">
         <v>44156</v>
       </c>
@@ -11801,7 +11790,7 @@
         <v>534607</v>
       </c>
     </row>
-    <row r="615" spans="1:5" ht="15" thickBot="1">
+    <row r="615" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A615" s="11">
         <v>44163</v>
       </c>
@@ -11819,7 +11808,7 @@
         <v>452792</v>
       </c>
     </row>
-    <row r="616" spans="1:5" ht="15" thickBot="1">
+    <row r="616" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A616" s="11">
         <v>44170</v>
       </c>
@@ -11837,7 +11826,7 @@
         <v>542203</v>
       </c>
     </row>
-    <row r="617" spans="1:5" ht="15" thickBot="1">
+    <row r="617" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A617" s="11">
         <v>44177</v>
       </c>
@@ -11855,7 +11844,7 @@
         <v>546209</v>
       </c>
     </row>
-    <row r="618" spans="1:5" ht="15" thickBot="1">
+    <row r="618" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A618" s="11">
         <v>44191</v>
       </c>
@@ -11873,7 +11862,7 @@
         <v>405111</v>
       </c>
     </row>
-    <row r="619" spans="1:5" ht="15" thickBot="1">
+    <row r="619" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A619" s="11">
         <v>44198</v>
       </c>
@@ -11891,7 +11880,7 @@
         <v>421991</v>
       </c>
     </row>
-    <row r="620" spans="1:5" ht="15" thickBot="1">
+    <row r="620" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A620" s="11">
         <v>44205</v>
       </c>
@@ -11909,7 +11898,7 @@
         <v>525253</v>
       </c>
     </row>
-    <row r="621" spans="1:5" ht="15" thickBot="1">
+    <row r="621" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A621" s="11">
         <v>44212</v>
       </c>
@@ -11927,7 +11916,7 @@
         <v>528547</v>
       </c>
     </row>
-    <row r="622" spans="1:5" ht="15" thickBot="1">
+    <row r="622" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A622" s="11">
         <v>44219</v>
       </c>
@@ -11945,7 +11934,7 @@
         <v>529030</v>
       </c>
     </row>
-    <row r="623" spans="1:5" ht="15" thickBot="1">
+    <row r="623" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A623" s="11">
         <v>44226</v>
       </c>
@@ -11963,7 +11952,7 @@
         <v>520693</v>
       </c>
     </row>
-    <row r="624" spans="1:5" ht="15" thickBot="1">
+    <row r="624" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A624" s="11">
         <v>44233</v>
       </c>
@@ -11981,7 +11970,7 @@
         <v>495815</v>
       </c>
     </row>
-    <row r="625" spans="1:5" ht="15" thickBot="1">
+    <row r="625" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A625" s="11">
         <v>44240</v>
       </c>
@@ -11999,7 +11988,7 @@
         <v>480483</v>
       </c>
     </row>
-    <row r="626" spans="1:5" ht="15" thickBot="1">
+    <row r="626" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A626" s="13">
         <v>44247</v>
       </c>
@@ -12017,7 +12006,7 @@
         <v>377904</v>
       </c>
     </row>
-    <row r="627" spans="1:5" ht="15" thickBot="1">
+    <row r="627" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A627" s="11">
         <v>44254</v>
       </c>
@@ -12035,7 +12024,7 @@
         <v>486429</v>
       </c>
     </row>
-    <row r="628" spans="1:5" ht="15" thickBot="1">
+    <row r="628" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A628" s="11">
         <v>44261</v>
       </c>
@@ -12053,7 +12042,7 @@
         <v>515135</v>
       </c>
     </row>
-    <row r="629" spans="1:5" ht="15" thickBot="1">
+    <row r="629" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A629" s="11">
         <v>44268</v>
       </c>
@@ -12071,7 +12060,7 @@
         <v>520736</v>
       </c>
     </row>
-    <row r="630" spans="1:5" ht="15" thickBot="1">
+    <row r="630" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A630" s="11">
         <v>44275</v>
       </c>
@@ -12089,7 +12078,7 @@
         <v>513325</v>
       </c>
     </row>
-    <row r="631" spans="1:5" ht="15" thickBot="1">
+    <row r="631" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A631" s="11">
         <v>44282</v>
       </c>
@@ -12107,7 +12096,7 @@
         <v>521731</v>
       </c>
     </row>
-    <row r="632" spans="1:5" ht="15" thickBot="1">
+    <row r="632" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A632" s="11">
         <v>44289</v>
       </c>
@@ -12125,7 +12114,7 @@
         <v>515562</v>
       </c>
     </row>
-    <row r="633" spans="1:5" ht="15" thickBot="1">
+    <row r="633" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A633" s="11">
         <v>44296</v>
       </c>
@@ -12143,7 +12132,7 @@
         <v>513724</v>
       </c>
     </row>
-    <row r="634" spans="1:5" ht="15" thickBot="1">
+    <row r="634" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A634" s="11">
         <v>44303</v>
       </c>
@@ -12161,7 +12150,7 @@
         <v>533217</v>
       </c>
     </row>
-    <row r="635" spans="1:5" ht="15" thickBot="1">
+    <row r="635" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A635" s="11">
         <v>44310</v>
       </c>
@@ -12179,7 +12168,7 @@
         <v>538184</v>
       </c>
     </row>
-    <row r="636" spans="1:5" ht="15" thickBot="1">
+    <row r="636" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A636" s="11">
         <v>44317</v>
       </c>
@@ -12197,7 +12186,7 @@
         <v>540667</v>
       </c>
     </row>
-    <row r="637" spans="1:5" ht="15" thickBot="1">
+    <row r="637" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A637" s="11">
         <v>44324</v>
       </c>
@@ -12215,7 +12204,7 @@
         <v>523309</v>
       </c>
     </row>
-    <row r="638" spans="1:5" ht="15" thickBot="1">
+    <row r="638" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A638" s="11">
         <v>44331</v>
       </c>
@@ -12233,7 +12222,7 @@
         <v>533872</v>
       </c>
     </row>
-    <row r="639" spans="1:5" ht="15" thickBot="1">
+    <row r="639" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A639" s="11">
         <v>44338</v>
       </c>
@@ -12251,7 +12240,7 @@
         <v>528774</v>
       </c>
     </row>
-    <row r="640" spans="1:5" ht="15" thickBot="1">
+    <row r="640" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A640" s="11">
         <v>44345</v>
       </c>
@@ -12269,7 +12258,7 @@
         <v>530225</v>
       </c>
     </row>
-    <row r="641" spans="1:5" ht="15" thickBot="1">
+    <row r="641" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A641" s="11">
         <v>44352</v>
       </c>
@@ -12287,7 +12276,7 @@
         <v>489144</v>
       </c>
     </row>
-    <row r="642" spans="1:5" ht="15" thickBot="1">
+    <row r="642" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A642" s="11">
         <v>44359</v>
       </c>
@@ -12320,7 +12309,7 @@
         <v>529635</v>
       </c>
     </row>
-    <row r="643" spans="1:5" ht="15" thickBot="1">
+    <row r="643" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A643" s="11">
         <v>44366</v>
       </c>
@@ -12338,7 +12327,7 @@
         <v>514112</v>
       </c>
     </row>
-    <row r="644" spans="1:5" ht="15" thickBot="1">
+    <row r="644" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A644" s="11">
         <v>44373</v>
       </c>
@@ -12356,7 +12345,7 @@
         <v>516167</v>
       </c>
     </row>
-    <row r="645" spans="1:5" ht="15" thickBot="1">
+    <row r="645" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A645" s="11">
         <v>44380</v>
       </c>
@@ -12374,7 +12363,7 @@
         <v>512919</v>
       </c>
     </row>
-    <row r="646" spans="1:5" ht="15" thickBot="1">
+    <row r="646" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A646" s="11">
         <v>44387</v>
       </c>
@@ -12392,7 +12381,7 @@
         <v>451825</v>
       </c>
     </row>
-    <row r="647" spans="1:5" ht="15" thickBot="1">
+    <row r="647" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A647" s="11">
         <v>44394</v>
       </c>
@@ -12410,7 +12399,7 @@
         <v>513255</v>
       </c>
     </row>
-    <row r="648" spans="1:5" ht="15" thickBot="1">
+    <row r="648" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A648" s="11">
         <v>44401</v>
       </c>
@@ -12428,7 +12417,7 @@
         <v>503219</v>
       </c>
     </row>
-    <row r="649" spans="1:5" ht="15" thickBot="1">
+    <row r="649" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A649" s="11">
         <v>44408</v>
       </c>
@@ -12446,7 +12435,7 @@
         <v>502540</v>
       </c>
     </row>
-    <row r="650" spans="1:5" ht="15" thickBot="1">
+    <row r="650" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A650" s="11">
         <v>44415</v>
       </c>
@@ -12464,7 +12453,7 @@
         <v>509607</v>
       </c>
     </row>
-    <row r="651" spans="1:5" ht="15" thickBot="1">
+    <row r="651" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A651" s="13">
         <v>44422</v>
       </c>
@@ -12482,7 +12471,7 @@
         <v>504810</v>
       </c>
     </row>
-    <row r="652" spans="1:5" ht="15" thickBot="1">
+    <row r="652" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A652" s="11">
         <v>44429</v>
       </c>
@@ -12500,7 +12489,7 @@
         <v>501273</v>
       </c>
     </row>
-    <row r="653" spans="1:5" ht="15" thickBot="1">
+    <row r="653" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A653" s="11">
         <v>44436</v>
       </c>
@@ -12518,7 +12507,7 @@
         <v>504417</v>
       </c>
     </row>
-    <row r="654" spans="1:5" ht="15" thickBot="1">
+    <row r="654" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A654" s="11">
         <v>44443</v>
       </c>
@@ -12536,7 +12525,7 @@
         <v>494415</v>
       </c>
     </row>
-    <row r="655" spans="1:5" ht="15" thickBot="1">
+    <row r="655" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A655" s="11">
         <v>44450</v>
       </c>
@@ -12554,7 +12543,7 @@
         <v>468610</v>
       </c>
     </row>
-    <row r="656" spans="1:5" ht="15" thickBot="1">
+    <row r="656" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A656" s="11">
         <v>44457</v>
       </c>
@@ -12572,7 +12561,7 @@
         <v>505622</v>
       </c>
     </row>
-    <row r="657" spans="1:5" ht="15" thickBot="1">
+    <row r="657" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A657" s="11">
         <v>44464</v>
       </c>
@@ -12590,7 +12579,7 @@
         <v>511713</v>
       </c>
     </row>
-    <row r="658" spans="1:5" ht="15" thickBot="1">
+    <row r="658" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A658" s="11">
         <v>44471</v>
       </c>
@@ -12608,7 +12597,7 @@
         <v>515849</v>
       </c>
     </row>
-    <row r="659" spans="1:5" ht="15" thickBot="1">
+    <row r="659" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A659" s="11">
         <v>44478</v>
       </c>
@@ -12626,7 +12615,7 @@
         <v>506642</v>
       </c>
     </row>
-    <row r="660" spans="1:5" ht="15" thickBot="1">
+    <row r="660" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A660" s="11">
         <v>44485</v>
       </c>
@@ -12644,7 +12633,7 @@
         <v>496983</v>
       </c>
     </row>
-    <row r="661" spans="1:5" ht="15" thickBot="1">
+    <row r="661" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A661" s="11">
         <v>44492</v>
       </c>
@@ -12662,7 +12651,7 @@
         <v>510762</v>
       </c>
     </row>
-    <row r="662" spans="1:5" ht="15" thickBot="1">
+    <row r="662" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A662" s="11">
         <v>44499</v>
       </c>
@@ -12680,7 +12669,7 @@
         <v>510141</v>
       </c>
     </row>
-    <row r="663" spans="1:5" ht="15" thickBot="1">
+    <row r="663" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A663" s="11">
         <v>44506</v>
       </c>
@@ -12698,7 +12687,7 @@
         <v>504111</v>
       </c>
     </row>
-    <row r="664" spans="1:5" ht="15" thickBot="1">
+    <row r="664" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A664" s="11">
         <v>44513</v>
       </c>
@@ -12716,7 +12705,7 @@
         <v>502613</v>
       </c>
     </row>
-    <row r="665" spans="1:5" ht="15" thickBot="1">
+    <row r="665" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A665" s="11">
         <v>44520</v>
       </c>
@@ -12734,7 +12723,7 @@
         <v>508309</v>
       </c>
     </row>
-    <row r="666" spans="1:5" ht="15" thickBot="1">
+    <row r="666" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A666" s="11">
         <v>44527</v>
       </c>
@@ -12752,7 +12741,7 @@
         <v>430793</v>
       </c>
     </row>
-    <row r="667" spans="1:5" ht="15" thickBot="1">
+    <row r="667" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A667" s="11">
         <v>44534</v>
       </c>
@@ -12770,7 +12759,7 @@
         <v>527406</v>
       </c>
     </row>
-    <row r="668" spans="1:5" ht="15" thickBot="1">
+    <row r="668" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A668" s="11">
         <v>44541</v>
       </c>
@@ -12788,7 +12777,7 @@
         <v>513366</v>
       </c>
     </row>
-    <row r="669" spans="1:5" ht="15" thickBot="1">
+    <row r="669" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A669" s="11">
         <v>44548</v>
       </c>
@@ -12806,7 +12795,7 @@
         <v>504099</v>
       </c>
     </row>
-    <row r="670" spans="1:5" ht="15" thickBot="1">
+    <row r="670" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A670" s="11">
         <v>44555</v>
       </c>
@@ -12824,7 +12813,7 @@
         <v>420373</v>
       </c>
     </row>
-    <row r="671" spans="1:5" ht="15" thickBot="1">
+    <row r="671" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A671" s="11">
         <v>44562</v>
       </c>
@@ -12842,7 +12831,7 @@
         <v>395371</v>
       </c>
     </row>
-    <row r="672" spans="1:5" ht="15" thickBot="1">
+    <row r="672" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A672" s="11">
         <v>44569</v>
       </c>
@@ -12860,7 +12849,7 @@
         <v>440761</v>
       </c>
     </row>
-    <row r="673" spans="1:5" ht="15" thickBot="1">
+    <row r="673" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A673" s="11">
         <v>44576</v>
       </c>
@@ -12878,7 +12867,7 @@
         <v>493617</v>
       </c>
     </row>
-    <row r="674" spans="1:5" ht="15" thickBot="1">
+    <row r="674" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A674" s="11">
         <v>44583</v>
       </c>
@@ -12896,7 +12885,7 @@
         <v>477462</v>
       </c>
     </row>
-    <row r="675" spans="1:5" ht="15" thickBot="1">
+    <row r="675" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A675" s="11">
         <v>44590</v>
       </c>
@@ -12914,7 +12903,7 @@
         <v>491868</v>
       </c>
     </row>
-    <row r="676" spans="1:5" ht="15" thickBot="1">
+    <row r="676" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A676" s="13">
         <v>44597</v>
       </c>
@@ -12932,7 +12921,7 @@
         <v>458152</v>
       </c>
     </row>
-    <row r="677" spans="1:5" ht="15" thickBot="1">
+    <row r="677" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A677" s="11">
         <v>44604</v>
       </c>
@@ -12950,7 +12939,7 @@
         <v>504482</v>
       </c>
     </row>
-    <row r="678" spans="1:5" ht="15" thickBot="1">
+    <row r="678" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A678" s="11">
         <v>44611</v>
       </c>
@@ -12968,7 +12957,7 @@
         <v>497822</v>
       </c>
     </row>
-    <row r="679" spans="1:5" ht="15" thickBot="1">
+    <row r="679" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A679" s="11">
         <v>44625</v>
       </c>
@@ -12986,7 +12975,7 @@
         <v>505177</v>
       </c>
     </row>
-    <row r="680" spans="1:5" ht="15" thickBot="1">
+    <row r="680" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A680" s="11">
         <v>44632</v>
       </c>
@@ -13004,7 +12993,7 @@
         <v>496134</v>
       </c>
     </row>
-    <row r="681" spans="1:5" ht="15" thickBot="1">
+    <row r="681" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A681" s="11">
         <v>44639</v>
       </c>
@@ -13022,7 +13011,7 @@
         <v>499362</v>
       </c>
     </row>
-    <row r="682" spans="1:5" ht="15" thickBot="1">
+    <row r="682" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A682" s="11">
         <v>44646</v>
       </c>
@@ -13040,7 +13029,7 @@
         <v>504817</v>
       </c>
     </row>
-    <row r="683" spans="1:5" ht="15" thickBot="1">
+    <row r="683" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A683" s="11">
         <v>44653</v>
       </c>
@@ -13058,7 +13047,7 @@
         <v>502194</v>
       </c>
     </row>
-    <row r="684" spans="1:5" ht="15" thickBot="1">
+    <row r="684" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A684" s="11">
         <v>44660</v>
       </c>
@@ -13076,7 +13065,7 @@
         <v>508343</v>
       </c>
     </row>
-    <row r="685" spans="1:5" ht="15" thickBot="1">
+    <row r="685" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A685" s="11">
         <v>44667</v>
       </c>
@@ -13094,7 +13083,7 @@
         <v>489801</v>
       </c>
     </row>
-    <row r="686" spans="1:5" ht="15" thickBot="1">
+    <row r="686" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A686" s="11">
         <v>44674</v>
       </c>
@@ -13112,7 +13101,7 @@
         <v>498011</v>
       </c>
     </row>
-    <row r="687" spans="1:5" ht="15" thickBot="1">
+    <row r="687" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A687" s="11">
         <v>44681</v>
       </c>
@@ -13130,7 +13119,7 @@
         <v>506699</v>
       </c>
     </row>
-    <row r="688" spans="1:5" ht="15" thickBot="1">
+    <row r="688" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A688" s="11">
         <v>44688</v>
       </c>
@@ -13148,7 +13137,7 @@
         <v>504927</v>
       </c>
     </row>
-    <row r="689" spans="1:5" ht="15" thickBot="1">
+    <row r="689" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A689" s="11">
         <v>44695</v>
       </c>
@@ -13166,7 +13155,7 @@
         <v>505120</v>
       </c>
     </row>
-    <row r="690" spans="1:5" ht="15" thickBot="1">
+    <row r="690" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A690" s="11">
         <v>44702</v>
       </c>
@@ -13184,7 +13173,7 @@
         <v>506976</v>
       </c>
     </row>
-    <row r="691" spans="1:5" ht="15" thickBot="1">
+    <row r="691" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A691" s="11">
         <v>44709</v>
       </c>
@@ -13202,7 +13191,7 @@
         <v>514277</v>
       </c>
     </row>
-    <row r="692" spans="1:5" ht="15" thickBot="1">
+    <row r="692" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A692" s="11">
         <v>44716</v>
       </c>
@@ -13220,7 +13209,7 @@
         <v>475513</v>
       </c>
     </row>
-    <row r="693" spans="1:5" ht="15" thickBot="1">
+    <row r="693" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A693" s="11">
         <v>44723</v>
       </c>
@@ -13238,7 +13227,7 @@
         <v>510295</v>
       </c>
     </row>
-    <row r="694" spans="1:5" ht="15" thickBot="1">
+    <row r="694" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A694" s="11">
         <v>44730</v>
       </c>
@@ -13256,7 +13245,7 @@
         <v>501207</v>
       </c>
     </row>
-    <row r="695" spans="1:5" ht="15" thickBot="1">
+    <row r="695" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A695" s="11">
         <v>44737</v>
       </c>
@@ -13274,7 +13263,7 @@
         <v>493374</v>
       </c>
     </row>
-    <row r="696" spans="1:5" ht="15" thickBot="1">
+    <row r="696" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A696" s="11">
         <v>44744</v>
       </c>
@@ -13292,7 +13281,7 @@
         <v>500285</v>
       </c>
     </row>
-    <row r="697" spans="1:5" ht="15" thickBot="1">
+    <row r="697" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A697" s="11">
         <v>44751</v>
       </c>
@@ -13310,7 +13299,7 @@
         <v>437600</v>
       </c>
     </row>
-    <row r="698" spans="1:5" ht="15" thickBot="1">
+    <row r="698" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A698" s="11">
         <v>44758</v>
       </c>
@@ -13328,7 +13317,7 @@
         <v>498899</v>
       </c>
     </row>
-    <row r="699" spans="1:5" ht="15" thickBot="1">
+    <row r="699" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A699" s="11">
         <v>44765</v>
       </c>
@@ -13346,7 +13335,7 @@
         <v>498901</v>
       </c>
     </row>
-    <row r="700" spans="1:5" ht="15" thickBot="1">
+    <row r="700" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A700" s="11">
         <v>44772</v>
       </c>
@@ -13364,7 +13353,7 @@
         <v>505409</v>
       </c>
     </row>
-    <row r="701" spans="1:5" ht="15" thickBot="1">
+    <row r="701" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A701" s="13">
         <v>44779</v>
       </c>
@@ -13382,7 +13371,7 @@
         <v>496526</v>
       </c>
     </row>
-    <row r="702" spans="1:5" ht="15" thickBot="1">
+    <row r="702" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A702" s="11">
         <v>44786</v>
       </c>
@@ -13400,7 +13389,7 @@
         <v>502775</v>
       </c>
     </row>
-    <row r="703" spans="1:5" ht="15" thickBot="1">
+    <row r="703" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A703" s="11">
         <v>44793</v>
       </c>
@@ -13418,7 +13407,7 @@
         <v>501548</v>
       </c>
     </row>
-    <row r="704" spans="1:5" ht="15" thickBot="1">
+    <row r="704" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A704" s="11">
         <v>44800</v>
       </c>
@@ -13436,7 +13425,7 @@
         <v>511574</v>
       </c>
     </row>
-    <row r="705" spans="1:5" ht="15" thickBot="1">
+    <row r="705" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A705" s="11">
         <v>44807</v>
       </c>
@@ -13454,7 +13443,7 @@
         <v>513087</v>
       </c>
     </row>
-    <row r="706" spans="1:5" ht="15" thickBot="1">
+    <row r="706" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A706" s="11">
         <v>44814</v>
       </c>
@@ -13487,7 +13476,7 @@
         <v>464261</v>
       </c>
     </row>
-    <row r="707" spans="1:5" ht="15" thickBot="1">
+    <row r="707" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A707" s="11">
         <v>44821</v>
       </c>
@@ -13505,7 +13494,7 @@
         <v>490654</v>
       </c>
     </row>
-    <row r="708" spans="1:5" ht="15" thickBot="1">
+    <row r="708" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A708" s="11">
         <v>44828</v>
       </c>
@@ -13523,7 +13512,7 @@
         <v>489111</v>
       </c>
     </row>
-    <row r="709" spans="1:5" ht="15" thickBot="1">
+    <row r="709" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A709" s="11">
         <v>44835</v>
       </c>
@@ -13541,7 +13530,7 @@
         <v>495868</v>
       </c>
     </row>
-    <row r="710" spans="1:5" ht="15" thickBot="1">
+    <row r="710" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A710" s="11">
         <v>44842</v>
       </c>
@@ -13559,7 +13548,7 @@
         <v>494413</v>
       </c>
     </row>
-    <row r="711" spans="1:5" ht="15" thickBot="1">
+    <row r="711" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A711" s="11">
         <v>44849</v>
       </c>
@@ -13577,7 +13566,7 @@
         <v>500304</v>
       </c>
     </row>
-    <row r="712" spans="1:5" ht="15" thickBot="1">
+    <row r="712" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A712" s="11">
         <v>44856</v>
       </c>
@@ -13595,7 +13584,7 @@
         <v>505322</v>
       </c>
     </row>
-    <row r="713" spans="1:5" ht="15" thickBot="1">
+    <row r="713" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A713" s="11">
         <v>44863</v>
       </c>
@@ -13613,7 +13602,7 @@
         <v>514457</v>
       </c>
     </row>
-    <row r="714" spans="1:5" ht="15" thickBot="1">
+    <row r="714" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A714" s="11">
         <v>44870</v>
       </c>
@@ -13631,7 +13620,7 @@
         <v>502106</v>
       </c>
     </row>
-    <row r="715" spans="1:5" ht="15" thickBot="1">
+    <row r="715" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A715" s="11">
         <v>44877</v>
       </c>
@@ -13649,7 +13638,7 @@
         <v>490350</v>
       </c>
     </row>
-    <row r="716" spans="1:5" ht="15" thickBot="1">
+    <row r="716" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A716" s="11">
         <v>44884</v>
       </c>
@@ -13667,7 +13656,7 @@
         <v>491794</v>
       </c>
     </row>
-    <row r="717" spans="1:5" ht="15" thickBot="1">
+    <row r="717" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A717" s="11">
         <v>44891</v>
       </c>
@@ -13685,7 +13674,7 @@
         <v>413305</v>
       </c>
     </row>
-    <row r="718" spans="1:5" ht="15" thickBot="1">
+    <row r="718" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A718" s="11">
         <v>44898</v>
       </c>
@@ -13703,7 +13692,7 @@
         <v>495472</v>
       </c>
     </row>
-    <row r="719" spans="1:5" ht="15" thickBot="1">
+    <row r="719" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A719" s="11">
         <v>44905</v>
       </c>
@@ -13721,7 +13710,7 @@
         <v>500310</v>
       </c>
     </row>
-    <row r="720" spans="1:5" ht="15" thickBot="1">
+    <row r="720" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A720" s="11">
         <v>44912</v>
       </c>
@@ -13739,7 +13728,7 @@
         <v>476232</v>
       </c>
     </row>
-    <row r="721" spans="1:5" ht="15" thickBot="1">
+    <row r="721" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A721" s="11">
         <v>44919</v>
       </c>
@@ -13757,7 +13746,7 @@
         <v>400289</v>
       </c>
     </row>
-    <row r="722" spans="1:5" ht="15" thickBot="1">
+    <row r="722" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A722" s="11">
         <v>44926</v>
       </c>
@@ -13775,7 +13764,7 @@
         <v>365553</v>
       </c>
     </row>
-    <row r="723" spans="1:5" ht="15" thickBot="1">
+    <row r="723" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A723" s="11">
         <v>44933</v>
       </c>
@@ -13793,7 +13782,7 @@
         <v>416489</v>
       </c>
     </row>
-    <row r="724" spans="1:5" ht="15" thickBot="1">
+    <row r="724" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A724" s="11">
         <v>44940</v>
       </c>
@@ -13811,7 +13800,7 @@
         <v>486000</v>
       </c>
     </row>
-    <row r="725" spans="1:5" ht="15" thickBot="1">
+    <row r="725" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A725" s="11">
         <v>44947</v>
       </c>
@@ -13829,7 +13818,7 @@
         <v>467485</v>
       </c>
     </row>
-    <row r="726" spans="1:5" ht="15" thickBot="1">
+    <row r="726" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A726" s="13">
         <v>44954</v>
       </c>
@@ -13847,7 +13836,7 @@
         <v>473650</v>
       </c>
     </row>
-    <row r="727" spans="1:5" ht="15" thickBot="1">
+    <row r="727" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A727" s="11">
         <v>44961</v>
       </c>
@@ -13865,7 +13854,7 @@
         <v>449586</v>
       </c>
     </row>
-    <row r="728" spans="1:5" ht="15" thickBot="1">
+    <row r="728" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A728" s="11">
         <v>44968</v>
       </c>
@@ -13883,7 +13872,7 @@
         <v>473972</v>
       </c>
     </row>
-    <row r="729" spans="1:5" ht="15" thickBot="1">
+    <row r="729" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A729" s="11">
         <v>44975</v>
       </c>
@@ -13901,7 +13890,7 @@
         <v>466932</v>
       </c>
     </row>
-    <row r="730" spans="1:5" ht="15" thickBot="1">
+    <row r="730" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A730" s="11">
         <v>44982</v>
       </c>
@@ -13919,7 +13908,7 @@
         <v>459233</v>
       </c>
     </row>
-    <row r="731" spans="1:5" ht="15" thickBot="1">
+    <row r="731" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A731" s="11">
         <v>44989</v>
       </c>
@@ -13937,7 +13926,7 @@
         <v>474191</v>
       </c>
     </row>
-    <row r="732" spans="1:5" ht="15" thickBot="1">
+    <row r="732" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A732" s="11">
         <v>44996</v>
       </c>
@@ -13955,7 +13944,7 @@
         <v>458629</v>
       </c>
     </row>
-    <row r="733" spans="1:5" ht="15" thickBot="1">
+    <row r="733" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A733" s="11">
         <v>45003</v>
       </c>
@@ -13973,7 +13962,7 @@
         <v>453500</v>
       </c>
     </row>
-    <row r="734" spans="1:5" ht="15" thickBot="1">
+    <row r="734" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A734" s="11">
         <v>45010</v>
       </c>
@@ -13991,7 +13980,7 @@
         <v>469958</v>
       </c>
     </row>
-    <row r="735" spans="1:5" ht="15" thickBot="1">
+    <row r="735" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A735" s="11">
         <v>45017</v>
       </c>
@@ -14009,7 +13998,7 @@
         <v>467430</v>
       </c>
     </row>
-    <row r="736" spans="1:5" ht="15" thickBot="1">
+    <row r="736" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A736" s="11">
         <v>45024</v>
       </c>
@@ -14027,7 +14016,7 @@
         <v>451336</v>
       </c>
     </row>
-    <row r="737" spans="1:5" ht="15" thickBot="1">
+    <row r="737" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A737" s="11">
         <v>45031</v>
       </c>
@@ -14045,7 +14034,7 @@
         <v>468197</v>
       </c>
     </row>
-    <row r="738" spans="1:5" ht="15" thickBot="1">
+    <row r="738" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A738" s="11">
         <v>45038</v>
       </c>
@@ -14063,7 +14052,7 @@
         <v>480457</v>
       </c>
     </row>
-    <row r="739" spans="1:5" ht="15" thickBot="1">
+    <row r="739" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A739" s="11">
         <v>45045</v>
       </c>
@@ -14081,7 +14070,7 @@
         <v>481960</v>
       </c>
     </row>
-    <row r="740" spans="1:5" ht="15" thickBot="1">
+    <row r="740" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A740" s="11">
         <v>45052</v>
       </c>
@@ -14099,7 +14088,7 @@
         <v>471859</v>
       </c>
     </row>
-    <row r="741" spans="1:5" ht="15" thickBot="1">
+    <row r="741" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A741" s="11">
         <v>45059</v>
       </c>
@@ -14117,7 +14106,7 @@
         <v>466381</v>
       </c>
     </row>
-    <row r="742" spans="1:5" ht="15" thickBot="1">
+    <row r="742" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A742" s="11">
         <v>45066</v>
       </c>
@@ -14135,7 +14124,7 @@
         <v>470694</v>
       </c>
     </row>
-    <row r="743" spans="1:5" ht="15" thickBot="1">
+    <row r="743" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A743" s="11">
         <v>45073</v>
       </c>
@@ -14153,7 +14142,7 @@
         <v>480998</v>
       </c>
     </row>
-    <row r="744" spans="1:5" ht="15" thickBot="1">
+    <row r="744" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A744" s="11">
         <v>45080</v>
       </c>
@@ -14171,7 +14160,7 @@
         <v>439601</v>
       </c>
     </row>
-    <row r="745" spans="1:5" ht="15" thickBot="1">
+    <row r="745" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A745" s="11">
         <v>45087</v>
       </c>
@@ -14189,7 +14178,7 @@
         <v>471141</v>
       </c>
     </row>
-    <row r="746" spans="1:5" ht="15" thickBot="1">
+    <row r="746" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A746" s="11">
         <v>45094</v>
       </c>
@@ -14207,7 +14196,7 @@
         <v>477126</v>
       </c>
     </row>
-    <row r="747" spans="1:5" ht="15" thickBot="1">
+    <row r="747" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A747" s="11">
         <v>45101</v>
       </c>
@@ -14225,7 +14214,7 @@
         <v>469453</v>
       </c>
     </row>
-    <row r="748" spans="1:5" ht="15" thickBot="1">
+    <row r="748" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A748" s="11">
         <v>45108</v>
       </c>
@@ -14243,7 +14232,7 @@
         <v>474443</v>
       </c>
     </row>
-    <row r="749" spans="1:5" ht="15" thickBot="1">
+    <row r="749" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A749" s="11">
         <v>45115</v>
       </c>
@@ -14261,7 +14250,7 @@
         <v>407843</v>
       </c>
     </row>
-    <row r="750" spans="1:5" ht="15" thickBot="1">
+    <row r="750" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A750" s="11">
         <v>45122</v>
       </c>
@@ -14279,7 +14268,7 @@
         <v>478153</v>
       </c>
     </row>
-    <row r="751" spans="1:5" ht="15" thickBot="1">
+    <row r="751" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A751" s="13">
         <v>45129</v>
       </c>
@@ -14297,7 +14286,7 @@
         <v>473736</v>
       </c>
     </row>
-    <row r="752" spans="1:5" ht="15" thickBot="1">
+    <row r="752" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A752" s="11">
         <v>45136</v>
       </c>
@@ -14315,7 +14304,7 @@
         <v>483481</v>
       </c>
     </row>
-    <row r="753" spans="1:5" ht="15" thickBot="1">
+    <row r="753" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A753" s="11">
         <v>45143</v>
       </c>
@@ -14333,7 +14322,7 @@
         <v>471938</v>
       </c>
     </row>
-    <row r="754" spans="1:5" ht="15" thickBot="1">
+    <row r="754" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A754" s="11">
         <v>45150</v>
       </c>
@@ -14351,7 +14340,7 @@
         <v>472498</v>
       </c>
     </row>
-    <row r="755" spans="1:5" ht="15" thickBot="1">
+    <row r="755" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A755" s="11">
         <v>45157</v>
       </c>
@@ -14369,7 +14358,7 @@
         <v>478853</v>
       </c>
     </row>
-    <row r="756" spans="1:5" ht="15" thickBot="1">
+    <row r="756" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A756" s="11">
         <v>45164</v>
       </c>
@@ -14387,7 +14376,7 @@
         <v>472525</v>
       </c>
     </row>
-    <row r="757" spans="1:5" ht="15" thickBot="1">
+    <row r="757" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A757" s="11">
         <v>45171</v>
       </c>
@@ -14405,7 +14394,7 @@
         <v>476851</v>
       </c>
     </row>
-    <row r="758" spans="1:5" ht="15" thickBot="1">
+    <row r="758" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A758" s="11">
         <v>45178</v>
       </c>
@@ -14423,7 +14412,7 @@
         <v>447345</v>
       </c>
     </row>
-    <row r="759" spans="1:5" ht="15" thickBot="1">
+    <row r="759" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A759" s="11">
         <v>45185</v>
       </c>
@@ -14441,7 +14430,7 @@
         <v>489790</v>
       </c>
     </row>
-    <row r="760" spans="1:5" ht="15" thickBot="1">
+    <row r="760" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A760" s="11">
         <v>45192</v>
       </c>
@@ -14459,7 +14448,7 @@
         <v>493323</v>
       </c>
     </row>
-    <row r="761" spans="1:5" ht="15" thickBot="1">
+    <row r="761" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A761" s="11">
         <v>45199</v>
       </c>
@@ -14477,7 +14466,7 @@
         <v>500154</v>
       </c>
     </row>
-    <row r="762" spans="1:5" ht="15" thickBot="1">
+    <row r="762" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A762" s="11">
         <v>45206</v>
       </c>
@@ -14495,7 +14484,7 @@
         <v>499217</v>
       </c>
     </row>
-    <row r="763" spans="1:5" ht="15" thickBot="1">
+    <row r="763" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A763" s="11">
         <v>45213</v>
       </c>
@@ -14513,7 +14502,7 @@
         <v>492781</v>
       </c>
     </row>
-    <row r="764" spans="1:5" ht="15" thickBot="1">
+    <row r="764" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A764" s="11">
         <v>45220</v>
       </c>
@@ -14531,7 +14520,7 @@
         <v>505985</v>
       </c>
     </row>
-    <row r="765" spans="1:5" ht="15" thickBot="1">
+    <row r="765" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A765" s="11">
         <v>45227</v>
       </c>
@@ -14549,7 +14538,7 @@
         <v>499389</v>
       </c>
     </row>
-    <row r="766" spans="1:5" ht="15" thickBot="1">
+    <row r="766" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A766" s="11">
         <v>45234</v>
       </c>
@@ -14567,7 +14556,7 @@
         <v>484757</v>
       </c>
     </row>
-    <row r="767" spans="1:5" ht="15" thickBot="1">
+    <row r="767" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A767" s="11">
         <v>45241</v>
       </c>
@@ -14585,7 +14574,7 @@
         <v>497348</v>
       </c>
     </row>
-    <row r="768" spans="1:5" ht="15" thickBot="1">
+    <row r="768" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A768" s="11">
         <v>45248</v>
       </c>
@@ -14603,7 +14592,7 @@
         <v>501416</v>
       </c>
     </row>
-    <row r="769" spans="1:5" ht="15" thickBot="1">
+    <row r="769" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A769" s="11">
         <v>45255</v>
       </c>
@@ -14621,7 +14610,7 @@
         <v>415332</v>
       </c>
     </row>
-    <row r="770" spans="1:5" ht="15" thickBot="1">
+    <row r="770" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A770" s="11">
         <v>45262</v>
       </c>
@@ -14654,7 +14643,7 @@
         <v>509626</v>
       </c>
     </row>
-    <row r="771" spans="1:5" ht="15" thickBot="1">
+    <row r="771" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A771" s="11">
         <v>45269</v>
       </c>
@@ -14672,7 +14661,7 @@
         <v>499094</v>
       </c>
     </row>
-    <row r="772" spans="1:5" ht="15" thickBot="1">
+    <row r="772" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A772" s="11">
         <v>45276</v>
       </c>
@@ -14690,7 +14679,7 @@
         <v>502583</v>
       </c>
     </row>
-    <row r="773" spans="1:5" ht="15" thickBot="1">
+    <row r="773" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A773" s="11">
         <v>45283</v>
       </c>
@@ -14708,7 +14697,7 @@
         <v>486787</v>
       </c>
     </row>
-    <row r="774" spans="1:5" ht="15" thickBot="1">
+    <row r="774" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A774" s="11">
         <v>45297</v>
       </c>
@@ -14726,7 +14715,7 @@
         <v>417257</v>
       </c>
     </row>
-    <row r="775" spans="1:5" ht="15" thickBot="1">
+    <row r="775" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A775" s="11">
         <v>45304</v>
       </c>
@@ -14744,7 +14733,7 @@
         <v>457453</v>
       </c>
     </row>
-    <row r="776" spans="1:5" ht="15" thickBot="1">
+    <row r="776" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A776" s="15">
         <v>45311</v>
       </c>
@@ -14762,7 +14751,7 @@
         <v>397553</v>
       </c>
     </row>
-    <row r="777" spans="1:5" ht="15" thickBot="1">
+    <row r="777" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A777" s="17">
         <v>45318</v>
       </c>
@@ -14780,7 +14769,7 @@
         <v>467222</v>
       </c>
     </row>
-    <row r="778" spans="1:5" ht="15" thickBot="1">
+    <row r="778" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A778" s="17">
         <v>45325</v>
       </c>
@@ -14798,7 +14787,7 @@
         <v>491697</v>
       </c>
     </row>
-    <row r="779" spans="1:5" ht="15" thickBot="1">
+    <row r="779" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A779" s="17">
         <v>45332</v>
       </c>
@@ -14816,7 +14805,7 @@
         <v>484840</v>
       </c>
     </row>
-    <row r="780" spans="1:5" ht="15" thickBot="1">
+    <row r="780" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A780" s="17">
         <v>45339</v>
       </c>
@@ -14834,7 +14823,7 @@
         <v>474226</v>
       </c>
     </row>
-    <row r="781" spans="1:5" ht="15" thickBot="1">
+    <row r="781" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A781" s="17">
         <v>45346</v>
       </c>
@@ -14852,7 +14841,7 @@
         <v>483656</v>
       </c>
     </row>
-    <row r="782" spans="1:5" ht="15" thickBot="1">
+    <row r="782" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A782" s="17">
         <v>45353</v>
       </c>
@@ -14870,7 +14859,7 @@
         <v>483138</v>
       </c>
     </row>
-    <row r="783" spans="1:5" ht="15" thickBot="1">
+    <row r="783" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A783" s="17">
         <v>45360</v>
       </c>
@@ -14888,7 +14877,7 @@
         <v>472662</v>
       </c>
     </row>
-    <row r="784" spans="1:5" ht="15" thickBot="1">
+    <row r="784" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A784" s="17">
         <v>45367</v>
       </c>
@@ -14906,7 +14895,7 @@
         <v>474596</v>
       </c>
     </row>
-    <row r="785" spans="1:5" ht="15" thickBot="1">
+    <row r="785" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A785" s="17">
         <v>45374</v>
       </c>
@@ -14924,7 +14913,7 @@
         <v>470593</v>
       </c>
     </row>
-    <row r="786" spans="1:5" ht="15" thickBot="1">
+    <row r="786" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A786" s="17">
         <v>45381</v>
       </c>
@@ -14942,7 +14931,7 @@
         <v>472651</v>
       </c>
     </row>
-    <row r="787" spans="1:5" ht="15" thickBot="1">
+    <row r="787" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A787" s="17">
         <v>45388</v>
       </c>
@@ -14960,7 +14949,7 @@
         <v>450142</v>
       </c>
     </row>
-    <row r="788" spans="1:5" ht="15" thickBot="1">
+    <row r="788" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A788" s="17">
         <v>45395</v>
       </c>
@@ -14978,7 +14967,7 @@
         <v>466463</v>
       </c>
     </row>
-    <row r="789" spans="1:5" ht="15" thickBot="1">
+    <row r="789" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A789" s="17">
         <v>45402</v>
       </c>
@@ -14996,7 +14985,7 @@
         <v>474544</v>
       </c>
     </row>
-    <row r="790" spans="1:5" ht="15" thickBot="1">
+    <row r="790" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A790" s="17">
         <v>45409</v>
       </c>
@@ -15014,7 +15003,7 @@
         <v>476302</v>
       </c>
     </row>
-    <row r="791" spans="1:5" ht="15" thickBot="1">
+    <row r="791" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A791" s="17">
         <v>45416</v>
       </c>
@@ -15032,7 +15021,7 @@
         <v>463106</v>
       </c>
     </row>
-    <row r="792" spans="1:5" ht="15" thickBot="1">
+    <row r="792" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A792" s="17">
         <v>45423</v>
       </c>
@@ -15050,7 +15039,7 @@
         <v>468748</v>
       </c>
     </row>
-    <row r="793" spans="1:5" ht="15" thickBot="1">
+    <row r="793" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A793" s="17">
         <v>45430</v>
       </c>
@@ -15068,7 +15057,7 @@
         <v>474886</v>
       </c>
     </row>
-    <row r="794" spans="1:5" ht="15" thickBot="1">
+    <row r="794" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A794" s="17">
         <v>45437</v>
       </c>
@@ -15086,7 +15075,7 @@
         <v>485232</v>
       </c>
     </row>
-    <row r="795" spans="1:5" ht="15" thickBot="1">
+    <row r="795" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A795" s="17">
         <v>45444</v>
       </c>
@@ -15104,7 +15093,7 @@
         <v>450077</v>
       </c>
     </row>
-    <row r="796" spans="1:5" ht="15" thickBot="1">
+    <row r="796" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A796" s="17">
         <v>45451</v>
       </c>
@@ -15122,7 +15111,7 @@
         <v>489916</v>
       </c>
     </row>
-    <row r="797" spans="1:5" ht="15" thickBot="1">
+    <row r="797" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A797" s="17">
         <v>45458</v>
       </c>
@@ -15140,7 +15129,7 @@
         <v>493138</v>
       </c>
     </row>
-    <row r="798" spans="1:5" ht="15" thickBot="1">
+    <row r="798" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A798" s="17">
         <v>45465</v>
       </c>
@@ -15158,7 +15147,7 @@
         <v>485557</v>
       </c>
     </row>
-    <row r="799" spans="1:5" ht="15" thickBot="1">
+    <row r="799" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A799" s="17">
         <v>45472</v>
       </c>
@@ -15176,7 +15165,7 @@
         <v>491899</v>
       </c>
     </row>
-    <row r="800" spans="1:5" ht="15" thickBot="1">
+    <row r="800" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A800" s="17">
         <v>45479</v>
       </c>
@@ -15194,7 +15183,7 @@
         <v>421817</v>
       </c>
     </row>
-    <row r="801" spans="1:5" ht="15" thickBot="1">
+    <row r="801" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A801" s="15">
         <v>45486</v>
       </c>
@@ -15212,7 +15201,7 @@
         <v>483806</v>
       </c>
     </row>
-    <row r="802" spans="1:5" ht="15" thickBot="1">
+    <row r="802" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A802" s="17">
         <v>45493</v>
       </c>
@@ -15230,7 +15219,7 @@
         <v>480083</v>
       </c>
     </row>
-    <row r="803" spans="1:5" ht="15" thickBot="1">
+    <row r="803" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A803" s="17">
         <v>45500</v>
       </c>
@@ -15248,7 +15237,7 @@
         <v>508496</v>
       </c>
     </row>
-    <row r="804" spans="1:5" ht="15" thickBot="1">
+    <row r="804" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A804" s="17">
         <v>45507</v>
       </c>
@@ -15266,7 +15255,7 @@
         <v>498807</v>
       </c>
     </row>
-    <row r="805" spans="1:5" ht="15" thickBot="1">
+    <row r="805" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A805" s="17">
         <v>45514</v>
       </c>
@@ -15284,7 +15273,7 @@
         <v>496509</v>
       </c>
     </row>
-    <row r="806" spans="1:5" ht="15" thickBot="1">
+    <row r="806" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A806" s="17">
         <v>45521</v>
       </c>
@@ -15302,7 +15291,7 @@
         <v>516819</v>
       </c>
     </row>
-    <row r="807" spans="1:5" ht="15" thickBot="1">
+    <row r="807" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A807" s="17">
         <v>45528</v>
       </c>
@@ -15320,7 +15309,7 @@
         <v>516807</v>
       </c>
     </row>
-    <row r="808" spans="1:5" ht="15" thickBot="1">
+    <row r="808" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A808" s="17">
         <v>45535</v>
       </c>
@@ -15338,7 +15327,7 @@
         <v>516632</v>
       </c>
     </row>
-    <row r="809" spans="1:5" ht="15" thickBot="1">
+    <row r="809" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A809" s="17">
         <v>45542</v>
       </c>
@@ -15356,7 +15345,7 @@
         <v>479179</v>
       </c>
     </row>
-    <row r="810" spans="1:5" ht="15" thickBot="1">
+    <row r="810" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A810" s="17">
         <v>45549</v>
       </c>
@@ -15374,7 +15363,7 @@
         <v>522557</v>
       </c>
     </row>
-    <row r="811" spans="1:5" ht="15" thickBot="1">
+    <row r="811" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A811" s="17">
         <v>45556</v>
       </c>
@@ -15392,7 +15381,7 @@
         <v>522112</v>
       </c>
     </row>
-    <row r="812" spans="1:5" ht="15" thickBot="1">
+    <row r="812" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A812" s="17">
         <v>45563</v>
       </c>
@@ -15410,7 +15399,7 @@
         <v>507537</v>
       </c>
     </row>
-    <row r="813" spans="1:5" ht="15" thickBot="1">
+    <row r="813" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A813" s="17">
         <v>45570</v>
       </c>
@@ -15428,7 +15417,7 @@
         <v>486187</v>
       </c>
     </row>
-    <row r="814" spans="1:5" ht="15" thickBot="1">
+    <row r="814" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A814" s="17">
         <v>45577</v>
       </c>
@@ -15446,7 +15435,7 @@
         <v>505033</v>
       </c>
     </row>
-    <row r="815" spans="1:5" ht="15" thickBot="1">
+    <row r="815" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A815" s="17">
         <v>45584</v>
       </c>
@@ -15464,7 +15453,7 @@
         <v>510730</v>
       </c>
     </row>
-    <row r="816" spans="1:5" ht="15" thickBot="1">
+    <row r="816" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A816" s="17">
         <v>45591</v>
       </c>
@@ -15482,7 +15471,7 @@
         <v>519415</v>
       </c>
     </row>
-    <row r="817" spans="1:5" ht="15" thickBot="1">
+    <row r="817" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A817" s="17">
         <v>45598</v>
       </c>
@@ -15500,7 +15489,7 @@
         <v>516743</v>
       </c>
     </row>
-    <row r="818" spans="1:5" ht="15" thickBot="1">
+    <row r="818" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A818" s="17">
         <v>45612</v>
       </c>
@@ -15518,7 +15507,7 @@
         <v>516886</v>
       </c>
     </row>
-    <row r="819" spans="1:5" ht="15" thickBot="1">
+    <row r="819" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A819" s="17">
         <v>45619</v>
       </c>
@@ -15536,7 +15525,7 @@
         <v>520798</v>
       </c>
     </row>
-    <row r="820" spans="1:5" ht="15" thickBot="1">
+    <row r="820" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A820" s="17">
         <v>45626</v>
       </c>
@@ -15554,7 +15543,7 @@
         <v>439362</v>
       </c>
     </row>
-    <row r="821" spans="1:5" ht="15" thickBot="1">
+    <row r="821" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A821" s="17">
         <v>45633</v>
       </c>
@@ -15572,7 +15561,7 @@
         <v>520894</v>
       </c>
     </row>
-    <row r="822" spans="1:5" ht="15" thickBot="1">
+    <row r="822" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A822" s="17">
         <v>45640</v>
       </c>
@@ -15590,7 +15579,7 @@
         <v>526166</v>
       </c>
     </row>
-    <row r="823" spans="1:5" ht="15" thickBot="1">
+    <row r="823" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A823" s="17">
         <v>45647</v>
       </c>
@@ -15608,7 +15597,7 @@
         <v>523912</v>
       </c>
     </row>
-    <row r="824" spans="1:5" ht="15" thickBot="1">
+    <row r="824" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A824" s="17">
         <v>45654</v>
       </c>
@@ -15626,7 +15615,7 @@
         <v>389700</v>
       </c>
     </row>
-    <row r="825" spans="1:5" ht="15" thickBot="1">
+    <row r="825" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A825" s="17">
         <v>45661</v>
       </c>
@@ -15644,7 +15633,7 @@
         <v>421410</v>
       </c>
     </row>
-    <row r="826" spans="1:5" ht="15" thickBot="1">
+    <row r="826" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A826" s="15">
         <v>45668</v>
       </c>
@@ -15662,7 +15651,7 @@
         <v>465390</v>
       </c>
     </row>
-    <row r="827" spans="1:5" ht="15" thickBot="1">
+    <row r="827" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A827" s="17">
         <v>45675</v>
       </c>
@@ -15680,7 +15669,7 @@
         <v>500160</v>
       </c>
     </row>
-    <row r="828" spans="1:5" ht="15" thickBot="1">
+    <row r="828" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A828" s="17">
         <v>45682</v>
       </c>
@@ -15698,7 +15687,7 @@
         <v>454797</v>
       </c>
     </row>
-    <row r="829" spans="1:5" ht="15" thickBot="1">
+    <row r="829" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A829" s="17">
         <v>45689</v>
       </c>
@@ -15716,7 +15705,7 @@
         <v>513622</v>
       </c>
     </row>
-    <row r="830" spans="1:5" ht="15" thickBot="1">
+    <row r="830" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A830" s="17">
         <v>45696</v>
       </c>
@@ -15734,7 +15723,7 @@
         <v>502449</v>
       </c>
     </row>
-    <row r="831" spans="1:5" ht="15" thickBot="1">
+    <row r="831" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A831" s="17">
         <v>45703</v>
       </c>
@@ -15752,7 +15741,7 @@
         <v>480740</v>
       </c>
     </row>
-    <row r="832" spans="1:5" ht="15" thickBot="1">
+    <row r="832" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A832" s="17">
         <v>45710</v>
       </c>
@@ -15770,7 +15759,7 @@
         <v>458513</v>
       </c>
     </row>
-    <row r="833" spans="1:5" ht="15" thickBot="1">
+    <row r="833" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A833" s="17">
         <v>45717</v>
       </c>
@@ -15788,7 +15777,7 @@
         <v>508531</v>
       </c>
     </row>
-    <row r="834" spans="1:5" ht="15" thickBot="1">
+    <row r="834" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A834" s="17">
         <v>45724</v>
       </c>
@@ -15821,7 +15810,7 @@
         <v>497412</v>
       </c>
     </row>
-    <row r="835" spans="1:5" ht="15" thickBot="1">
+    <row r="835" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A835" s="17">
         <v>45731</v>
       </c>
@@ -15839,7 +15828,7 @@
         <v>503473</v>
       </c>
     </row>
-    <row r="836" spans="1:5" ht="15" thickBot="1">
+    <row r="836" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A836" s="17">
         <v>45738</v>
       </c>
@@ -15857,7 +15846,7 @@
         <v>496214</v>
       </c>
     </row>
-    <row r="837" spans="1:5" ht="15" thickBot="1">
+    <row r="837" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A837" s="17">
         <v>45745</v>
       </c>
@@ -15875,7 +15864,7 @@
         <v>513553</v>
       </c>
     </row>
-    <row r="838" spans="1:5" ht="15" thickBot="1">
+    <row r="838" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A838" s="17">
         <v>45752</v>
       </c>
@@ -15893,7 +15882,7 @@
         <v>500584</v>
       </c>
     </row>
-    <row r="839" spans="1:5" ht="15" thickBot="1">
+    <row r="839" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A839" s="17">
         <v>45759</v>
       </c>
@@ -15911,7 +15900,7 @@
         <v>491908</v>
       </c>
     </row>
-    <row r="840" spans="1:5" ht="15" thickBot="1">
+    <row r="840" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A840" s="17">
         <v>45766</v>
       </c>
@@ -15929,7 +15918,7 @@
         <v>496053</v>
       </c>
     </row>
-    <row r="841" spans="1:5" ht="15" thickBot="1">
+    <row r="841" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A841" s="17">
         <v>45773</v>
       </c>
@@ -15947,7 +15936,7 @@
         <v>502105</v>
       </c>
     </row>
-    <row r="842" spans="1:5" ht="15" thickBot="1">
+    <row r="842" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A842" s="17">
         <v>45780</v>
       </c>
@@ -15965,7 +15954,7 @@
         <v>498693</v>
       </c>
     </row>
-    <row r="843" spans="1:5" ht="15" thickBot="1">
+    <row r="843" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A843" s="17">
         <v>45787</v>
       </c>
@@ -15983,7 +15972,7 @@
         <v>495552</v>
       </c>
     </row>
-    <row r="844" spans="1:5" ht="15" thickBot="1">
+    <row r="844" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A844" s="17">
         <v>45794</v>
       </c>
@@ -16001,7 +15990,7 @@
         <v>490775</v>
       </c>
     </row>
-    <row r="845" spans="1:5" ht="15" thickBot="1">
+    <row r="845" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A845" s="17">
         <v>45801</v>
       </c>
@@ -16019,7 +16008,7 @@
         <v>488709</v>
       </c>
     </row>
-    <row r="846" spans="1:5" ht="15" thickBot="1">
+    <row r="846" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A846" s="17">
         <v>45808</v>
       </c>
@@ -16037,7 +16026,7 @@
         <v>459884</v>
       </c>
     </row>
-    <row r="847" spans="1:5" ht="15" thickBot="1">
+    <row r="847" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A847" s="17">
         <v>45815</v>
       </c>
@@ -16055,7 +16044,7 @@
         <v>483807</v>
       </c>
     </row>
-    <row r="848" spans="1:5" ht="15" thickBot="1">
+    <row r="848" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A848" s="17">
         <v>45822</v>
       </c>
@@ -16073,7 +16062,7 @@
         <v>485810</v>
       </c>
     </row>
-    <row r="849" spans="1:5" ht="15" thickBot="1">
+    <row r="849" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A849" s="17">
         <v>45829</v>
       </c>
@@ -16091,7 +16080,7 @@
         <v>487328</v>
       </c>
     </row>
-    <row r="850" spans="1:5" ht="15" thickBot="1">
+    <row r="850" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A850" s="17">
         <v>45836</v>
       </c>
@@ -16109,7 +16098,7 @@
         <v>491424</v>
       </c>
     </row>
-    <row r="851" spans="1:5" ht="15" thickBot="1">
+    <row r="851" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A851" s="15">
         <v>45843</v>
       </c>
@@ -16127,7 +16116,7 @@
         <v>443049</v>
       </c>
     </row>
-    <row r="852" spans="1:5" ht="15" thickBot="1">
+    <row r="852" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A852" s="17">
         <v>45850</v>
       </c>
@@ -16145,7 +16134,7 @@
         <v>496188</v>
       </c>
     </row>
-    <row r="853" spans="1:5" ht="15" thickBot="1">
+    <row r="853" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A853" s="17">
         <v>45857</v>
       </c>
@@ -16163,7 +16152,7 @@
         <v>506882</v>
       </c>
     </row>
-    <row r="854" spans="1:5" ht="15" thickBot="1">
+    <row r="854" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A854" s="17">
         <v>45864</v>
       </c>
@@ -16181,7 +16170,7 @@
         <v>514279</v>
       </c>
     </row>
-    <row r="855" spans="1:5" ht="15" thickBot="1">
+    <row r="855" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A855" s="17">
         <v>45871</v>
       </c>
@@ -16199,7 +16188,7 @@
         <v>513529</v>
       </c>
     </row>
-    <row r="856" spans="1:5" ht="15" thickBot="1">
+    <row r="856" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A856" s="17">
         <v>45878</v>
       </c>
@@ -16217,7 +16206,7 @@
         <v>511194</v>
       </c>
     </row>
-    <row r="857" spans="1:5" ht="15" thickBot="1">
+    <row r="857" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A857" s="17">
         <v>45885</v>
       </c>
@@ -16235,7 +16224,7 @@
         <v>512970</v>
       </c>
     </row>
-    <row r="858" spans="1:5" ht="15" thickBot="1">
+    <row r="858" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A858" s="17">
         <v>45892</v>
       </c>
@@ -16253,7 +16242,7 @@
         <v>512333</v>
       </c>
     </row>
-    <row r="859" spans="1:5" ht="15" thickBot="1">
+    <row r="859" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A859" s="17">
         <v>45899</v>
       </c>
@@ -16271,7 +16260,7 @@
         <v>521502</v>
       </c>
     </row>
-    <row r="860" spans="1:5" ht="15" thickBot="1">
+    <row r="860" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A860" s="17">
         <v>45906</v>
       </c>
@@ -16289,7 +16278,7 @@
         <v>467880</v>
       </c>
     </row>
-    <row r="861" spans="1:5" ht="15" thickBot="1">
+    <row r="861" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A861" s="17">
         <v>45913</v>
       </c>
@@ -16307,7 +16296,7 @@
         <v>514167</v>
       </c>
     </row>
-    <row r="862" spans="1:5" ht="15" thickBot="1">
+    <row r="862" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A862" s="17">
         <v>45920</v>
       </c>
@@ -16325,7 +16314,7 @@
         <v>510677</v>
       </c>
     </row>
-    <row r="863" spans="1:5" ht="15" thickBot="1">
+    <row r="863" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A863" s="15">
         <v>45927</v>
       </c>
@@ -16343,7 +16332,7 @@
         <v>512642</v>
       </c>
     </row>
-    <row r="864" spans="1:5" ht="15" thickBot="1">
+    <row r="864" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A864" s="17">
         <v>45934</v>
       </c>
@@ -16361,7 +16350,7 @@
         <v>503538</v>
       </c>
     </row>
-    <row r="865" spans="1:5" ht="15" thickBot="1">
+    <row r="865" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A865" s="17">
         <v>45941</v>
       </c>
@@ -16379,7 +16368,7 @@
         <v>498462</v>
       </c>
     </row>
-    <row r="866" spans="1:5" ht="15" thickBot="1">
+    <row r="866" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A866" s="17">
         <v>45948</v>
       </c>
@@ -16397,7 +16386,7 @@
         <v>497854</v>
       </c>
     </row>
-    <row r="867" spans="1:5" ht="15" thickBot="1">
+    <row r="867" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A867" s="17">
         <v>45955</v>
       </c>
@@ -16415,7 +16404,7 @@
         <v>499688</v>
       </c>
     </row>
-    <row r="868" spans="1:5" ht="15" thickBot="1">
+    <row r="868" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A868" s="17">
         <v>45962</v>
       </c>
@@ -16433,7 +16422,7 @@
         <v>496928</v>
       </c>
     </row>
-    <row r="869" spans="1:5" ht="15" thickBot="1">
+    <row r="869" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A869" s="17">
         <v>45969</v>
       </c>
@@ -16451,7 +16440,7 @@
         <v>493493</v>
       </c>
     </row>
-    <row r="870" spans="1:5" ht="15" thickBot="1">
+    <row r="870" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A870" s="17">
         <v>45976</v>
       </c>
@@ -16469,7 +16458,7 @@
         <v>493880</v>
       </c>
     </row>
-    <row r="871" spans="1:5" ht="15" thickBot="1">
+    <row r="871" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A871" s="17">
         <v>45983</v>
       </c>
@@ -16487,7 +16476,7 @@
         <v>516110</v>
       </c>
     </row>
-    <row r="872" spans="1:5" ht="15" thickBot="1">
+    <row r="872" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A872" s="17">
         <v>45990</v>
       </c>
@@ -16505,7 +16494,7 @@
         <v>431435</v>
       </c>
     </row>
-    <row r="873" spans="1:5" ht="15" thickBot="1">
+    <row r="873" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A873" s="17">
         <v>45997</v>
       </c>
@@ -16523,7 +16512,7 @@
         <v>508999</v>
       </c>
     </row>
-    <row r="874" spans="1:5" ht="15" thickBot="1">
+    <row r="874" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A874" s="17">
         <v>46004</v>
       </c>
@@ -16541,7 +16530,7 @@
         <v>518904</v>
       </c>
     </row>
-    <row r="875" spans="1:5" ht="15" thickBot="1">
+    <row r="875" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A875" s="15">
         <v>46018</v>
       </c>
@@ -16559,7 +16548,7 @@
         <v>392295</v>
       </c>
     </row>
-    <row r="876" spans="1:5" ht="15" thickBot="1">
+    <row r="876" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A876" s="8">
         <v>46025</v>
       </c>
@@ -16577,7 +16566,7 @@
         <v>404293</v>
       </c>
     </row>
-    <row r="877" spans="1:5" ht="15" thickBot="1">
+    <row r="877" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A877" s="15">
         <v>46032</v>
       </c>
@@ -16595,7 +16584,7 @@
         <v>510457</v>
       </c>
     </row>
-    <row r="878" spans="1:5" ht="15" thickBot="1">
+    <row r="878" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A878" s="8">
         <v>46039</v>
       </c>
@@ -16628,7 +16617,7 @@
         <v>505385</v>
       </c>
     </row>
-    <row r="879" spans="1:5" ht="15" thickBot="1">
+    <row r="879" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A879" s="15">
         <v>46046</v>
       </c>
@@ -16661,7 +16650,7 @@
         <v>481708</v>
       </c>
     </row>
-    <row r="880" spans="1:5" ht="15" thickBot="1">
+    <row r="880" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A880" s="15">
         <v>46053</v>
       </c>
@@ -16694,7 +16683,7 @@
         <v>434361</v>
       </c>
     </row>
-    <row r="881" spans="1:5" ht="15" thickBot="1">
+    <row r="881" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A881" s="15">
         <v>46060</v>
       </c>
@@ -16712,7 +16701,7 @@
         <v>486854</v>
       </c>
     </row>
-    <row r="882" spans="1:5" ht="14">
+    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A882" s="8">
         <v>46067</v>
       </c>
@@ -16720,7 +16709,7 @@
         <v>46071</v>
       </c>
       <c r="C882" s="21">
-        <v>0.50347222222222221</v>
+        <v>0.50208333333333333</v>
       </c>
       <c r="D882" s="7" t="str">
         <f>IF(
@@ -16741,9 +16730,12 @@
 )</f>
         <v>UTC-5</v>
       </c>
+      <c r="E882" s="20">
+        <v>510399</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E876">
+  <sortState ref="A2:E876">
     <sortCondition ref="B2:B876"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -16760,12 +16752,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -16773,7 +16765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -16781,7 +16773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>

--- a/data/freight/US Rail Traffic.xlsx
+++ b/data/freight/US Rail Traffic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\freight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47828865-89CD-4CFC-A9BD-52F0A08D611B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9068450-D38F-4A66-8326-23060D3753EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="12120" xr2:uid="{55EF15CE-83DB-4E42-B75D-C3DAE3AA4C48}"/>
   </bookViews>
@@ -570,13 +570,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FCC8DB-37A0-4531-B65E-34C65BAF4830}">
-  <dimension ref="A1:E882"/>
+  <dimension ref="A1:E883"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="3" topLeftCell="G872" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C883" sqref="C883"/>
+      <selection pane="bottomRight" activeCell="H891" sqref="H891"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -16701,7 +16701,7 @@
         <v>486854</v>
       </c>
     </row>
-    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A882" s="8">
         <v>46067</v>
       </c>
@@ -16732,6 +16732,36 @@
       </c>
       <c r="E882" s="20">
         <v>510399</v>
+      </c>
+    </row>
+    <row r="883" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A883" s="15">
+        <v>46074</v>
+      </c>
+      <c r="B883" s="8">
+        <v>46078</v>
+      </c>
+      <c r="C883" s="21">
+        <v>0.50277777777777777</v>
+      </c>
+      <c r="D883" s="7" t="str">
+        <f t="shared" ref="D883" si="15">IF(
+ AND(
+  A883 &gt;= IF(
+         YEAR(A883)&gt;=2007,
+         DATE(YEAR(A883),3,14)-WEEKDAY(DATE(YEAR(A883),3,14),1)+1 + TIME(2,0,0),
+         DATE(YEAR(A883),4,7)-WEEKDAY(DATE(YEAR(A883),4,7),1)+1 + TIME(2,0,0)
+       ),
+  A883 &lt;  IF(
+         YEAR(A883)&gt;=2007,
+         DATE(YEAR(A883),11,7)-WEEKDAY(DATE(YEAR(A883),11,7),1)+1 + TIME(2,0,0),
+         DATE(YEAR(A883),10,31)-WEEKDAY(DATE(YEAR(A883),10,31),1) + TIME(2,0,0)
+       )
+ ),
+ "UTC-4",
+ "UTC-5"
+)</f>
+        <v>UTC-5</v>
       </c>
     </row>
   </sheetData>

--- a/data/freight/US Rail Traffic.xlsx
+++ b/data/freight/US Rail Traffic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\freight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9068450-D38F-4A66-8326-23060D3753EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA92C49E-9F55-4751-A36A-65121472975D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="12120" xr2:uid="{55EF15CE-83DB-4E42-B75D-C3DAE3AA4C48}"/>
   </bookViews>
@@ -570,13 +570,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FCC8DB-37A0-4531-B65E-34C65BAF4830}">
-  <dimension ref="A1:E883"/>
+  <dimension ref="A1:E884"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="3" topLeftCell="G872" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H891" sqref="H891"/>
+      <selection pane="bottomRight" activeCell="F886" sqref="F886"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -16739,10 +16739,10 @@
         <v>46074</v>
       </c>
       <c r="B883" s="8">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="C883" s="21">
-        <v>0.50277777777777777</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="D883" s="7" t="str">
         <f t="shared" ref="D883" si="15">IF(
@@ -16762,6 +16762,14 @@
  "UTC-5"
 )</f>
         <v>UTC-5</v>
+      </c>
+      <c r="E883" s="20">
+        <v>507712</v>
+      </c>
+    </row>
+    <row r="884" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A884" s="8">
+        <v>46081</v>
       </c>
     </row>
   </sheetData>
